--- a/data/venues_all_years_fixed.xlsx
+++ b/data/venues_all_years_fixed.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,60 +436,70 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Venue</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>address</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>organization</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>website</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>google_map_link</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>google_map_name</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>geometry-invalid</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>lat</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>lon</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>google_map_url</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>website_url</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>geometry</t>
         </is>
@@ -499,54 +509,60 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>Allenspark Fire Station</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>14861 CO-7, Allenspark, CO 80510</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
         <is>
           <t>http://www.allensparkfire.com/</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/HYN1GYNb9yE4w4RL7</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>Allenspark Fire Protection</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>POINT (-105.5279141785934 40.19712777610975)</t>
         </is>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>40.19712777610975</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>-105.5279141785934</v>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/HYN1GYNb9yE4w4RL7</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>http://www.allensparkfire.com/</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>POINT (-105.5279141785934 40.19712777610975)</t>
         </is>
@@ -556,58 +572,64 @@
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>Altona MS</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>4600 Clover Basin Dr, Longmont, CO 80503</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>SVVSD</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>https://ams.svvsd.org/</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/ew5ypnry93DZwFNj8</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>Altona Middle School</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>POINT (-105.1626179175455 40.14448266991539)</t>
         </is>
       </c>
-      <c r="I3" t="n">
+      <c r="K3" t="n">
         <v>40.14448266991539</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>-105.1626179175455</v>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/ew5ypnry93DZwFNj8</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>https://ams.svvsd.org/</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>POINT (-105.1626179175455 40.14448266991539)</t>
         </is>
@@ -617,58 +639,64 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>Angevine MS</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1150 W South Boulder Rd, Lafayette, CO 80026</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>BVSD</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>http://anm.bvsd.org/</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/QtidHUByDwtU8Z599</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>Angevine Middle School</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>POINT (-105.1033574278846 39.98955883968855)</t>
         </is>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>39.98955883968855</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>-105.1033574278846</v>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/QtidHUByDwtU8Z599</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>http://anm.bvsd.org/</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>POINT (-105.1033574278846 39.98955883968855)</t>
         </is>
@@ -678,58 +706,64 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>Boulder HS</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1604 Arapahoe Ave, Boulder, CO 80302</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>BVSD</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>http://boh.bvsd.org/</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/dKMDjeKUL4kjNDMp6</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>Boulder High School</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>POINT (-105.2728711769165 40.01411590640171)</t>
         </is>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>40.01411590640171</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>-105.2728711769165</v>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/dKMDjeKUL4kjNDMp6</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>http://boh.bvsd.org/</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>POINT (-105.2728711769165 40.01411590640171)</t>
         </is>
@@ -739,58 +773,64 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>Burlington Elementary</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1051 S Pratt Pkwy, Longmont, CO 80501</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>SVVSD</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>http://bes.svvsd.org/</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/QefhqxMskS5oyZY87</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>Burlington Elementary School</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>POINT (-105.108633248163 40.1466539913149)</t>
         </is>
       </c>
-      <c r="I6" t="n">
+      <c r="K6" t="n">
         <v>40.1466539913149</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>-105.108633248163</v>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/QefhqxMskS5oyZY87</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>http://bes.svvsd.org/</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>POINT (-105.108633248163 40.1466539913149)</t>
         </is>
@@ -800,58 +840,64 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>Casey MS</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1301 High St, Boulder, CO 80304</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>BVSD</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>http://cam.bvsd.org/</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/kqj3JEma8TPCRKWU9</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>Casey Middle School</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>POINT (-105.2791579470394 40.0228711759357)</t>
         </is>
       </c>
-      <c r="I7" t="n">
+      <c r="K7" t="n">
         <v>40.0228711759357</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>-105.2791579470394</v>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/kqj3JEma8TPCRKWU9</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>http://cam.bvsd.org/</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>POINT (-105.2791579470394 40.0228711759357)</t>
         </is>
@@ -861,58 +907,64 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>Centaurus HS</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>10300 W South Boulder Rd, Lafayette, CO 80026</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>BVSD</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>http://ceh.bvsd.org/</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/qmDEC4W3XTN7acfs9</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>Centaurus High School</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>POINT (-105.1125276640655 39.98635981263706)</t>
         </is>
       </c>
-      <c r="I8" t="n">
+      <c r="K8" t="n">
         <v>39.98635981263706</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>-105.1125276640655</v>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/qmDEC4W3XTN7acfs9</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>http://ceh.bvsd.org/</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>POINT (-105.1125276640655 39.98635981263706)</t>
         </is>
@@ -922,58 +974,64 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>Centennial MS</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2205 Norwood Ave, Boulder, CO 80304</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>BVSD</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>http://cem.bvsd.org/</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/tKhhHtoniAvTfpPH9</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>Centennial Middle School</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>POINT (-105.2671472290834 40.04506796264024)</t>
         </is>
       </c>
-      <c r="I9" t="n">
+      <c r="K9" t="n">
         <v>40.04506796264024</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>-105.2671472290834</v>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/tKhhHtoniAvTfpPH9</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>http://cem.bvsd.org/</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>POINT (-105.2671472290834 40.04506796264024)</t>
         </is>
@@ -983,58 +1041,64 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>Eldorado K8</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>3351 S Indiana St, Superior, CO 80027</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>BVSD</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>http://el8.bvsd.org/</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/s2gJjfVYasWGLpMz7</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>Eldorado K-8 School</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>POINT (-105.161197194222 39.921698179021)</t>
         </is>
       </c>
-      <c r="I10" t="n">
+      <c r="K10" t="n">
         <v>39.921698179021</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>-105.161197194222</v>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/s2gJjfVYasWGLpMz7</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>http://el8.bvsd.org/</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>POINT (-105.161197194222 39.921698179021)</t>
         </is>
@@ -1044,46 +1108,52 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>Eldorado Sp. Fire House</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>4390 Eldorado Springs Dr, Boulder, CO 80303</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/TBWeoHAtGKUfwDy79</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>Rocky Mountain Fire District Station 6</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>POINT (-105.2493101229037 39.94266172014046)</t>
         </is>
       </c>
-      <c r="I11" t="n">
+      <c r="K11" t="n">
         <v>39.94266172014046</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>-105.2493101229037</v>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/TBWeoHAtGKUfwDy79</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr">
         <is>
           <t>POINT (-105.2493101229037 39.94266172014046)</t>
         </is>
@@ -1093,58 +1163,64 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>Erie MS</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>650 Main St, Erie, CO 80516</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>SVVSD</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>https://ems.svvsd.org/</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/A5evm4HRnAPM1aUp8</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>Erie Middle School</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>POINT (-105.0529688258069 40.05101707648438)</t>
         </is>
       </c>
-      <c r="I12" t="n">
+      <c r="K12" t="n">
         <v>40.05101707648438</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>-105.0529688258069</v>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/A5evm4HRnAPM1aUp8</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>https://ems.svvsd.org/</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>POINT (-105.0529688258069 40.05101707648438)</t>
         </is>
@@ -1154,54 +1230,60 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>Frasier Mead.</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>350 Ponca Pl, Boulder, CO 80303</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
         <is>
           <t>http://www.frasiermeadows.org/</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/RCv4sKncUCjLLnzP7</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>Frasier Retirement Community</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>POINT (-105.2338815741678 39.99456396590154)</t>
         </is>
       </c>
-      <c r="I13" t="n">
+      <c r="K13" t="n">
         <v>39.99456396590154</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>-105.2338815741678</v>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/RCv4sKncUCjLLnzP7</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>http://www.frasiermeadows.org/</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>POINT (-105.2338815741678 39.99456396590154)</t>
         </is>
@@ -1211,58 +1293,64 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>Gold Hill School</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>890 Main St, Boulder, CO 80302</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>BVSD</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>http://ghe.bvsd.org/</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/PZV28vuUvb8p7LJs6</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>Gold Hill Elementary School</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>POINT (-105.412472825461 40.063366273762)</t>
         </is>
       </c>
-      <c r="I14" t="n">
+      <c r="K14" t="n">
         <v>40.063366273762</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>-105.412472825461</v>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/PZV28vuUvb8p7LJs6</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>http://ghe.bvsd.org/</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>POINT (-105.412472825461 40.063366273762)</t>
         </is>
@@ -1272,58 +1360,64 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>Indian Peaks ES</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1335 S Judson St, Longmont, CO 80501</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>SVVSD</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>https://ipes.svvsd.org/</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/rFzqgoYXNnAMFNG27</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>Indian Peaks Elementary School</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>POINT (-105.118010493892 40.14327187343834)</t>
         </is>
       </c>
-      <c r="I15" t="n">
+      <c r="K15" t="n">
         <v>40.14327187343834</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>-105.118010493892</v>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/rFzqgoYXNnAMFNG27</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>https://ipes.svvsd.org/</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>POINT (-105.118010493892 40.14327187343834)</t>
         </is>
@@ -1333,58 +1427,64 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>Jamestown School</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>111 Mesa St, Jamestown, CO 80455</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>BVSD</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>http://jae.bvsd.org/</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/xaKW9Ljh7VtMuQPf6</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>Jamestown Elementary School</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>POINT (-105.387802261192 40.1164318137431)</t>
         </is>
       </c>
-      <c r="I16" t="n">
+      <c r="K16" t="n">
         <v>40.1164318137431</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>-105.387802261192</v>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="M16" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/xaKW9Ljh7VtMuQPf6</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="N16" t="inlineStr">
         <is>
           <t>http://jae.bvsd.org/</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="O16" t="inlineStr">
         <is>
           <t>POINT (-105.387802261192 40.1164318137431)</t>
         </is>
@@ -1394,58 +1494,64 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>Longs Peak MS</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1500 14th Ave, Longmont, CO 80501</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>SVVSD</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>http://lpms.svvsd.org/</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/44xqEDG33jkv1pN28</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>Longs Peak Middle School</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>POINT (-105.117518880356 40.18399195721774)</t>
         </is>
       </c>
-      <c r="I17" t="n">
+      <c r="K17" t="n">
         <v>40.18399195721774</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>-105.117518880356</v>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="M17" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/44xqEDG33jkv1pN28</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="N17" t="inlineStr">
         <is>
           <t>http://lpms.svvsd.org/</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="O17" t="inlineStr">
         <is>
           <t>POINT (-105.117518880356 40.18399195721774)</t>
         </is>
@@ -1455,58 +1561,64 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>Louisville MS</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1341 Main St, Louisville, CO 80027</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>BVSD</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>http://lom.bvsd.org/</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/VT5YaQMB64667476A</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>Louisville Middle School</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>POINT (-105.1325745422844 39.9841246724845)</t>
         </is>
       </c>
-      <c r="I18" t="n">
+      <c r="K18" t="n">
         <v>39.9841246724845</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>-105.1325745422844</v>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="M18" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/VT5YaQMB64667476A</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="N18" t="inlineStr">
         <is>
           <t>http://lom.bvsd.org/</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
+      <c r="O18" t="inlineStr">
         <is>
           <t>POINT (-105.1325745422844 39.9841246724845)</t>
         </is>
@@ -1516,58 +1628,64 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>Lyons Middle Senior</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>100 McConnell Dr, Lyons, CO 80540</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>SVVSD</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>https://lmshs.svvsd.org/</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/ohTLL54wbPdkJNFA8</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>Lyons Middle/Senior High School</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>POINT (-105.264461148759 40.2147599852984)</t>
         </is>
       </c>
-      <c r="I19" t="n">
+      <c r="K19" t="n">
         <v>40.2147599852984</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>-105.264461148759</v>
       </c>
-      <c r="K19" t="inlineStr">
+      <c r="M19" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/ohTLL54wbPdkJNFA8</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="N19" t="inlineStr">
         <is>
           <t>https://lmshs.svvsd.org/</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr">
+      <c r="O19" t="inlineStr">
         <is>
           <t>POINT (-105.264461148759 40.2147599852984)</t>
         </is>
@@ -1577,58 +1695,64 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>Manhattan MS</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>290 Manhattan Dr, Boulder, CO 80303</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>BVSD</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>http://mam.bvsd.org/</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/pkEKK86Dh3tGgHz46</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>Manhattan Middle School of Arts and Academics</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>POINT (-105.2273572175253 39.99410342530379)</t>
         </is>
       </c>
-      <c r="I20" t="n">
+      <c r="K20" t="n">
         <v>39.99410342530379</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>-105.2273572175253</v>
       </c>
-      <c r="K20" t="inlineStr">
+      <c r="M20" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/pkEKK86Dh3tGgHz46</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="N20" t="inlineStr">
         <is>
           <t>http://mam.bvsd.org/</t>
         </is>
       </c>
-      <c r="M20" t="inlineStr">
+      <c r="O20" t="inlineStr">
         <is>
           <t>POINT (-105.2273572175253 39.99410342530379)</t>
         </is>
@@ -1638,58 +1762,64 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>Monarch HS</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>329 Campus Dr, Louisville, CO 80027</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>BVSD</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>http://moh.bvsd.org/</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/GVkb3S8qP6y3d6Lc6</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>Monarch High School</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>POINT (-105.141776992356 39.9520220573069)</t>
         </is>
       </c>
-      <c r="I21" t="n">
+      <c r="K21" t="n">
         <v>39.9520220573069</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>-105.141776992356</v>
       </c>
-      <c r="K21" t="inlineStr">
+      <c r="M21" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/GVkb3S8qP6y3d6Lc6</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="N21" t="inlineStr">
         <is>
           <t>http://moh.bvsd.org/</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr">
+      <c r="O21" t="inlineStr">
         <is>
           <t>POINT (-105.141776992356 39.9520220573069)</t>
         </is>
@@ -1699,58 +1829,64 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>Monarch K-8</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>263 Campus Dr, Louisville, CO 80027</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>BVSD</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>http://mo8.bvsd.org/</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/fM4A7oD6cKkm9gXJ9</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>Monarch K-8</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>POINT (-105.1435104051174 39.95142599070905)</t>
         </is>
       </c>
-      <c r="I22" t="n">
+      <c r="K22" t="n">
         <v>39.95142599070905</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>-105.1435104051174</v>
       </c>
-      <c r="K22" t="inlineStr">
+      <c r="M22" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/fM4A7oD6cKkm9gXJ9</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="N22" t="inlineStr">
         <is>
           <t>http://mo8.bvsd.org/</t>
         </is>
       </c>
-      <c r="M22" t="inlineStr">
+      <c r="O22" t="inlineStr">
         <is>
           <t>POINT (-105.1435104051174 39.95142599070905)</t>
         </is>
@@ -1760,58 +1896,64 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>Nederland HS</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>597 Co Hwy 130, Nederland, CO 80466</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>BVSD</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>https://neh.bvsd.org/</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/mVMWPW4o458ETfhw5</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>Nederland Middle/Senior High School</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>POINT (-105.5233421126253 39.95383849383303)</t>
         </is>
       </c>
-      <c r="I23" t="n">
+      <c r="K23" t="n">
         <v>39.95383849383303</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>-105.5233421126253</v>
       </c>
-      <c r="K23" t="inlineStr">
+      <c r="M23" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/mVMWPW4o458ETfhw5</t>
         </is>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="N23" t="inlineStr">
         <is>
           <t>https://neh.bvsd.org/</t>
         </is>
       </c>
-      <c r="M23" t="inlineStr">
+      <c r="O23" t="inlineStr">
         <is>
           <t>POINT (-105.5233421126253 39.95383849383303)</t>
         </is>
@@ -1821,58 +1963,64 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>Niwot HS</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>8989 Niwot Rd, Niwot, CO 80503</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>SVVSD</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>https://nhs.svvsd.org/</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/VmRuiC4cCzQrbJPR7</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>Niwot High School</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>POINT (-105.1442414652976 40.10369506217272)</t>
         </is>
       </c>
-      <c r="I24" t="n">
+      <c r="K24" t="n">
         <v>40.10369506217272</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>-105.1442414652976</v>
       </c>
-      <c r="K24" t="inlineStr">
+      <c r="M24" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/VmRuiC4cCzQrbJPR7</t>
         </is>
       </c>
-      <c r="L24" t="inlineStr">
+      <c r="N24" t="inlineStr">
         <is>
           <t>https://nhs.svvsd.org/</t>
         </is>
       </c>
-      <c r="M24" t="inlineStr">
+      <c r="O24" t="inlineStr">
         <is>
           <t>POINT (-105.1442414652976 40.10369506217272)</t>
         </is>
@@ -1882,58 +2030,64 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>Silver Creek HS</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>4901 Nelson Rd, Longmont, CO 80503</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>SVVSD</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>http://schs.svvsd.org/</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/6j7ZvjGuNgq38Uv1A</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>Silver Creek High School</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>POINT (-105.1665699930847 40.15137160754995)</t>
         </is>
       </c>
-      <c r="I25" t="n">
+      <c r="K25" t="n">
         <v>40.15137160754995</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>-105.1665699930847</v>
       </c>
-      <c r="K25" t="inlineStr">
+      <c r="M25" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/6j7ZvjGuNgq38Uv1A</t>
         </is>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="N25" t="inlineStr">
         <is>
           <t>http://schs.svvsd.org/</t>
         </is>
       </c>
-      <c r="M25" t="inlineStr">
+      <c r="O25" t="inlineStr">
         <is>
           <t>POINT (-105.1665699930847 40.15137160754995)</t>
         </is>
@@ -1943,58 +2097,64 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>Southern Hills MS</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1500 Knox Dr, Boulder, CO 80305</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>BVSD</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>http://shm.bvsd.org/</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/J5CQaiF7gt1pezXm8</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>Southern Hills Middle School</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>POINT (-105.2452260530946 39.97413389369987)</t>
         </is>
       </c>
-      <c r="I26" t="n">
+      <c r="K26" t="n">
         <v>39.97413389369987</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>-105.2452260530946</v>
       </c>
-      <c r="K26" t="inlineStr">
+      <c r="M26" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/J5CQaiF7gt1pezXm8</t>
         </is>
       </c>
-      <c r="L26" t="inlineStr">
+      <c r="N26" t="inlineStr">
         <is>
           <t>http://shm.bvsd.org/</t>
         </is>
       </c>
-      <c r="M26" t="inlineStr">
+      <c r="O26" t="inlineStr">
         <is>
           <t>POINT (-105.2452260530946 39.97413389369987)</t>
         </is>
@@ -2004,58 +2164,64 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>Sunset MS</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1300 S Sunset St, Longmont, CO 80501</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>SVVSD</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>http://sms.svvsd.org/</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/2iVHM51MYZg9XEZo9</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>Sunset Middle School</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>POINT (-105.1199067185428 40.14458073069962)</t>
         </is>
       </c>
-      <c r="I27" t="n">
+      <c r="K27" t="n">
         <v>40.14458073069962</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>-105.1199067185428</v>
       </c>
-      <c r="K27" t="inlineStr">
+      <c r="M27" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/2iVHM51MYZg9XEZo9</t>
         </is>
       </c>
-      <c r="L27" t="inlineStr">
+      <c r="N27" t="inlineStr">
         <is>
           <t>http://sms.svvsd.org/</t>
         </is>
       </c>
-      <c r="M27" t="inlineStr">
+      <c r="O27" t="inlineStr">
         <is>
           <t>POINT (-105.1199067185428 40.14458073069962)</t>
         </is>
@@ -2065,58 +2231,64 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>Timberline PK-8</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>233 E Mountain View Ave, Longmont, CO 80504</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>SVVSD</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>http://tpk8.svvsd.org/</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/Dqyuok7JMiowX96x5</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>Timberline PK-8 SVVSD</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>POINT (-105.0857347392096 40.18091133152473)</t>
         </is>
       </c>
-      <c r="I28" t="n">
+      <c r="K28" t="n">
         <v>40.18091133152473</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>-105.0857347392096</v>
       </c>
-      <c r="K28" t="inlineStr">
+      <c r="M28" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/Dqyuok7JMiowX96x5</t>
         </is>
       </c>
-      <c r="L28" t="inlineStr">
+      <c r="N28" t="inlineStr">
         <is>
           <t>http://tpk8.svvsd.org/</t>
         </is>
       </c>
-      <c r="M28" t="inlineStr">
+      <c r="O28" t="inlineStr">
         <is>
           <t>POINT (-105.0857347392096 40.18091133152473)</t>
         </is>
@@ -2126,58 +2298,64 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>Trail Ridge MS</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1000 Button Rock Dr, Longmont, CO 80504</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>SVVSD</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>https://trms.svvsd.org/</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/jwrYoLXX3rzhtEFy7</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>Trail Ridge Middle School</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>POINT (-105.0576162268638 40.17693117783666)</t>
         </is>
       </c>
-      <c r="I29" t="n">
+      <c r="K29" t="n">
         <v>40.17693117783666</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>-105.0576162268638</v>
       </c>
-      <c r="K29" t="inlineStr">
+      <c r="M29" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/jwrYoLXX3rzhtEFy7</t>
         </is>
       </c>
-      <c r="L29" t="inlineStr">
+      <c r="N29" t="inlineStr">
         <is>
           <t>https://trms.svvsd.org/</t>
         </is>
       </c>
-      <c r="M29" t="inlineStr">
+      <c r="O29" t="inlineStr">
         <is>
           <t>POINT (-105.0576162268638 40.17693117783666)</t>
         </is>
@@ -2187,34 +2365,40 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>Ward Private Home</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr">
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr">
         <is>
           <t>Ward private home</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>POINT (-105.506518983446 40.0733984409928)</t>
         </is>
       </c>
-      <c r="I30" t="n">
+      <c r="K30" t="n">
         <v>40.0733984409928</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>-105.506518983446</v>
       </c>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr">
         <is>
           <t>POINT (-105.506518983446 40.0733984409928)</t>
         </is>

--- a/data/venues_all_years_fixed.xlsx
+++ b/data/venues_all_years_fixed.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O30"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,70 +436,60 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 0.1</t>
+          <t>Venue</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 0</t>
+          <t>address</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Venue</t>
+          <t>organization</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>address</t>
+          <t>website</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>organization</t>
+          <t>google_map_link</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>website</t>
+          <t>google_map_name</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>google_map_link</t>
+          <t>geometry-invalid</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>google_map_name</t>
+          <t>lat</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>geometry-invalid</t>
+          <t>lon</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>lat</t>
+          <t>google_map_url</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>lon</t>
+          <t>website_url</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>google_map_url</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>website_url</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>geometry</t>
         </is>
@@ -509,60 +499,54 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>Allenspark Fire Station</t>
         </is>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>14861 CO-7, Allenspark, CO 80510</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>14861 CO-7, Allenspark, CO 80510</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
+          <t>http://www.allensparkfire.com/</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/HYN1GYNb9yE4w4RL7</t>
+        </is>
+      </c>
       <c r="G2" t="inlineStr">
         <is>
+          <t>Allenspark Fire Protection</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>POINT (-105.5279141785934 40.19712777610975)</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>40.19712777610975</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-105.5279141785934</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/HYN1GYNb9yE4w4RL7</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
           <t>http://www.allensparkfire.com/</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/HYN1GYNb9yE4w4RL7</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Allenspark Fire Protection</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>POINT (-105.5279141785934 40.19712777610975)</t>
-        </is>
-      </c>
-      <c r="K2" t="n">
-        <v>40.19712777610975</v>
-      </c>
-      <c r="L2" t="n">
-        <v>-105.5279141785934</v>
-      </c>
       <c r="M2" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/HYN1GYNb9yE4w4RL7</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>http://www.allensparkfire.com/</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
         <is>
           <t>POINT (-105.5279141785934 40.19712777610975)</t>
         </is>
@@ -572,64 +556,58 @@
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Altona MS</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>4600 Clover Basin Dr, Longmont, CO 80503</t>
+        </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Altona MS</t>
+          <t>SVVSD</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4600 Clover Basin Dr, Longmont, CO 80503</t>
+          <t>https://ams.svvsd.org/</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>SVVSD</t>
+          <t>https://maps.app.goo.gl/ew5ypnry93DZwFNj8</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
+          <t>Altona Middle School</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>POINT (-105.1626179175455 40.14448266991539)</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>40.14448266991539</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-105.1626179175455</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/ew5ypnry93DZwFNj8</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
           <t>https://ams.svvsd.org/</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/ew5ypnry93DZwFNj8</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Altona Middle School</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>POINT (-105.1626179175455 40.14448266991539)</t>
-        </is>
-      </c>
-      <c r="K3" t="n">
-        <v>40.14448266991539</v>
-      </c>
-      <c r="L3" t="n">
-        <v>-105.1626179175455</v>
-      </c>
       <c r="M3" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/ew5ypnry93DZwFNj8</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>https://ams.svvsd.org/</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
         <is>
           <t>POINT (-105.1626179175455 40.14448266991539)</t>
         </is>
@@ -639,64 +617,58 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Angevine MS</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1150 W South Boulder Rd, Lafayette, CO 80026</t>
+        </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Angevine MS</t>
+          <t>BVSD</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1150 W South Boulder Rd, Lafayette, CO 80026</t>
+          <t>http://anm.bvsd.org/</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>BVSD</t>
+          <t>https://maps.app.goo.gl/QtidHUByDwtU8Z599</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
+          <t>Angevine Middle School</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>POINT (-105.1033574278846 39.98955883968855)</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>39.98955883968855</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-105.1033574278846</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/QtidHUByDwtU8Z599</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
           <t>http://anm.bvsd.org/</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/QtidHUByDwtU8Z599</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Angevine Middle School</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>POINT (-105.1033574278846 39.98955883968855)</t>
-        </is>
-      </c>
-      <c r="K4" t="n">
-        <v>39.98955883968855</v>
-      </c>
-      <c r="L4" t="n">
-        <v>-105.1033574278846</v>
-      </c>
       <c r="M4" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/QtidHUByDwtU8Z599</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>http://anm.bvsd.org/</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
         <is>
           <t>POINT (-105.1033574278846 39.98955883968855)</t>
         </is>
@@ -706,64 +678,58 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Boulder HS</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1604 Arapahoe Ave, Boulder, CO 80302</t>
+        </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Boulder HS</t>
+          <t>BVSD</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1604 Arapahoe Ave, Boulder, CO 80302</t>
+          <t>http://boh.bvsd.org/</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>BVSD</t>
+          <t>https://maps.app.goo.gl/dKMDjeKUL4kjNDMp6</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
+          <t>Boulder High School</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>POINT (-105.2728711769165 40.01411590640171)</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>40.01411590640171</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-105.2728711769165</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/dKMDjeKUL4kjNDMp6</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
           <t>http://boh.bvsd.org/</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/dKMDjeKUL4kjNDMp6</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Boulder High School</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>POINT (-105.2728711769165 40.01411590640171)</t>
-        </is>
-      </c>
-      <c r="K5" t="n">
-        <v>40.01411590640171</v>
-      </c>
-      <c r="L5" t="n">
-        <v>-105.2728711769165</v>
-      </c>
       <c r="M5" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/dKMDjeKUL4kjNDMp6</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>http://boh.bvsd.org/</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
         <is>
           <t>POINT (-105.2728711769165 40.01411590640171)</t>
         </is>
@@ -773,64 +739,58 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>4</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Burlington Elementary</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1051 S Pratt Pkwy, Longmont, CO 80501</t>
+        </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Burlington Elementary</t>
+          <t>SVVSD</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1051 S Pratt Pkwy, Longmont, CO 80501</t>
+          <t>http://bes.svvsd.org/</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>SVVSD</t>
+          <t>https://maps.app.goo.gl/QefhqxMskS5oyZY87</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
+          <t>Burlington Elementary School</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>POINT (-105.108633248163 40.1466539913149)</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>40.1466539913149</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-105.108633248163</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/QefhqxMskS5oyZY87</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
           <t>http://bes.svvsd.org/</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/QefhqxMskS5oyZY87</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Burlington Elementary School</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>POINT (-105.108633248163 40.1466539913149)</t>
-        </is>
-      </c>
-      <c r="K6" t="n">
-        <v>40.1466539913149</v>
-      </c>
-      <c r="L6" t="n">
-        <v>-105.108633248163</v>
-      </c>
       <c r="M6" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/QefhqxMskS5oyZY87</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>http://bes.svvsd.org/</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
         <is>
           <t>POINT (-105.108633248163 40.1466539913149)</t>
         </is>
@@ -840,64 +800,58 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>5</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Casey MS</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1301 High St, Boulder, CO 80304</t>
+        </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Casey MS</t>
+          <t>BVSD</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1301 High St, Boulder, CO 80304</t>
+          <t>http://cam.bvsd.org/</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>BVSD</t>
+          <t>https://maps.app.goo.gl/kqj3JEma8TPCRKWU9</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
+          <t>Casey Middle School</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>POINT (-105.2791579470394 40.0228711759357)</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>40.0228711759357</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-105.2791579470394</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/kqj3JEma8TPCRKWU9</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
           <t>http://cam.bvsd.org/</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/kqj3JEma8TPCRKWU9</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Casey Middle School</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>POINT (-105.2791579470394 40.0228711759357)</t>
-        </is>
-      </c>
-      <c r="K7" t="n">
-        <v>40.0228711759357</v>
-      </c>
-      <c r="L7" t="n">
-        <v>-105.2791579470394</v>
-      </c>
       <c r="M7" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/kqj3JEma8TPCRKWU9</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>http://cam.bvsd.org/</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
         <is>
           <t>POINT (-105.2791579470394 40.0228711759357)</t>
         </is>
@@ -907,64 +861,58 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>6</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Centaurus HS</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>10300 W South Boulder Rd, Lafayette, CO 80026</t>
+        </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Centaurus HS</t>
+          <t>BVSD</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>10300 W South Boulder Rd, Lafayette, CO 80026</t>
+          <t>http://ceh.bvsd.org/</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>BVSD</t>
+          <t>https://maps.app.goo.gl/qmDEC4W3XTN7acfs9</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
+          <t>Centaurus High School</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>POINT (-105.1125276640655 39.98635981263706)</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>39.98635981263706</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-105.1125276640655</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/qmDEC4W3XTN7acfs9</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
           <t>http://ceh.bvsd.org/</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/qmDEC4W3XTN7acfs9</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>Centaurus High School</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>POINT (-105.1125276640655 39.98635981263706)</t>
-        </is>
-      </c>
-      <c r="K8" t="n">
-        <v>39.98635981263706</v>
-      </c>
-      <c r="L8" t="n">
-        <v>-105.1125276640655</v>
-      </c>
       <c r="M8" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/qmDEC4W3XTN7acfs9</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>http://ceh.bvsd.org/</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
         <is>
           <t>POINT (-105.1125276640655 39.98635981263706)</t>
         </is>
@@ -974,64 +922,58 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>7</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Centennial MS</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2205 Norwood Ave, Boulder, CO 80304</t>
+        </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Centennial MS</t>
+          <t>BVSD</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2205 Norwood Ave, Boulder, CO 80304</t>
+          <t>http://cem.bvsd.org/</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>BVSD</t>
+          <t>https://maps.app.goo.gl/tKhhHtoniAvTfpPH9</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
+          <t>Centennial Middle School</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>POINT (-105.2671472290834 40.04506796264024)</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>40.04506796264024</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-105.2671472290834</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/tKhhHtoniAvTfpPH9</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
           <t>http://cem.bvsd.org/</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/tKhhHtoniAvTfpPH9</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>Centennial Middle School</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>POINT (-105.2671472290834 40.04506796264024)</t>
-        </is>
-      </c>
-      <c r="K9" t="n">
-        <v>40.04506796264024</v>
-      </c>
-      <c r="L9" t="n">
-        <v>-105.2671472290834</v>
-      </c>
       <c r="M9" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/tKhhHtoniAvTfpPH9</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>http://cem.bvsd.org/</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
         <is>
           <t>POINT (-105.2671472290834 40.04506796264024)</t>
         </is>
@@ -1041,64 +983,58 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>8</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Eldorado K8</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>3351 S Indiana St, Superior, CO 80027</t>
+        </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Eldorado K8</t>
+          <t>BVSD</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3351 S Indiana St, Superior, CO 80027</t>
+          <t>http://el8.bvsd.org/</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>BVSD</t>
+          <t>https://maps.app.goo.gl/s2gJjfVYasWGLpMz7</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
+          <t>Eldorado K-8 School</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>POINT (-105.161197194222 39.921698179021)</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>39.921698179021</v>
+      </c>
+      <c r="J10" t="n">
+        <v>-105.161197194222</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/s2gJjfVYasWGLpMz7</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
           <t>http://el8.bvsd.org/</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/s2gJjfVYasWGLpMz7</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>Eldorado K-8 School</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>POINT (-105.161197194222 39.921698179021)</t>
-        </is>
-      </c>
-      <c r="K10" t="n">
-        <v>39.921698179021</v>
-      </c>
-      <c r="L10" t="n">
-        <v>-105.161197194222</v>
-      </c>
       <c r="M10" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/s2gJjfVYasWGLpMz7</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>http://el8.bvsd.org/</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
         <is>
           <t>POINT (-105.161197194222 39.921698179021)</t>
         </is>
@@ -1108,52 +1044,46 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>9</v>
-      </c>
-      <c r="D11" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>Eldorado Sp. Fire House</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>4390 Eldorado Springs Dr, Boulder, CO 80303</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/TBWeoHAtGKUfwDy79</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Rocky Mountain Fire District Station 6</t>
+        </is>
+      </c>
       <c r="H11" t="inlineStr">
         <is>
+          <t>POINT (-105.2493101229037 39.94266172014046)</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>39.94266172014046</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-105.2493101229037</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
           <t>https://maps.app.goo.gl/TBWeoHAtGKUfwDy79</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>Rocky Mountain Fire District Station 6</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>POINT (-105.2493101229037 39.94266172014046)</t>
-        </is>
-      </c>
-      <c r="K11" t="n">
-        <v>39.94266172014046</v>
-      </c>
-      <c r="L11" t="n">
-        <v>-105.2493101229037</v>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/TBWeoHAtGKUfwDy79</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr">
         <is>
           <t>POINT (-105.2493101229037 39.94266172014046)</t>
         </is>
@@ -1163,64 +1093,58 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
-        <v>10</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Erie MS</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>650 Main St, Erie, CO 80516</t>
+        </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Erie MS</t>
+          <t>SVVSD</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>650 Main St, Erie, CO 80516</t>
+          <t>https://ems.svvsd.org/</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>SVVSD</t>
+          <t>https://maps.app.goo.gl/A5evm4HRnAPM1aUp8</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
+          <t>Erie Middle School</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>POINT (-105.0529688258069 40.05101707648438)</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>40.05101707648438</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-105.0529688258069</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/A5evm4HRnAPM1aUp8</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
           <t>https://ems.svvsd.org/</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/A5evm4HRnAPM1aUp8</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>Erie Middle School</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>POINT (-105.0529688258069 40.05101707648438)</t>
-        </is>
-      </c>
-      <c r="K12" t="n">
-        <v>40.05101707648438</v>
-      </c>
-      <c r="L12" t="n">
-        <v>-105.0529688258069</v>
-      </c>
       <c r="M12" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/A5evm4HRnAPM1aUp8</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>https://ems.svvsd.org/</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
         <is>
           <t>POINT (-105.0529688258069 40.05101707648438)</t>
         </is>
@@ -1230,60 +1154,54 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="n">
-        <v>11</v>
-      </c>
-      <c r="D13" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>Frasier Mead.</t>
         </is>
       </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>350 Ponca Pl, Boulder, CO 80303</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>350 Ponca Pl, Boulder, CO 80303</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr"/>
+          <t>http://www.frasiermeadows.org/</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/RCv4sKncUCjLLnzP7</t>
+        </is>
+      </c>
       <c r="G13" t="inlineStr">
         <is>
+          <t>Frasier Retirement Community</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>POINT (-105.2338815741678 39.99456396590154)</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>39.99456396590154</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-105.2338815741678</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/RCv4sKncUCjLLnzP7</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
           <t>http://www.frasiermeadows.org/</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/RCv4sKncUCjLLnzP7</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>Frasier Retirement Community</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>POINT (-105.2338815741678 39.99456396590154)</t>
-        </is>
-      </c>
-      <c r="K13" t="n">
-        <v>39.99456396590154</v>
-      </c>
-      <c r="L13" t="n">
-        <v>-105.2338815741678</v>
-      </c>
       <c r="M13" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/RCv4sKncUCjLLnzP7</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>http://www.frasiermeadows.org/</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
         <is>
           <t>POINT (-105.2338815741678 39.99456396590154)</t>
         </is>
@@ -1293,64 +1211,58 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" t="n">
-        <v>12</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Gold Hill School</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>890 Main St, Boulder, CO 80302</t>
+        </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Gold Hill School</t>
+          <t>BVSD</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>890 Main St, Boulder, CO 80302</t>
+          <t>http://ghe.bvsd.org/</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>BVSD</t>
+          <t>https://maps.app.goo.gl/PZV28vuUvb8p7LJs6</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
+          <t>Gold Hill Elementary School</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>POINT (-105.412472825461 40.063366273762)</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>40.063366273762</v>
+      </c>
+      <c r="J14" t="n">
+        <v>-105.412472825461</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/PZV28vuUvb8p7LJs6</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
           <t>http://ghe.bvsd.org/</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/PZV28vuUvb8p7LJs6</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>Gold Hill Elementary School</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>POINT (-105.412472825461 40.063366273762)</t>
-        </is>
-      </c>
-      <c r="K14" t="n">
-        <v>40.063366273762</v>
-      </c>
-      <c r="L14" t="n">
-        <v>-105.412472825461</v>
-      </c>
       <c r="M14" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/PZV28vuUvb8p7LJs6</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>http://ghe.bvsd.org/</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
         <is>
           <t>POINT (-105.412472825461 40.063366273762)</t>
         </is>
@@ -1360,64 +1272,58 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="n">
-        <v>13</v>
-      </c>
-      <c r="C15" t="n">
-        <v>13</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Indian Peaks ES</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1335 S Judson St, Longmont, CO 80501</t>
+        </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Indian Peaks ES</t>
+          <t>SVVSD</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1335 S Judson St, Longmont, CO 80501</t>
+          <t>https://ipes.svvsd.org/</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>SVVSD</t>
+          <t>https://maps.app.goo.gl/rFzqgoYXNnAMFNG27</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
+          <t>Indian Peaks Elementary School</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>POINT (-105.118010493892 40.14327187343834)</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>40.14327187343834</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-105.118010493892</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/rFzqgoYXNnAMFNG27</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
           <t>https://ipes.svvsd.org/</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/rFzqgoYXNnAMFNG27</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>Indian Peaks Elementary School</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>POINT (-105.118010493892 40.14327187343834)</t>
-        </is>
-      </c>
-      <c r="K15" t="n">
-        <v>40.14327187343834</v>
-      </c>
-      <c r="L15" t="n">
-        <v>-105.118010493892</v>
-      </c>
       <c r="M15" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/rFzqgoYXNnAMFNG27</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>https://ipes.svvsd.org/</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
         <is>
           <t>POINT (-105.118010493892 40.14327187343834)</t>
         </is>
@@ -1427,64 +1333,58 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="n">
-        <v>14</v>
-      </c>
-      <c r="C16" t="n">
-        <v>14</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Jamestown School</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>111 Mesa St, Jamestown, CO 80455</t>
+        </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Jamestown School</t>
+          <t>BVSD</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>111 Mesa St, Jamestown, CO 80455</t>
+          <t>http://jae.bvsd.org/</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>BVSD</t>
+          <t>https://maps.app.goo.gl/xaKW9Ljh7VtMuQPf6</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
+          <t>Jamestown Elementary School</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>POINT (-105.387802261192 40.1164318137431)</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>40.1164318137431</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-105.387802261192</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/xaKW9Ljh7VtMuQPf6</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
           <t>http://jae.bvsd.org/</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/xaKW9Ljh7VtMuQPf6</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>Jamestown Elementary School</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>POINT (-105.387802261192 40.1164318137431)</t>
-        </is>
-      </c>
-      <c r="K16" t="n">
-        <v>40.1164318137431</v>
-      </c>
-      <c r="L16" t="n">
-        <v>-105.387802261192</v>
-      </c>
       <c r="M16" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/xaKW9Ljh7VtMuQPf6</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>http://jae.bvsd.org/</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
         <is>
           <t>POINT (-105.387802261192 40.1164318137431)</t>
         </is>
@@ -1494,64 +1394,58 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="n">
-        <v>15</v>
-      </c>
-      <c r="C17" t="n">
-        <v>15</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Longs Peak MS</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1500 14th Ave, Longmont, CO 80501</t>
+        </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Longs Peak MS</t>
+          <t>SVVSD</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1500 14th Ave, Longmont, CO 80501</t>
+          <t>http://lpms.svvsd.org/</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>SVVSD</t>
+          <t>https://maps.app.goo.gl/44xqEDG33jkv1pN28</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
+          <t>Longs Peak Middle School</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>POINT (-105.117518880356 40.18399195721774)</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>40.18399195721774</v>
+      </c>
+      <c r="J17" t="n">
+        <v>-105.117518880356</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/44xqEDG33jkv1pN28</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
           <t>http://lpms.svvsd.org/</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/44xqEDG33jkv1pN28</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>Longs Peak Middle School</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>POINT (-105.117518880356 40.18399195721774)</t>
-        </is>
-      </c>
-      <c r="K17" t="n">
-        <v>40.18399195721774</v>
-      </c>
-      <c r="L17" t="n">
-        <v>-105.117518880356</v>
-      </c>
       <c r="M17" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/44xqEDG33jkv1pN28</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>http://lpms.svvsd.org/</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
         <is>
           <t>POINT (-105.117518880356 40.18399195721774)</t>
         </is>
@@ -1561,64 +1455,58 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="n">
-        <v>16</v>
-      </c>
-      <c r="C18" t="n">
-        <v>16</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Louisville MS</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1341 Main St, Louisville, CO 80027</t>
+        </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Louisville MS</t>
+          <t>BVSD</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1341 Main St, Louisville, CO 80027</t>
+          <t>http://lom.bvsd.org/</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>BVSD</t>
+          <t>https://maps.app.goo.gl/VT5YaQMB64667476A</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
+          <t>Louisville Middle School</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>POINT (-105.1325745422844 39.9841246724845)</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>39.9841246724845</v>
+      </c>
+      <c r="J18" t="n">
+        <v>-105.1325745422844</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/VT5YaQMB64667476A</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
           <t>http://lom.bvsd.org/</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/VT5YaQMB64667476A</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>Louisville Middle School</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>POINT (-105.1325745422844 39.9841246724845)</t>
-        </is>
-      </c>
-      <c r="K18" t="n">
-        <v>39.9841246724845</v>
-      </c>
-      <c r="L18" t="n">
-        <v>-105.1325745422844</v>
-      </c>
       <c r="M18" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/VT5YaQMB64667476A</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>http://lom.bvsd.org/</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
         <is>
           <t>POINT (-105.1325745422844 39.9841246724845)</t>
         </is>
@@ -1628,64 +1516,58 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="n">
-        <v>17</v>
-      </c>
-      <c r="C19" t="n">
-        <v>17</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Lyons Middle Senior</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>100 McConnell Dr, Lyons, CO 80540</t>
+        </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Lyons Middle Senior</t>
+          <t>SVVSD</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>100 McConnell Dr, Lyons, CO 80540</t>
+          <t>https://lmshs.svvsd.org/</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>SVVSD</t>
+          <t>https://maps.app.goo.gl/ohTLL54wbPdkJNFA8</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
+          <t>Lyons Middle/Senior High School</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>POINT (-105.264461148759 40.2147599852984)</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>40.2147599852984</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-105.264461148759</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/ohTLL54wbPdkJNFA8</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
           <t>https://lmshs.svvsd.org/</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/ohTLL54wbPdkJNFA8</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>Lyons Middle/Senior High School</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>POINT (-105.264461148759 40.2147599852984)</t>
-        </is>
-      </c>
-      <c r="K19" t="n">
-        <v>40.2147599852984</v>
-      </c>
-      <c r="L19" t="n">
-        <v>-105.264461148759</v>
-      </c>
       <c r="M19" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/ohTLL54wbPdkJNFA8</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>https://lmshs.svvsd.org/</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
         <is>
           <t>POINT (-105.264461148759 40.2147599852984)</t>
         </is>
@@ -1695,64 +1577,58 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="n">
-        <v>18</v>
-      </c>
-      <c r="C20" t="n">
-        <v>18</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Manhattan MS</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>290 Manhattan Dr, Boulder, CO 80303</t>
+        </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Manhattan MS</t>
+          <t>BVSD</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>290 Manhattan Dr, Boulder, CO 80303</t>
+          <t>http://mam.bvsd.org/</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>BVSD</t>
+          <t>https://maps.app.goo.gl/pkEKK86Dh3tGgHz46</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
+          <t>Manhattan Middle School of Arts and Academics</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>POINT (-105.2273572175253 39.99410342530379)</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>39.99410342530379</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-105.2273572175253</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/pkEKK86Dh3tGgHz46</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
           <t>http://mam.bvsd.org/</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/pkEKK86Dh3tGgHz46</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>Manhattan Middle School of Arts and Academics</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>POINT (-105.2273572175253 39.99410342530379)</t>
-        </is>
-      </c>
-      <c r="K20" t="n">
-        <v>39.99410342530379</v>
-      </c>
-      <c r="L20" t="n">
-        <v>-105.2273572175253</v>
-      </c>
       <c r="M20" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/pkEKK86Dh3tGgHz46</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>http://mam.bvsd.org/</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
         <is>
           <t>POINT (-105.2273572175253 39.99410342530379)</t>
         </is>
@@ -1762,64 +1638,58 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="n">
-        <v>19</v>
-      </c>
-      <c r="C21" t="n">
-        <v>19</v>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Monarch HS</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>329 Campus Dr, Louisville, CO 80027</t>
+        </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Monarch HS</t>
+          <t>BVSD</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>329 Campus Dr, Louisville, CO 80027</t>
+          <t>http://moh.bvsd.org/</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>BVSD</t>
+          <t>https://maps.app.goo.gl/GVkb3S8qP6y3d6Lc6</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
+          <t>Monarch High School</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>POINT (-105.141776992356 39.9520220573069)</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>39.9520220573069</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-105.141776992356</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/GVkb3S8qP6y3d6Lc6</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
           <t>http://moh.bvsd.org/</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/GVkb3S8qP6y3d6Lc6</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>Monarch High School</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>POINT (-105.141776992356 39.9520220573069)</t>
-        </is>
-      </c>
-      <c r="K21" t="n">
-        <v>39.9520220573069</v>
-      </c>
-      <c r="L21" t="n">
-        <v>-105.141776992356</v>
-      </c>
       <c r="M21" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/GVkb3S8qP6y3d6Lc6</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>http://moh.bvsd.org/</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
         <is>
           <t>POINT (-105.141776992356 39.9520220573069)</t>
         </is>
@@ -1829,64 +1699,58 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="n">
-        <v>20</v>
-      </c>
-      <c r="C22" t="n">
-        <v>20</v>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Monarch K-8</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>263 Campus Dr, Louisville, CO 80027</t>
+        </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
+          <t>BVSD</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>http://mo8.bvsd.org/</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/fM4A7oD6cKkm9gXJ9</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>Monarch K-8</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>263 Campus Dr, Louisville, CO 80027</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>BVSD</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>POINT (-105.1435104051174 39.95142599070905)</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>39.95142599070905</v>
+      </c>
+      <c r="J22" t="n">
+        <v>-105.1435104051174</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/fM4A7oD6cKkm9gXJ9</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
         <is>
           <t>http://mo8.bvsd.org/</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/fM4A7oD6cKkm9gXJ9</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>Monarch K-8</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>POINT (-105.1435104051174 39.95142599070905)</t>
-        </is>
-      </c>
-      <c r="K22" t="n">
-        <v>39.95142599070905</v>
-      </c>
-      <c r="L22" t="n">
-        <v>-105.1435104051174</v>
-      </c>
       <c r="M22" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/fM4A7oD6cKkm9gXJ9</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>http://mo8.bvsd.org/</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
         <is>
           <t>POINT (-105.1435104051174 39.95142599070905)</t>
         </is>
@@ -1896,64 +1760,58 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="n">
-        <v>21</v>
-      </c>
-      <c r="C23" t="n">
-        <v>21</v>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Nederland HS</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>597 Co Hwy 130, Nederland, CO 80466</t>
+        </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Nederland HS</t>
+          <t>BVSD</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>597 Co Hwy 130, Nederland, CO 80466</t>
+          <t>https://neh.bvsd.org/</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>BVSD</t>
+          <t>https://maps.app.goo.gl/mVMWPW4o458ETfhw5</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
+          <t>Nederland Middle/Senior High School</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>POINT (-105.5233421126253 39.95383849383303)</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>39.95383849383303</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-105.5233421126253</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/mVMWPW4o458ETfhw5</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
           <t>https://neh.bvsd.org/</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/mVMWPW4o458ETfhw5</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>Nederland Middle/Senior High School</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>POINT (-105.5233421126253 39.95383849383303)</t>
-        </is>
-      </c>
-      <c r="K23" t="n">
-        <v>39.95383849383303</v>
-      </c>
-      <c r="L23" t="n">
-        <v>-105.5233421126253</v>
-      </c>
       <c r="M23" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/mVMWPW4o458ETfhw5</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>https://neh.bvsd.org/</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
         <is>
           <t>POINT (-105.5233421126253 39.95383849383303)</t>
         </is>
@@ -1963,66 +1821,52 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="n">
-        <v>22</v>
-      </c>
-      <c r="C24" t="n">
-        <v>22</v>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>New Vista</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>700 20th St, Boulder, CO 80302</t>
+        </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Niwot HS</t>
+          <t>BVSD</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>8989 Niwot Rd, Niwot, CO 80503</t>
+          <t>http://nvh.bvsd.org/</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>SVVSD</t>
+          <t>https://maps.app.goo.gl/mVZ7Cv3jx5iSPW3u9</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://nhs.svvsd.org/</t>
+          <t>New Vista High School</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/VmRuiC4cCzQrbJPR7</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>Niwot High School</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>POINT (-105.1442414652976 40.10369506217272)</t>
-        </is>
-      </c>
-      <c r="K24" t="n">
-        <v>40.10369506217272</v>
-      </c>
-      <c r="L24" t="n">
-        <v>-105.1442414652976</v>
-      </c>
+          <t>POINT (-105.2665043792843 40.00119784626813)</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>40.0011978462681</v>
+      </c>
+      <c r="J24" t="n">
+        <v>-105.266504379284</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/VmRuiC4cCzQrbJPR7</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>https://nhs.svvsd.org/</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>POINT (-105.1442414652976 40.10369506217272)</t>
+          <t>POINT (-105.266504379284 40.0011978462681)</t>
         </is>
       </c>
     </row>
@@ -2030,66 +1874,60 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="n">
-        <v>23</v>
-      </c>
-      <c r="C25" t="n">
-        <v>23</v>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Niwot HS</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>8989 Niwot Rd, Niwot, CO 80503</t>
+        </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Silver Creek HS</t>
+          <t>SVVSD</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>4901 Nelson Rd, Longmont, CO 80503</t>
+          <t>https://nhs.svvsd.org/</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>SVVSD</t>
+          <t>https://maps.app.goo.gl/VmRuiC4cCzQrbJPR7</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>http://schs.svvsd.org/</t>
+          <t>Niwot High School</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/6j7ZvjGuNgq38Uv1A</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>Silver Creek High School</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>POINT (-105.1665699930847 40.15137160754995)</t>
-        </is>
-      </c>
-      <c r="K25" t="n">
-        <v>40.15137160754995</v>
-      </c>
-      <c r="L25" t="n">
-        <v>-105.1665699930847</v>
+          <t>POINT (-105.1442414652976 40.10369506217272)</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>40.10369506217272</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-105.1442414652976</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/VmRuiC4cCzQrbJPR7</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>https://nhs.svvsd.org/</t>
+        </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/6j7ZvjGuNgq38Uv1A</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>http://schs.svvsd.org/</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>POINT (-105.1665699930847 40.15137160754995)</t>
+          <t>POINT (-105.1442414652976 40.10369506217272)</t>
         </is>
       </c>
     </row>
@@ -2097,66 +1935,60 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="n">
-        <v>24</v>
-      </c>
-      <c r="C26" t="n">
-        <v>24</v>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Silver Creek HS</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>4901 Nelson Rd, Longmont, CO 80503</t>
+        </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Southern Hills MS</t>
+          <t>SVVSD</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>1500 Knox Dr, Boulder, CO 80305</t>
+          <t>http://schs.svvsd.org/</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>BVSD</t>
+          <t>https://maps.app.goo.gl/6j7ZvjGuNgq38Uv1A</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>http://shm.bvsd.org/</t>
+          <t>Silver Creek High School</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/J5CQaiF7gt1pezXm8</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>Southern Hills Middle School</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>POINT (-105.2452260530946 39.97413389369987)</t>
-        </is>
-      </c>
-      <c r="K26" t="n">
-        <v>39.97413389369987</v>
-      </c>
-      <c r="L26" t="n">
-        <v>-105.2452260530946</v>
+          <t>POINT (-105.1665699930847 40.15137160754995)</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>40.15137160754995</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-105.1665699930847</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/6j7ZvjGuNgq38Uv1A</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>http://schs.svvsd.org/</t>
+        </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/J5CQaiF7gt1pezXm8</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>http://shm.bvsd.org/</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>POINT (-105.2452260530946 39.97413389369987)</t>
+          <t>POINT (-105.1665699930847 40.15137160754995)</t>
         </is>
       </c>
     </row>
@@ -2164,66 +1996,60 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="n">
-        <v>25</v>
-      </c>
-      <c r="C27" t="n">
-        <v>25</v>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Southern Hills MS</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>1500 Knox Dr, Boulder, CO 80305</t>
+        </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Sunset MS</t>
+          <t>BVSD</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>1300 S Sunset St, Longmont, CO 80501</t>
+          <t>http://shm.bvsd.org/</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>SVVSD</t>
+          <t>https://maps.app.goo.gl/J5CQaiF7gt1pezXm8</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>http://sms.svvsd.org/</t>
+          <t>Southern Hills Middle School</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/2iVHM51MYZg9XEZo9</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>Sunset Middle School</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>POINT (-105.1199067185428 40.14458073069962)</t>
-        </is>
-      </c>
-      <c r="K27" t="n">
-        <v>40.14458073069962</v>
-      </c>
-      <c r="L27" t="n">
-        <v>-105.1199067185428</v>
+          <t>POINT (-105.2452260530946 39.97413389369987)</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>39.97413389369987</v>
+      </c>
+      <c r="J27" t="n">
+        <v>-105.2452260530946</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/J5CQaiF7gt1pezXm8</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>http://shm.bvsd.org/</t>
+        </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/2iVHM51MYZg9XEZo9</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>http://sms.svvsd.org/</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>POINT (-105.1199067185428 40.14458073069962)</t>
+          <t>POINT (-105.2452260530946 39.97413389369987)</t>
         </is>
       </c>
     </row>
@@ -2231,66 +2057,60 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="n">
-        <v>26</v>
-      </c>
-      <c r="C28" t="n">
-        <v>26</v>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Sunset MS</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>1300 S Sunset St, Longmont, CO 80501</t>
+        </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Timberline PK-8</t>
+          <t>SVVSD</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>233 E Mountain View Ave, Longmont, CO 80504</t>
+          <t>http://sms.svvsd.org/</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>SVVSD</t>
+          <t>https://maps.app.goo.gl/2iVHM51MYZg9XEZo9</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>http://tpk8.svvsd.org/</t>
+          <t>Sunset Middle School</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/Dqyuok7JMiowX96x5</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>Timberline PK-8 SVVSD</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>POINT (-105.0857347392096 40.18091133152473)</t>
-        </is>
-      </c>
-      <c r="K28" t="n">
-        <v>40.18091133152473</v>
-      </c>
-      <c r="L28" t="n">
-        <v>-105.0857347392096</v>
+          <t>POINT (-105.1199067185428 40.14458073069962)</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>40.14458073069962</v>
+      </c>
+      <c r="J28" t="n">
+        <v>-105.1199067185428</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/2iVHM51MYZg9XEZo9</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>http://sms.svvsd.org/</t>
+        </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/Dqyuok7JMiowX96x5</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>http://tpk8.svvsd.org/</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>POINT (-105.0857347392096 40.18091133152473)</t>
+          <t>POINT (-105.1199067185428 40.14458073069962)</t>
         </is>
       </c>
     </row>
@@ -2298,66 +2118,60 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="n">
-        <v>27</v>
-      </c>
-      <c r="C29" t="n">
-        <v>27</v>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Timberline PK-8</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>233 E Mountain View Ave, Longmont, CO 80504</t>
+        </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Trail Ridge MS</t>
+          <t>SVVSD</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1000 Button Rock Dr, Longmont, CO 80504</t>
+          <t>http://tpk8.svvsd.org/</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>SVVSD</t>
+          <t>https://maps.app.goo.gl/Dqyuok7JMiowX96x5</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>https://trms.svvsd.org/</t>
+          <t>Timberline PK-8 SVVSD</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/jwrYoLXX3rzhtEFy7</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>Trail Ridge Middle School</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>POINT (-105.0576162268638 40.17693117783666)</t>
-        </is>
-      </c>
-      <c r="K29" t="n">
-        <v>40.17693117783666</v>
-      </c>
-      <c r="L29" t="n">
-        <v>-105.0576162268638</v>
+          <t>POINT (-105.0857347392096 40.18091133152473)</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>40.18091133152473</v>
+      </c>
+      <c r="J29" t="n">
+        <v>-105.0857347392096</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/Dqyuok7JMiowX96x5</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>http://tpk8.svvsd.org/</t>
+        </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/jwrYoLXX3rzhtEFy7</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>https://trms.svvsd.org/</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>POINT (-105.0576162268638 40.17693117783666)</t>
+          <t>POINT (-105.0857347392096 40.18091133152473)</t>
         </is>
       </c>
     </row>
@@ -2365,40 +2179,95 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="n">
-        <v>28</v>
-      </c>
-      <c r="C30" t="n">
-        <v>28</v>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Trail Ridge MS</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>1000 Button Rock Dr, Longmont, CO 80504</t>
+        </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
+          <t>SVVSD</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>https://trms.svvsd.org/</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/jwrYoLXX3rzhtEFy7</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Trail Ridge Middle School</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>POINT (-105.0576162268638 40.17693117783666)</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>40.17693117783666</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-105.0576162268638</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/jwrYoLXX3rzhtEFy7</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>https://trms.svvsd.org/</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>POINT (-105.0576162268638 40.17693117783666)</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
           <t>Ward Private Home</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr">
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
         <is>
           <t>Ward private home</t>
         </is>
       </c>
-      <c r="J30" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>POINT (-105.506518983446 40.0733984409928)</t>
         </is>
       </c>
-      <c r="K30" t="n">
+      <c r="I31" t="n">
         <v>40.0733984409928</v>
       </c>
-      <c r="L30" t="n">
+      <c r="J31" t="n">
         <v>-105.506518983446</v>
       </c>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr">
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
         <is>
           <t>POINT (-105.506518983446 40.0733984409928)</t>
         </is>

--- a/data/venues_all_years_fixed.xlsx
+++ b/data/venues_all_years_fixed.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,60 +436,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Venue</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>address</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>organization</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>website</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>google_map_link</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>google_map_name</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>geometry-invalid</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>lat</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>lon</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>google_map_url</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>website_url</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>geometry</t>
         </is>
@@ -499,54 +504,57 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="inlineStr">
         <is>
           <t>Allenspark Fire Station</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>14861 CO-7, Allenspark, CO 80510</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
         <is>
           <t>http://www.allensparkfire.com/</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/HYN1GYNb9yE4w4RL7</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>Allenspark Fire Protection</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>POINT (-105.5279141785934 40.19712777610975)</t>
         </is>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>40.19712777610975</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>-105.5279141785934</v>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/HYN1GYNb9yE4w4RL7</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>http://www.allensparkfire.com/</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>POINT (-105.5279141785934 40.19712777610975)</t>
         </is>
@@ -556,58 +564,61 @@
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr">
         <is>
           <t>Altona MS</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>4600 Clover Basin Dr, Longmont, CO 80503</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>SVVSD</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>https://ams.svvsd.org/</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/ew5ypnry93DZwFNj8</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>Altona Middle School</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>POINT (-105.1626179175455 40.14448266991539)</t>
         </is>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>40.14448266991539</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>-105.1626179175455</v>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/ew5ypnry93DZwFNj8</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>https://ams.svvsd.org/</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>POINT (-105.1626179175455 40.14448266991539)</t>
         </is>
@@ -617,58 +628,61 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="inlineStr">
         <is>
           <t>Angevine MS</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>1150 W South Boulder Rd, Lafayette, CO 80026</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>BVSD</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>http://anm.bvsd.org/</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/QtidHUByDwtU8Z599</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>Angevine Middle School</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>POINT (-105.1033574278846 39.98955883968855)</t>
         </is>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>39.98955883968855</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>-105.1033574278846</v>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/QtidHUByDwtU8Z599</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>http://anm.bvsd.org/</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>POINT (-105.1033574278846 39.98955883968855)</t>
         </is>
@@ -678,58 +692,61 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>Boulder HS</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>1604 Arapahoe Ave, Boulder, CO 80302</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>BVSD</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>http://boh.bvsd.org/</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/dKMDjeKUL4kjNDMp6</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>Boulder High School</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>POINT (-105.2728711769165 40.01411590640171)</t>
         </is>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>40.01411590640171</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>-105.2728711769165</v>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/dKMDjeKUL4kjNDMp6</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>http://boh.bvsd.org/</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>POINT (-105.2728711769165 40.01411590640171)</t>
         </is>
@@ -739,58 +756,61 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Burlington Elementary</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>1051 S Pratt Pkwy, Longmont, CO 80501</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>SVVSD</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>http://bes.svvsd.org/</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/QefhqxMskS5oyZY87</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>Burlington Elementary School</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>POINT (-105.108633248163 40.1466539913149)</t>
         </is>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>40.1466539913149</v>
       </c>
-      <c r="J6" t="n">
+      <c r="K6" t="n">
         <v>-105.108633248163</v>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/QefhqxMskS5oyZY87</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>http://bes.svvsd.org/</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>POINT (-105.108633248163 40.1466539913149)</t>
         </is>
@@ -800,58 +820,61 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Casey MS</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>1301 High St, Boulder, CO 80304</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>BVSD</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>http://cam.bvsd.org/</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/kqj3JEma8TPCRKWU9</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>Casey Middle School</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>POINT (-105.2791579470394 40.0228711759357)</t>
         </is>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>40.0228711759357</v>
       </c>
-      <c r="J7" t="n">
+      <c r="K7" t="n">
         <v>-105.2791579470394</v>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/kqj3JEma8TPCRKWU9</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>http://cam.bvsd.org/</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>POINT (-105.2791579470394 40.0228711759357)</t>
         </is>
@@ -861,58 +884,61 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Centaurus HS</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>10300 W South Boulder Rd, Lafayette, CO 80026</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>BVSD</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>http://ceh.bvsd.org/</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/qmDEC4W3XTN7acfs9</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>Centaurus High School</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>POINT (-105.1125276640655 39.98635981263706)</t>
         </is>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>39.98635981263706</v>
       </c>
-      <c r="J8" t="n">
+      <c r="K8" t="n">
         <v>-105.1125276640655</v>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/qmDEC4W3XTN7acfs9</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>http://ceh.bvsd.org/</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>POINT (-105.1125276640655 39.98635981263706)</t>
         </is>
@@ -922,58 +948,61 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Centennial MS</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>2205 Norwood Ave, Boulder, CO 80304</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>BVSD</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>http://cem.bvsd.org/</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/tKhhHtoniAvTfpPH9</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>Centennial Middle School</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>POINT (-105.2671472290834 40.04506796264024)</t>
         </is>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>40.04506796264024</v>
       </c>
-      <c r="J9" t="n">
+      <c r="K9" t="n">
         <v>-105.2671472290834</v>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/tKhhHtoniAvTfpPH9</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>http://cem.bvsd.org/</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>POINT (-105.2671472290834 40.04506796264024)</t>
         </is>
@@ -983,58 +1012,61 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="inlineStr">
         <is>
           <t>Eldorado K8</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>3351 S Indiana St, Superior, CO 80027</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>BVSD</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>http://el8.bvsd.org/</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/s2gJjfVYasWGLpMz7</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>Eldorado K-8 School</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>POINT (-105.161197194222 39.921698179021)</t>
         </is>
       </c>
-      <c r="I10" t="n">
+      <c r="J10" t="n">
         <v>39.921698179021</v>
       </c>
-      <c r="J10" t="n">
+      <c r="K10" t="n">
         <v>-105.161197194222</v>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/s2gJjfVYasWGLpMz7</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>http://el8.bvsd.org/</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>POINT (-105.161197194222 39.921698179021)</t>
         </is>
@@ -1044,46 +1076,49 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="inlineStr">
         <is>
           <t>Eldorado Sp. Fire House</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>4390 Eldorado Springs Dr, Boulder, CO 80303</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/TBWeoHAtGKUfwDy79</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>Rocky Mountain Fire District Station 6</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>POINT (-105.2493101229037 39.94266172014046)</t>
         </is>
       </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
         <v>39.94266172014046</v>
       </c>
-      <c r="J11" t="n">
+      <c r="K11" t="n">
         <v>-105.2493101229037</v>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/TBWeoHAtGKUfwDy79</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr">
         <is>
           <t>POINT (-105.2493101229037 39.94266172014046)</t>
         </is>
@@ -1093,58 +1128,61 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="inlineStr">
         <is>
           <t>Erie MS</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>650 Main St, Erie, CO 80516</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>SVVSD</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>https://ems.svvsd.org/</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/A5evm4HRnAPM1aUp8</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>Erie Middle School</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>POINT (-105.0529688258069 40.05101707648438)</t>
         </is>
       </c>
-      <c r="I12" t="n">
+      <c r="J12" t="n">
         <v>40.05101707648438</v>
       </c>
-      <c r="J12" t="n">
+      <c r="K12" t="n">
         <v>-105.0529688258069</v>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/A5evm4HRnAPM1aUp8</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>https://ems.svvsd.org/</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>POINT (-105.0529688258069 40.05101707648438)</t>
         </is>
@@ -1154,54 +1192,57 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="inlineStr">
         <is>
           <t>Frasier Mead.</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>350 Ponca Pl, Boulder, CO 80303</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
         <is>
           <t>http://www.frasiermeadows.org/</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/RCv4sKncUCjLLnzP7</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>Frasier Retirement Community</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>POINT (-105.2338815741678 39.99456396590154)</t>
         </is>
       </c>
-      <c r="I13" t="n">
+      <c r="J13" t="n">
         <v>39.99456396590154</v>
       </c>
-      <c r="J13" t="n">
+      <c r="K13" t="n">
         <v>-105.2338815741678</v>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/RCv4sKncUCjLLnzP7</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>http://www.frasiermeadows.org/</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>POINT (-105.2338815741678 39.99456396590154)</t>
         </is>
@@ -1211,58 +1252,61 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="inlineStr">
         <is>
           <t>Gold Hill School</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>890 Main St, Boulder, CO 80302</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>BVSD</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>http://ghe.bvsd.org/</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/PZV28vuUvb8p7LJs6</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>Gold Hill Elementary School</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>POINT (-105.412472825461 40.063366273762)</t>
         </is>
       </c>
-      <c r="I14" t="n">
+      <c r="J14" t="n">
         <v>40.063366273762</v>
       </c>
-      <c r="J14" t="n">
+      <c r="K14" t="n">
         <v>-105.412472825461</v>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/PZV28vuUvb8p7LJs6</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>http://ghe.bvsd.org/</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>POINT (-105.412472825461 40.063366273762)</t>
         </is>
@@ -1272,58 +1316,61 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="inlineStr">
         <is>
           <t>Indian Peaks ES</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>1335 S Judson St, Longmont, CO 80501</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>SVVSD</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>https://ipes.svvsd.org/</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/rFzqgoYXNnAMFNG27</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>Indian Peaks Elementary School</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>POINT (-105.118010493892 40.14327187343834)</t>
         </is>
       </c>
-      <c r="I15" t="n">
+      <c r="J15" t="n">
         <v>40.14327187343834</v>
       </c>
-      <c r="J15" t="n">
+      <c r="K15" t="n">
         <v>-105.118010493892</v>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/rFzqgoYXNnAMFNG27</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>https://ipes.svvsd.org/</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>POINT (-105.118010493892 40.14327187343834)</t>
         </is>
@@ -1333,58 +1380,61 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="inlineStr">
         <is>
           <t>Jamestown School</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>111 Mesa St, Jamestown, CO 80455</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>BVSD</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>http://jae.bvsd.org/</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/xaKW9Ljh7VtMuQPf6</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>Jamestown Elementary School</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>POINT (-105.387802261192 40.1164318137431)</t>
         </is>
       </c>
-      <c r="I16" t="n">
+      <c r="J16" t="n">
         <v>40.1164318137431</v>
       </c>
-      <c r="J16" t="n">
+      <c r="K16" t="n">
         <v>-105.387802261192</v>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/xaKW9Ljh7VtMuQPf6</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="M16" t="inlineStr">
         <is>
           <t>http://jae.bvsd.org/</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="N16" t="inlineStr">
         <is>
           <t>POINT (-105.387802261192 40.1164318137431)</t>
         </is>
@@ -1394,58 +1444,61 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="inlineStr">
         <is>
           <t>Longs Peak MS</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>1500 14th Ave, Longmont, CO 80501</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>SVVSD</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>http://lpms.svvsd.org/</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/44xqEDG33jkv1pN28</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>Longs Peak Middle School</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>POINT (-105.117518880356 40.18399195721774)</t>
         </is>
       </c>
-      <c r="I17" t="n">
+      <c r="J17" t="n">
         <v>40.18399195721774</v>
       </c>
-      <c r="J17" t="n">
+      <c r="K17" t="n">
         <v>-105.117518880356</v>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="L17" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/44xqEDG33jkv1pN28</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="M17" t="inlineStr">
         <is>
           <t>http://lpms.svvsd.org/</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="N17" t="inlineStr">
         <is>
           <t>POINT (-105.117518880356 40.18399195721774)</t>
         </is>
@@ -1455,58 +1508,61 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="inlineStr">
         <is>
           <t>Louisville MS</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>1341 Main St, Louisville, CO 80027</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>BVSD</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>http://lom.bvsd.org/</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/VT5YaQMB64667476A</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>Louisville Middle School</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>POINT (-105.1325745422844 39.9841246724845)</t>
         </is>
       </c>
-      <c r="I18" t="n">
+      <c r="J18" t="n">
         <v>39.9841246724845</v>
       </c>
-      <c r="J18" t="n">
+      <c r="K18" t="n">
         <v>-105.1325745422844</v>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="L18" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/VT5YaQMB64667476A</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="M18" t="inlineStr">
         <is>
           <t>http://lom.bvsd.org/</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
+      <c r="N18" t="inlineStr">
         <is>
           <t>POINT (-105.1325745422844 39.9841246724845)</t>
         </is>
@@ -1516,58 +1572,61 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="inlineStr">
         <is>
           <t>Lyons Middle Senior</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>100 McConnell Dr, Lyons, CO 80540</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>SVVSD</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>https://lmshs.svvsd.org/</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/ohTLL54wbPdkJNFA8</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>Lyons Middle/Senior High School</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>POINT (-105.264461148759 40.2147599852984)</t>
         </is>
       </c>
-      <c r="I19" t="n">
+      <c r="J19" t="n">
         <v>40.2147599852984</v>
       </c>
-      <c r="J19" t="n">
+      <c r="K19" t="n">
         <v>-105.264461148759</v>
       </c>
-      <c r="K19" t="inlineStr">
+      <c r="L19" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/ohTLL54wbPdkJNFA8</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="M19" t="inlineStr">
         <is>
           <t>https://lmshs.svvsd.org/</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr">
+      <c r="N19" t="inlineStr">
         <is>
           <t>POINT (-105.264461148759 40.2147599852984)</t>
         </is>
@@ -1577,58 +1636,61 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="inlineStr">
         <is>
           <t>Manhattan MS</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>290 Manhattan Dr, Boulder, CO 80303</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>BVSD</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>http://mam.bvsd.org/</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/pkEKK86Dh3tGgHz46</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>Manhattan Middle School of Arts and Academics</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>POINT (-105.2273572175253 39.99410342530379)</t>
         </is>
       </c>
-      <c r="I20" t="n">
+      <c r="J20" t="n">
         <v>39.99410342530379</v>
       </c>
-      <c r="J20" t="n">
+      <c r="K20" t="n">
         <v>-105.2273572175253</v>
       </c>
-      <c r="K20" t="inlineStr">
+      <c r="L20" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/pkEKK86Dh3tGgHz46</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="M20" t="inlineStr">
         <is>
           <t>http://mam.bvsd.org/</t>
         </is>
       </c>
-      <c r="M20" t="inlineStr">
+      <c r="N20" t="inlineStr">
         <is>
           <t>POINT (-105.2273572175253 39.99410342530379)</t>
         </is>
@@ -1638,58 +1700,61 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="inlineStr">
         <is>
           <t>Monarch HS</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>329 Campus Dr, Louisville, CO 80027</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>BVSD</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>http://moh.bvsd.org/</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/GVkb3S8qP6y3d6Lc6</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>Monarch High School</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>POINT (-105.141776992356 39.9520220573069)</t>
         </is>
       </c>
-      <c r="I21" t="n">
+      <c r="J21" t="n">
         <v>39.9520220573069</v>
       </c>
-      <c r="J21" t="n">
+      <c r="K21" t="n">
         <v>-105.141776992356</v>
       </c>
-      <c r="K21" t="inlineStr">
+      <c r="L21" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/GVkb3S8qP6y3d6Lc6</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="M21" t="inlineStr">
         <is>
           <t>http://moh.bvsd.org/</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr">
+      <c r="N21" t="inlineStr">
         <is>
           <t>POINT (-105.141776992356 39.9520220573069)</t>
         </is>
@@ -1699,58 +1764,61 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="inlineStr">
         <is>
           <t>Monarch K-8</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>263 Campus Dr, Louisville, CO 80027</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>BVSD</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>http://mo8.bvsd.org/</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/fM4A7oD6cKkm9gXJ9</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>Monarch K-8</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>POINT (-105.1435104051174 39.95142599070905)</t>
         </is>
       </c>
-      <c r="I22" t="n">
+      <c r="J22" t="n">
         <v>39.95142599070905</v>
       </c>
-      <c r="J22" t="n">
+      <c r="K22" t="n">
         <v>-105.1435104051174</v>
       </c>
-      <c r="K22" t="inlineStr">
+      <c r="L22" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/fM4A7oD6cKkm9gXJ9</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="M22" t="inlineStr">
         <is>
           <t>http://mo8.bvsd.org/</t>
         </is>
       </c>
-      <c r="M22" t="inlineStr">
+      <c r="N22" t="inlineStr">
         <is>
           <t>POINT (-105.1435104051174 39.95142599070905)</t>
         </is>
@@ -1760,58 +1828,61 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="inlineStr">
         <is>
           <t>Nederland HS</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>597 Co Hwy 130, Nederland, CO 80466</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>BVSD</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>https://neh.bvsd.org/</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/mVMWPW4o458ETfhw5</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>Nederland Middle/Senior High School</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>POINT (-105.5233421126253 39.95383849383303)</t>
         </is>
       </c>
-      <c r="I23" t="n">
+      <c r="J23" t="n">
         <v>39.95383849383303</v>
       </c>
-      <c r="J23" t="n">
+      <c r="K23" t="n">
         <v>-105.5233421126253</v>
       </c>
-      <c r="K23" t="inlineStr">
+      <c r="L23" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/mVMWPW4o458ETfhw5</t>
         </is>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="M23" t="inlineStr">
         <is>
           <t>https://neh.bvsd.org/</t>
         </is>
       </c>
-      <c r="M23" t="inlineStr">
+      <c r="N23" t="inlineStr">
         <is>
           <t>POINT (-105.5233421126253 39.95383849383303)</t>
         </is>
@@ -1821,50 +1892,53 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="inlineStr">
         <is>
           <t>New Vista</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>700 20th St, Boulder, CO 80302</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>BVSD</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>http://nvh.bvsd.org/</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/mVZ7Cv3jx5iSPW3u9</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>New Vista High School</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>POINT (-105.2665043792843 40.00119784626813)</t>
         </is>
       </c>
-      <c r="I24" t="n">
+      <c r="J24" t="n">
         <v>40.0011978462681</v>
       </c>
-      <c r="J24" t="n">
+      <c r="K24" t="n">
         <v>-105.266504379284</v>
       </c>
-      <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr">
         <is>
           <t>POINT (-105.266504379284 40.0011978462681)</t>
         </is>
@@ -1874,58 +1948,61 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="inlineStr">
         <is>
           <t>Niwot HS</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>8989 Niwot Rd, Niwot, CO 80503</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>SVVSD</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>https://nhs.svvsd.org/</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/VmRuiC4cCzQrbJPR7</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>Niwot High School</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>POINT (-105.1442414652976 40.10369506217272)</t>
         </is>
       </c>
-      <c r="I25" t="n">
+      <c r="J25" t="n">
         <v>40.10369506217272</v>
       </c>
-      <c r="J25" t="n">
+      <c r="K25" t="n">
         <v>-105.1442414652976</v>
       </c>
-      <c r="K25" t="inlineStr">
+      <c r="L25" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/VmRuiC4cCzQrbJPR7</t>
         </is>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="M25" t="inlineStr">
         <is>
           <t>https://nhs.svvsd.org/</t>
         </is>
       </c>
-      <c r="M25" t="inlineStr">
+      <c r="N25" t="inlineStr">
         <is>
           <t>POINT (-105.1442414652976 40.10369506217272)</t>
         </is>
@@ -1935,58 +2012,61 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="inlineStr">
         <is>
           <t>Silver Creek HS</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>4901 Nelson Rd, Longmont, CO 80503</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>SVVSD</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>http://schs.svvsd.org/</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/6j7ZvjGuNgq38Uv1A</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>Silver Creek High School</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>POINT (-105.1665699930847 40.15137160754995)</t>
         </is>
       </c>
-      <c r="I26" t="n">
+      <c r="J26" t="n">
         <v>40.15137160754995</v>
       </c>
-      <c r="J26" t="n">
+      <c r="K26" t="n">
         <v>-105.1665699930847</v>
       </c>
-      <c r="K26" t="inlineStr">
+      <c r="L26" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/6j7ZvjGuNgq38Uv1A</t>
         </is>
       </c>
-      <c r="L26" t="inlineStr">
+      <c r="M26" t="inlineStr">
         <is>
           <t>http://schs.svvsd.org/</t>
         </is>
       </c>
-      <c r="M26" t="inlineStr">
+      <c r="N26" t="inlineStr">
         <is>
           <t>POINT (-105.1665699930847 40.15137160754995)</t>
         </is>
@@ -1996,58 +2076,61 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="inlineStr">
         <is>
           <t>Southern Hills MS</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>1500 Knox Dr, Boulder, CO 80305</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>BVSD</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>http://shm.bvsd.org/</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/J5CQaiF7gt1pezXm8</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>Southern Hills Middle School</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>POINT (-105.2452260530946 39.97413389369987)</t>
         </is>
       </c>
-      <c r="I27" t="n">
+      <c r="J27" t="n">
         <v>39.97413389369987</v>
       </c>
-      <c r="J27" t="n">
+      <c r="K27" t="n">
         <v>-105.2452260530946</v>
       </c>
-      <c r="K27" t="inlineStr">
+      <c r="L27" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/J5CQaiF7gt1pezXm8</t>
         </is>
       </c>
-      <c r="L27" t="inlineStr">
+      <c r="M27" t="inlineStr">
         <is>
           <t>http://shm.bvsd.org/</t>
         </is>
       </c>
-      <c r="M27" t="inlineStr">
+      <c r="N27" t="inlineStr">
         <is>
           <t>POINT (-105.2452260530946 39.97413389369987)</t>
         </is>
@@ -2057,58 +2140,61 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="inlineStr">
         <is>
           <t>Sunset MS</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>1300 S Sunset St, Longmont, CO 80501</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>SVVSD</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>http://sms.svvsd.org/</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/2iVHM51MYZg9XEZo9</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>Sunset Middle School</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>POINT (-105.1199067185428 40.14458073069962)</t>
         </is>
       </c>
-      <c r="I28" t="n">
+      <c r="J28" t="n">
         <v>40.14458073069962</v>
       </c>
-      <c r="J28" t="n">
+      <c r="K28" t="n">
         <v>-105.1199067185428</v>
       </c>
-      <c r="K28" t="inlineStr">
+      <c r="L28" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/2iVHM51MYZg9XEZo9</t>
         </is>
       </c>
-      <c r="L28" t="inlineStr">
+      <c r="M28" t="inlineStr">
         <is>
           <t>http://sms.svvsd.org/</t>
         </is>
       </c>
-      <c r="M28" t="inlineStr">
+      <c r="N28" t="inlineStr">
         <is>
           <t>POINT (-105.1199067185428 40.14458073069962)</t>
         </is>
@@ -2118,58 +2204,61 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="inlineStr">
         <is>
           <t>Timberline PK-8</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>233 E Mountain View Ave, Longmont, CO 80504</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>SVVSD</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>http://tpk8.svvsd.org/</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/Dqyuok7JMiowX96x5</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>Timberline PK-8 SVVSD</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>POINT (-105.0857347392096 40.18091133152473)</t>
         </is>
       </c>
-      <c r="I29" t="n">
+      <c r="J29" t="n">
         <v>40.18091133152473</v>
       </c>
-      <c r="J29" t="n">
+      <c r="K29" t="n">
         <v>-105.0857347392096</v>
       </c>
-      <c r="K29" t="inlineStr">
+      <c r="L29" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/Dqyuok7JMiowX96x5</t>
         </is>
       </c>
-      <c r="L29" t="inlineStr">
+      <c r="M29" t="inlineStr">
         <is>
           <t>http://tpk8.svvsd.org/</t>
         </is>
       </c>
-      <c r="M29" t="inlineStr">
+      <c r="N29" t="inlineStr">
         <is>
           <t>POINT (-105.0857347392096 40.18091133152473)</t>
         </is>
@@ -2179,58 +2268,61 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="inlineStr">
         <is>
           <t>Trail Ridge MS</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>1000 Button Rock Dr, Longmont, CO 80504</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>SVVSD</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>https://trms.svvsd.org/</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/jwrYoLXX3rzhtEFy7</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>Trail Ridge Middle School</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>POINT (-105.0576162268638 40.17693117783666)</t>
         </is>
       </c>
-      <c r="I30" t="n">
+      <c r="J30" t="n">
         <v>40.17693117783666</v>
       </c>
-      <c r="J30" t="n">
+      <c r="K30" t="n">
         <v>-105.0576162268638</v>
       </c>
-      <c r="K30" t="inlineStr">
+      <c r="L30" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/jwrYoLXX3rzhtEFy7</t>
         </is>
       </c>
-      <c r="L30" t="inlineStr">
+      <c r="M30" t="inlineStr">
         <is>
           <t>https://trms.svvsd.org/</t>
         </is>
       </c>
-      <c r="M30" t="inlineStr">
+      <c r="N30" t="inlineStr">
         <is>
           <t>POINT (-105.0576162268638 40.17693117783666)</t>
         </is>
@@ -2240,34 +2332,37 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="inlineStr">
         <is>
           <t>Ward Private Home</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr">
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
         <is>
           <t>Ward private home</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>POINT (-105.506518983446 40.0733984409928)</t>
         </is>
       </c>
-      <c r="I31" t="n">
+      <c r="J31" t="n">
         <v>40.0733984409928</v>
       </c>
-      <c r="J31" t="n">
+      <c r="K31" t="n">
         <v>-105.506518983446</v>
       </c>
-      <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr">
         <is>
           <t>POINT (-105.506518983446 40.0733984409928)</t>
         </is>

--- a/data/venues_all_years_fixed.xlsx
+++ b/data/venues_all_years_fixed.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,65 +436,75 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.2</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Unnamed: 0</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Venue</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>address</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>organization</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>website</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>google_map_link</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>google_map_name</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>geometry-invalid</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>lat</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>lon</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>google_map_url</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>website_url</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>geometry</t>
         </is>
@@ -507,54 +517,60 @@
       <c r="B2" t="n">
         <v>0</v>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>Allenspark Fire Station</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>14861 CO-7, Allenspark, CO 80510</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>http://www.allensparkfire.com/</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/HYN1GYNb9yE4w4RL7</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>Allenspark Fire Protection</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>POINT (-105.5279141785934 40.19712777610975)</t>
         </is>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>40.19712777610975</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>-105.5279141785934</v>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/HYN1GYNb9yE4w4RL7</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>http://www.allensparkfire.com/</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>POINT (-105.5279141785934 40.19712777610975)</t>
         </is>
@@ -567,58 +583,64 @@
       <c r="B3" t="n">
         <v>1</v>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>Altona MS</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>4600 Clover Basin Dr, Longmont, CO 80503</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>SVVSD</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://ams.svvsd.org/</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/ew5ypnry93DZwFNj8</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>Altona Middle School</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>POINT (-105.1626179175455 40.14448266991539)</t>
         </is>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>40.14448266991539</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>-105.1626179175455</v>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/ew5ypnry93DZwFNj8</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>https://ams.svvsd.org/</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>POINT (-105.1626179175455 40.14448266991539)</t>
         </is>
@@ -631,58 +653,64 @@
       <c r="B4" t="n">
         <v>2</v>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>Angevine MS</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1150 W South Boulder Rd, Lafayette, CO 80026</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>BVSD</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>http://anm.bvsd.org/</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/QtidHUByDwtU8Z599</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>Angevine Middle School</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>POINT (-105.1033574278846 39.98955883968855)</t>
         </is>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>39.98955883968855</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>-105.1033574278846</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/QtidHUByDwtU8Z599</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>http://anm.bvsd.org/</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>POINT (-105.1033574278846 39.98955883968855)</t>
         </is>
@@ -695,58 +723,64 @@
       <c r="B5" t="n">
         <v>3</v>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>Boulder HS</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1604 Arapahoe Ave, Boulder, CO 80302</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>BVSD</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>http://boh.bvsd.org/</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/dKMDjeKUL4kjNDMp6</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>Boulder High School</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>POINT (-105.2728711769165 40.01411590640171)</t>
         </is>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>40.01411590640171</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>-105.2728711769165</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/dKMDjeKUL4kjNDMp6</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>http://boh.bvsd.org/</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>POINT (-105.2728711769165 40.01411590640171)</t>
         </is>
@@ -759,58 +793,64 @@
       <c r="B6" t="n">
         <v>4</v>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4</v>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Burlington Elementary</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1051 S Pratt Pkwy, Longmont, CO 80501</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>SVVSD</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>http://bes.svvsd.org/</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/QefhqxMskS5oyZY87</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>Burlington Elementary School</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>POINT (-105.108633248163 40.1466539913149)</t>
         </is>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>40.1466539913149</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>-105.108633248163</v>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/QefhqxMskS5oyZY87</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>http://bes.svvsd.org/</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>POINT (-105.108633248163 40.1466539913149)</t>
         </is>
@@ -823,58 +863,64 @@
       <c r="B7" t="n">
         <v>5</v>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Casey MS</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1301 High St, Boulder, CO 80304</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>BVSD</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>http://cam.bvsd.org/</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/kqj3JEma8TPCRKWU9</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>Casey Middle School</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>POINT (-105.2791579470394 40.0228711759357)</t>
         </is>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>40.0228711759357</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>-105.2791579470394</v>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/kqj3JEma8TPCRKWU9</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>http://cam.bvsd.org/</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>POINT (-105.2791579470394 40.0228711759357)</t>
         </is>
@@ -887,58 +933,64 @@
       <c r="B8" t="n">
         <v>6</v>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="n">
+        <v>6</v>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Centaurus HS</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>10300 W South Boulder Rd, Lafayette, CO 80026</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>BVSD</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>http://ceh.bvsd.org/</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/qmDEC4W3XTN7acfs9</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>Centaurus High School</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>POINT (-105.1125276640655 39.98635981263706)</t>
         </is>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>39.98635981263706</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>-105.1125276640655</v>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/qmDEC4W3XTN7acfs9</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>http://ceh.bvsd.org/</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>POINT (-105.1125276640655 39.98635981263706)</t>
         </is>
@@ -951,58 +1003,64 @@
       <c r="B9" t="n">
         <v>7</v>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="n">
+        <v>7</v>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Centennial MS</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>2205 Norwood Ave, Boulder, CO 80304</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>BVSD</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>http://cem.bvsd.org/</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/tKhhHtoniAvTfpPH9</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>Centennial Middle School</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>POINT (-105.2671472290834 40.04506796264024)</t>
         </is>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>40.04506796264024</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>-105.2671472290834</v>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/tKhhHtoniAvTfpPH9</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>http://cem.bvsd.org/</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>POINT (-105.2671472290834 40.04506796264024)</t>
         </is>
@@ -1015,58 +1073,64 @@
       <c r="B10" t="n">
         <v>8</v>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="n">
+        <v>8</v>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Eldorado K8</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>3351 S Indiana St, Superior, CO 80027</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>BVSD</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>http://el8.bvsd.org/</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/s2gJjfVYasWGLpMz7</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>Eldorado K-8 School</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>POINT (-105.161197194222 39.921698179021)</t>
         </is>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>39.921698179021</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>-105.161197194222</v>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/s2gJjfVYasWGLpMz7</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>http://el8.bvsd.org/</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>POINT (-105.161197194222 39.921698179021)</t>
         </is>
@@ -1079,46 +1143,52 @@
       <c r="B11" t="n">
         <v>9</v>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="n">
+        <v>9</v>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Eldorado Sp. Fire House</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>4390 Eldorado Springs Dr, Boulder, CO 80303</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr">
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/TBWeoHAtGKUfwDy79</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>Rocky Mountain Fire District Station 6</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>POINT (-105.2493101229037 39.94266172014046)</t>
         </is>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>39.94266172014046</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>-105.2493101229037</v>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/TBWeoHAtGKUfwDy79</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr">
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr">
         <is>
           <t>POINT (-105.2493101229037 39.94266172014046)</t>
         </is>
@@ -1131,58 +1201,64 @@
       <c r="B12" t="n">
         <v>10</v>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="n">
+        <v>10</v>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Erie MS</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>650 Main St, Erie, CO 80516</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>SVVSD</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>https://ems.svvsd.org/</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/A5evm4HRnAPM1aUp8</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>Erie Middle School</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>POINT (-105.0529688258069 40.05101707648438)</t>
         </is>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>40.05101707648438</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>-105.0529688258069</v>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/A5evm4HRnAPM1aUp8</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>https://ems.svvsd.org/</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>POINT (-105.0529688258069 40.05101707648438)</t>
         </is>
@@ -1195,54 +1271,60 @@
       <c r="B13" t="n">
         <v>11</v>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="n">
+        <v>11</v>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Frasier Mead.</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>350 Ponca Pl, Boulder, CO 80303</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>http://www.frasiermeadows.org/</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/RCv4sKncUCjLLnzP7</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>Frasier Retirement Community</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>POINT (-105.2338815741678 39.99456396590154)</t>
         </is>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>39.99456396590154</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>-105.2338815741678</v>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/RCv4sKncUCjLLnzP7</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>http://www.frasiermeadows.org/</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="P13" t="inlineStr">
         <is>
           <t>POINT (-105.2338815741678 39.99456396590154)</t>
         </is>
@@ -1255,58 +1337,64 @@
       <c r="B14" t="n">
         <v>12</v>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="n">
+        <v>12</v>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Gold Hill School</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>890 Main St, Boulder, CO 80302</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>BVSD</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>http://ghe.bvsd.org/</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/PZV28vuUvb8p7LJs6</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>Gold Hill Elementary School</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>POINT (-105.412472825461 40.063366273762)</t>
         </is>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>40.063366273762</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>-105.412472825461</v>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/PZV28vuUvb8p7LJs6</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>http://ghe.bvsd.org/</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="P14" t="inlineStr">
         <is>
           <t>POINT (-105.412472825461 40.063366273762)</t>
         </is>
@@ -1319,58 +1407,64 @@
       <c r="B15" t="n">
         <v>13</v>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="n">
+        <v>13</v>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Indian Peaks ES</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1335 S Judson St, Longmont, CO 80501</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>SVVSD</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>https://ipes.svvsd.org/</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/rFzqgoYXNnAMFNG27</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>Indian Peaks Elementary School</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>POINT (-105.118010493892 40.14327187343834)</t>
         </is>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>40.14327187343834</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>-105.118010493892</v>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/rFzqgoYXNnAMFNG27</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>https://ipes.svvsd.org/</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="P15" t="inlineStr">
         <is>
           <t>POINT (-105.118010493892 40.14327187343834)</t>
         </is>
@@ -1383,58 +1477,64 @@
       <c r="B16" t="n">
         <v>14</v>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="n">
+        <v>14</v>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Jamestown School</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>111 Mesa St, Jamestown, CO 80455</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>BVSD</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>http://jae.bvsd.org/</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/xaKW9Ljh7VtMuQPf6</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>Jamestown Elementary School</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>POINT (-105.387802261192 40.1164318137431)</t>
         </is>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>40.1164318137431</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>-105.387802261192</v>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="N16" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/xaKW9Ljh7VtMuQPf6</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="O16" t="inlineStr">
         <is>
           <t>http://jae.bvsd.org/</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="P16" t="inlineStr">
         <is>
           <t>POINT (-105.387802261192 40.1164318137431)</t>
         </is>
@@ -1447,58 +1547,64 @@
       <c r="B17" t="n">
         <v>15</v>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="n">
+        <v>15</v>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>Longs Peak MS</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1500 14th Ave, Longmont, CO 80501</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>SVVSD</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>http://lpms.svvsd.org/</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/44xqEDG33jkv1pN28</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>Longs Peak Middle School</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>POINT (-105.117518880356 40.18399195721774)</t>
         </is>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>40.18399195721774</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>-105.117518880356</v>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="N17" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/44xqEDG33jkv1pN28</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="O17" t="inlineStr">
         <is>
           <t>http://lpms.svvsd.org/</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="P17" t="inlineStr">
         <is>
           <t>POINT (-105.117518880356 40.18399195721774)</t>
         </is>
@@ -1511,58 +1617,64 @@
       <c r="B18" t="n">
         <v>16</v>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="n">
+        <v>16</v>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>Louisville MS</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1341 Main St, Louisville, CO 80027</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>BVSD</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>http://lom.bvsd.org/</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/VT5YaQMB64667476A</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>Louisville Middle School</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>POINT (-105.1325745422844 39.9841246724845)</t>
         </is>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>39.9841246724845</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>-105.1325745422844</v>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="N18" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/VT5YaQMB64667476A</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
+      <c r="O18" t="inlineStr">
         <is>
           <t>http://lom.bvsd.org/</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
+      <c r="P18" t="inlineStr">
         <is>
           <t>POINT (-105.1325745422844 39.9841246724845)</t>
         </is>
@@ -1575,58 +1687,64 @@
       <c r="B19" t="n">
         <v>17</v>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="n">
+        <v>17</v>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>Lyons Middle Senior</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>100 McConnell Dr, Lyons, CO 80540</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>SVVSD</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>https://lmshs.svvsd.org/</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/ohTLL54wbPdkJNFA8</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>Lyons Middle/Senior High School</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>POINT (-105.264461148759 40.2147599852984)</t>
         </is>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>40.2147599852984</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>-105.264461148759</v>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="N19" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/ohTLL54wbPdkJNFA8</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr">
+      <c r="O19" t="inlineStr">
         <is>
           <t>https://lmshs.svvsd.org/</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr">
+      <c r="P19" t="inlineStr">
         <is>
           <t>POINT (-105.264461148759 40.2147599852984)</t>
         </is>
@@ -1639,58 +1757,64 @@
       <c r="B20" t="n">
         <v>18</v>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="n">
+        <v>18</v>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>Manhattan MS</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>290 Manhattan Dr, Boulder, CO 80303</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>BVSD</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>http://mam.bvsd.org/</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/pkEKK86Dh3tGgHz46</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>Manhattan Middle School of Arts and Academics</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>POINT (-105.2273572175253 39.99410342530379)</t>
         </is>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>39.99410342530379</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>-105.2273572175253</v>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="N20" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/pkEKK86Dh3tGgHz46</t>
         </is>
       </c>
-      <c r="M20" t="inlineStr">
+      <c r="O20" t="inlineStr">
         <is>
           <t>http://mam.bvsd.org/</t>
         </is>
       </c>
-      <c r="N20" t="inlineStr">
+      <c r="P20" t="inlineStr">
         <is>
           <t>POINT (-105.2273572175253 39.99410342530379)</t>
         </is>
@@ -1703,58 +1827,64 @@
       <c r="B21" t="n">
         <v>19</v>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="n">
+        <v>19</v>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>Monarch HS</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>329 Campus Dr, Louisville, CO 80027</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>BVSD</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>http://moh.bvsd.org/</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/GVkb3S8qP6y3d6Lc6</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>Monarch High School</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>POINT (-105.141776992356 39.9520220573069)</t>
         </is>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>39.9520220573069</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>-105.141776992356</v>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="N21" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/GVkb3S8qP6y3d6Lc6</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr">
+      <c r="O21" t="inlineStr">
         <is>
           <t>http://moh.bvsd.org/</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr">
+      <c r="P21" t="inlineStr">
         <is>
           <t>POINT (-105.141776992356 39.9520220573069)</t>
         </is>
@@ -1767,58 +1897,64 @@
       <c r="B22" t="n">
         <v>20</v>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="n">
+        <v>20</v>
+      </c>
+      <c r="E22" t="inlineStr">
         <is>
           <t>Monarch K-8</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>263 Campus Dr, Louisville, CO 80027</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>BVSD</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>http://mo8.bvsd.org/</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/fM4A7oD6cKkm9gXJ9</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>Monarch K-8</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>POINT (-105.1435104051174 39.95142599070905)</t>
         </is>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>39.95142599070905</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>-105.1435104051174</v>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="N22" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/fM4A7oD6cKkm9gXJ9</t>
         </is>
       </c>
-      <c r="M22" t="inlineStr">
+      <c r="O22" t="inlineStr">
         <is>
           <t>http://mo8.bvsd.org/</t>
         </is>
       </c>
-      <c r="N22" t="inlineStr">
+      <c r="P22" t="inlineStr">
         <is>
           <t>POINT (-105.1435104051174 39.95142599070905)</t>
         </is>
@@ -1831,58 +1967,64 @@
       <c r="B23" t="n">
         <v>21</v>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="n">
+        <v>21</v>
+      </c>
+      <c r="E23" t="inlineStr">
         <is>
           <t>Nederland HS</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>597 Co Hwy 130, Nederland, CO 80466</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>BVSD</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>https://neh.bvsd.org/</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/mVMWPW4o458ETfhw5</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>Nederland Middle/Senior High School</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>POINT (-105.5233421126253 39.95383849383303)</t>
         </is>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>39.95383849383303</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>-105.5233421126253</v>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="N23" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/mVMWPW4o458ETfhw5</t>
         </is>
       </c>
-      <c r="M23" t="inlineStr">
+      <c r="O23" t="inlineStr">
         <is>
           <t>https://neh.bvsd.org/</t>
         </is>
       </c>
-      <c r="N23" t="inlineStr">
+      <c r="P23" t="inlineStr">
         <is>
           <t>POINT (-105.5233421126253 39.95383849383303)</t>
         </is>
@@ -1895,50 +2037,56 @@
       <c r="B24" t="n">
         <v>22</v>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="n">
+        <v>22</v>
+      </c>
+      <c r="E24" t="inlineStr">
         <is>
           <t>New Vista</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>700 20th St, Boulder, CO 80302</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>BVSD</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>http://nvh.bvsd.org/</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/mVZ7Cv3jx5iSPW3u9</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>New Vista High School</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>POINT (-105.2665043792843 40.00119784626813)</t>
         </is>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>40.0011978462681</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>-105.266504379284</v>
       </c>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr">
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr">
         <is>
           <t>POINT (-105.266504379284 40.0011978462681)</t>
         </is>
@@ -1951,58 +2099,64 @@
       <c r="B25" t="n">
         <v>23</v>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="n">
+        <v>23</v>
+      </c>
+      <c r="E25" t="inlineStr">
         <is>
           <t>Niwot HS</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>8989 Niwot Rd, Niwot, CO 80503</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>SVVSD</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>https://nhs.svvsd.org/</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/VmRuiC4cCzQrbJPR7</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>Niwot High School</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>POINT (-105.1442414652976 40.10369506217272)</t>
         </is>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>40.10369506217272</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>-105.1442414652976</v>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="N25" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/VmRuiC4cCzQrbJPR7</t>
         </is>
       </c>
-      <c r="M25" t="inlineStr">
+      <c r="O25" t="inlineStr">
         <is>
           <t>https://nhs.svvsd.org/</t>
         </is>
       </c>
-      <c r="N25" t="inlineStr">
+      <c r="P25" t="inlineStr">
         <is>
           <t>POINT (-105.1442414652976 40.10369506217272)</t>
         </is>
@@ -2015,58 +2169,64 @@
       <c r="B26" t="n">
         <v>24</v>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="n">
+        <v>24</v>
+      </c>
+      <c r="E26" t="inlineStr">
         <is>
           <t>Silver Creek HS</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>4901 Nelson Rd, Longmont, CO 80503</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>SVVSD</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>http://schs.svvsd.org/</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/6j7ZvjGuNgq38Uv1A</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>Silver Creek High School</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>POINT (-105.1665699930847 40.15137160754995)</t>
         </is>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>40.15137160754995</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>-105.1665699930847</v>
       </c>
-      <c r="L26" t="inlineStr">
+      <c r="N26" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/6j7ZvjGuNgq38Uv1A</t>
         </is>
       </c>
-      <c r="M26" t="inlineStr">
+      <c r="O26" t="inlineStr">
         <is>
           <t>http://schs.svvsd.org/</t>
         </is>
       </c>
-      <c r="N26" t="inlineStr">
+      <c r="P26" t="inlineStr">
         <is>
           <t>POINT (-105.1665699930847 40.15137160754995)</t>
         </is>
@@ -2079,58 +2239,64 @@
       <c r="B27" t="n">
         <v>25</v>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="n">
+        <v>25</v>
+      </c>
+      <c r="E27" t="inlineStr">
         <is>
           <t>Southern Hills MS</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1500 Knox Dr, Boulder, CO 80305</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>BVSD</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>http://shm.bvsd.org/</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/J5CQaiF7gt1pezXm8</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>Southern Hills Middle School</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>POINT (-105.2452260530946 39.97413389369987)</t>
         </is>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>39.97413389369987</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>-105.2452260530946</v>
       </c>
-      <c r="L27" t="inlineStr">
+      <c r="N27" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/J5CQaiF7gt1pezXm8</t>
         </is>
       </c>
-      <c r="M27" t="inlineStr">
+      <c r="O27" t="inlineStr">
         <is>
           <t>http://shm.bvsd.org/</t>
         </is>
       </c>
-      <c r="N27" t="inlineStr">
+      <c r="P27" t="inlineStr">
         <is>
           <t>POINT (-105.2452260530946 39.97413389369987)</t>
         </is>
@@ -2143,58 +2309,64 @@
       <c r="B28" t="n">
         <v>26</v>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="n">
+        <v>26</v>
+      </c>
+      <c r="E28" t="inlineStr">
         <is>
           <t>Sunset MS</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1300 S Sunset St, Longmont, CO 80501</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>SVVSD</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>http://sms.svvsd.org/</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/2iVHM51MYZg9XEZo9</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>Sunset Middle School</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>POINT (-105.1199067185428 40.14458073069962)</t>
         </is>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>40.14458073069962</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>-105.1199067185428</v>
       </c>
-      <c r="L28" t="inlineStr">
+      <c r="N28" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/2iVHM51MYZg9XEZo9</t>
         </is>
       </c>
-      <c r="M28" t="inlineStr">
+      <c r="O28" t="inlineStr">
         <is>
           <t>http://sms.svvsd.org/</t>
         </is>
       </c>
-      <c r="N28" t="inlineStr">
+      <c r="P28" t="inlineStr">
         <is>
           <t>POINT (-105.1199067185428 40.14458073069962)</t>
         </is>
@@ -2207,58 +2379,64 @@
       <c r="B29" t="n">
         <v>27</v>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="n">
+        <v>27</v>
+      </c>
+      <c r="E29" t="inlineStr">
         <is>
           <t>Timberline PK-8</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>233 E Mountain View Ave, Longmont, CO 80504</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>SVVSD</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>http://tpk8.svvsd.org/</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/Dqyuok7JMiowX96x5</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>Timberline PK-8 SVVSD</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>POINT (-105.0857347392096 40.18091133152473)</t>
         </is>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>40.18091133152473</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>-105.0857347392096</v>
       </c>
-      <c r="L29" t="inlineStr">
+      <c r="N29" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/Dqyuok7JMiowX96x5</t>
         </is>
       </c>
-      <c r="M29" t="inlineStr">
+      <c r="O29" t="inlineStr">
         <is>
           <t>http://tpk8.svvsd.org/</t>
         </is>
       </c>
-      <c r="N29" t="inlineStr">
+      <c r="P29" t="inlineStr">
         <is>
           <t>POINT (-105.0857347392096 40.18091133152473)</t>
         </is>
@@ -2271,58 +2449,64 @@
       <c r="B30" t="n">
         <v>28</v>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="n">
+        <v>28</v>
+      </c>
+      <c r="E30" t="inlineStr">
         <is>
           <t>Trail Ridge MS</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1000 Button Rock Dr, Longmont, CO 80504</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>SVVSD</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>https://trms.svvsd.org/</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/jwrYoLXX3rzhtEFy7</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>Trail Ridge Middle School</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>POINT (-105.0576162268638 40.17693117783666)</t>
         </is>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>40.17693117783666</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>-105.0576162268638</v>
       </c>
-      <c r="L30" t="inlineStr">
+      <c r="N30" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/jwrYoLXX3rzhtEFy7</t>
         </is>
       </c>
-      <c r="M30" t="inlineStr">
+      <c r="O30" t="inlineStr">
         <is>
           <t>https://trms.svvsd.org/</t>
         </is>
       </c>
-      <c r="N30" t="inlineStr">
+      <c r="P30" t="inlineStr">
         <is>
           <t>POINT (-105.0576162268638 40.17693117783666)</t>
         </is>
@@ -2335,34 +2519,40 @@
       <c r="B31" t="n">
         <v>29</v>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="n">
+        <v>29</v>
+      </c>
+      <c r="E31" t="inlineStr">
         <is>
           <t>Ward Private Home</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr">
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
         <is>
           <t>Ward private home</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr">
+      <c r="K31" t="inlineStr">
         <is>
           <t>POINT (-105.506518983446 40.0733984409928)</t>
         </is>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>40.0733984409928</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>-105.506518983446</v>
       </c>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr">
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr">
         <is>
           <t>POINT (-105.506518983446 40.0733984409928)</t>
         </is>

--- a/data/venues_all_years_fixed.xlsx
+++ b/data/venues_all_years_fixed.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P31"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,75 +436,80 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.3</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Unnamed: 0.2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.1</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Venue</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>address</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>organization</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>website</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>google_map_link</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>google_map_name</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>geometry-invalid</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>lat</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>lon</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>google_map_url</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>website_url</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>geometry</t>
         </is>
@@ -523,54 +528,57 @@
       <c r="D2" t="n">
         <v>0</v>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="inlineStr">
         <is>
           <t>Allenspark Fire Station</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>14861 CO-7, Allenspark, CO 80510</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr">
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
         <is>
           <t>http://www.allensparkfire.com/</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/HYN1GYNb9yE4w4RL7</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>Allenspark Fire Protection</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>POINT (-105.5279141785934 40.19712777610975)</t>
         </is>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>40.19712777610975</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>-105.5279141785934</v>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/HYN1GYNb9yE4w4RL7</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>http://www.allensparkfire.com/</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>POINT (-105.5279141785934 40.19712777610975)</t>
         </is>
@@ -589,58 +597,61 @@
       <c r="D3" t="n">
         <v>1</v>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="inlineStr">
         <is>
           <t>Altona MS</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>4600 Clover Basin Dr, Longmont, CO 80503</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>SVVSD</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>https://ams.svvsd.org/</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/ew5ypnry93DZwFNj8</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>Altona Middle School</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>POINT (-105.1626179175455 40.14448266991539)</t>
         </is>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>40.14448266991539</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>-105.1626179175455</v>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/ew5ypnry93DZwFNj8</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://ams.svvsd.org/</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>POINT (-105.1626179175455 40.14448266991539)</t>
         </is>
@@ -659,58 +670,61 @@
       <c r="D4" t="n">
         <v>2</v>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" t="inlineStr">
         <is>
           <t>Angevine MS</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>1150 W South Boulder Rd, Lafayette, CO 80026</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>BVSD</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>http://anm.bvsd.org/</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/QtidHUByDwtU8Z599</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>Angevine Middle School</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>POINT (-105.1033574278846 39.98955883968855)</t>
         </is>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>39.98955883968855</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>-105.1033574278846</v>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/QtidHUByDwtU8Z599</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>http://anm.bvsd.org/</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>POINT (-105.1033574278846 39.98955883968855)</t>
         </is>
@@ -729,58 +743,61 @@
       <c r="D5" t="n">
         <v>3</v>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" t="n">
+        <v>3</v>
+      </c>
+      <c r="F5" t="inlineStr">
         <is>
           <t>Boulder HS</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>1604 Arapahoe Ave, Boulder, CO 80302</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>BVSD</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>http://boh.bvsd.org/</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/dKMDjeKUL4kjNDMp6</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>Boulder High School</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>POINT (-105.2728711769165 40.01411590640171)</t>
         </is>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>40.01411590640171</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>-105.2728711769165</v>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/dKMDjeKUL4kjNDMp6</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>http://boh.bvsd.org/</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>POINT (-105.2728711769165 40.01411590640171)</t>
         </is>
@@ -799,58 +816,61 @@
       <c r="D6" t="n">
         <v>4</v>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F6" t="inlineStr">
         <is>
           <t>Burlington Elementary</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>1051 S Pratt Pkwy, Longmont, CO 80501</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>SVVSD</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>http://bes.svvsd.org/</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/QefhqxMskS5oyZY87</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>Burlington Elementary School</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>POINT (-105.108633248163 40.1466539913149)</t>
         </is>
       </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
         <v>40.1466539913149</v>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>-105.108633248163</v>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/QefhqxMskS5oyZY87</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>http://bes.svvsd.org/</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>POINT (-105.108633248163 40.1466539913149)</t>
         </is>
@@ -869,58 +889,61 @@
       <c r="D7" t="n">
         <v>5</v>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E7" t="n">
+        <v>5</v>
+      </c>
+      <c r="F7" t="inlineStr">
         <is>
           <t>Casey MS</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>1301 High St, Boulder, CO 80304</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>BVSD</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>http://cam.bvsd.org/</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/kqj3JEma8TPCRKWU9</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>Casey Middle School</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>POINT (-105.2791579470394 40.0228711759357)</t>
         </is>
       </c>
-      <c r="L7" t="n">
+      <c r="M7" t="n">
         <v>40.0228711759357</v>
       </c>
-      <c r="M7" t="n">
+      <c r="N7" t="n">
         <v>-105.2791579470394</v>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/kqj3JEma8TPCRKWU9</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>http://cam.bvsd.org/</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>POINT (-105.2791579470394 40.0228711759357)</t>
         </is>
@@ -939,58 +962,61 @@
       <c r="D8" t="n">
         <v>6</v>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E8" t="n">
+        <v>6</v>
+      </c>
+      <c r="F8" t="inlineStr">
         <is>
           <t>Centaurus HS</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>10300 W South Boulder Rd, Lafayette, CO 80026</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>BVSD</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>http://ceh.bvsd.org/</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/qmDEC4W3XTN7acfs9</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>Centaurus High School</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>POINT (-105.1125276640655 39.98635981263706)</t>
         </is>
       </c>
-      <c r="L8" t="n">
+      <c r="M8" t="n">
         <v>39.98635981263706</v>
       </c>
-      <c r="M8" t="n">
+      <c r="N8" t="n">
         <v>-105.1125276640655</v>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/qmDEC4W3XTN7acfs9</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>http://ceh.bvsd.org/</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>POINT (-105.1125276640655 39.98635981263706)</t>
         </is>
@@ -1009,58 +1035,61 @@
       <c r="D9" t="n">
         <v>7</v>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E9" t="n">
+        <v>7</v>
+      </c>
+      <c r="F9" t="inlineStr">
         <is>
           <t>Centennial MS</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>2205 Norwood Ave, Boulder, CO 80304</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>BVSD</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>http://cem.bvsd.org/</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/tKhhHtoniAvTfpPH9</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>Centennial Middle School</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>POINT (-105.2671472290834 40.04506796264024)</t>
         </is>
       </c>
-      <c r="L9" t="n">
+      <c r="M9" t="n">
         <v>40.04506796264024</v>
       </c>
-      <c r="M9" t="n">
+      <c r="N9" t="n">
         <v>-105.2671472290834</v>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/tKhhHtoniAvTfpPH9</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>http://cem.bvsd.org/</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>POINT (-105.2671472290834 40.04506796264024)</t>
         </is>
@@ -1079,58 +1108,61 @@
       <c r="D10" t="n">
         <v>8</v>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E10" t="n">
+        <v>8</v>
+      </c>
+      <c r="F10" t="inlineStr">
         <is>
           <t>Eldorado K8</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>3351 S Indiana St, Superior, CO 80027</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>BVSD</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>http://el8.bvsd.org/</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/s2gJjfVYasWGLpMz7</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>Eldorado K-8 School</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>POINT (-105.161197194222 39.921698179021)</t>
         </is>
       </c>
-      <c r="L10" t="n">
+      <c r="M10" t="n">
         <v>39.921698179021</v>
       </c>
-      <c r="M10" t="n">
+      <c r="N10" t="n">
         <v>-105.161197194222</v>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/s2gJjfVYasWGLpMz7</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>http://el8.bvsd.org/</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>POINT (-105.161197194222 39.921698179021)</t>
         </is>
@@ -1149,46 +1181,49 @@
       <c r="D11" t="n">
         <v>9</v>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E11" t="n">
+        <v>9</v>
+      </c>
+      <c r="F11" t="inlineStr">
         <is>
           <t>Eldorado Sp. Fire House</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>4390 Eldorado Springs Dr, Boulder, CO 80303</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr">
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/TBWeoHAtGKUfwDy79</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>Rocky Mountain Fire District Station 6</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>POINT (-105.2493101229037 39.94266172014046)</t>
         </is>
       </c>
-      <c r="L11" t="n">
+      <c r="M11" t="n">
         <v>39.94266172014046</v>
       </c>
-      <c r="M11" t="n">
+      <c r="N11" t="n">
         <v>-105.2493101229037</v>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/TBWeoHAtGKUfwDy79</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr">
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr">
         <is>
           <t>POINT (-105.2493101229037 39.94266172014046)</t>
         </is>
@@ -1207,58 +1242,61 @@
       <c r="D12" t="n">
         <v>10</v>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E12" t="n">
+        <v>10</v>
+      </c>
+      <c r="F12" t="inlineStr">
         <is>
           <t>Erie MS</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>650 Main St, Erie, CO 80516</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>SVVSD</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>https://ems.svvsd.org/</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/A5evm4HRnAPM1aUp8</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>Erie Middle School</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>POINT (-105.0529688258069 40.05101707648438)</t>
         </is>
       </c>
-      <c r="L12" t="n">
+      <c r="M12" t="n">
         <v>40.05101707648438</v>
       </c>
-      <c r="M12" t="n">
+      <c r="N12" t="n">
         <v>-105.0529688258069</v>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/A5evm4HRnAPM1aUp8</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>https://ems.svvsd.org/</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>POINT (-105.0529688258069 40.05101707648438)</t>
         </is>
@@ -1277,54 +1315,57 @@
       <c r="D13" t="n">
         <v>11</v>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E13" t="n">
+        <v>11</v>
+      </c>
+      <c r="F13" t="inlineStr">
         <is>
           <t>Frasier Mead.</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>350 Ponca Pl, Boulder, CO 80303</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr">
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
         <is>
           <t>http://www.frasiermeadows.org/</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/RCv4sKncUCjLLnzP7</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>Frasier Retirement Community</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>POINT (-105.2338815741678 39.99456396590154)</t>
         </is>
       </c>
-      <c r="L13" t="n">
+      <c r="M13" t="n">
         <v>39.99456396590154</v>
       </c>
-      <c r="M13" t="n">
+      <c r="N13" t="n">
         <v>-105.2338815741678</v>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/RCv4sKncUCjLLnzP7</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="P13" t="inlineStr">
         <is>
           <t>http://www.frasiermeadows.org/</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>POINT (-105.2338815741678 39.99456396590154)</t>
         </is>
@@ -1343,58 +1384,61 @@
       <c r="D14" t="n">
         <v>12</v>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E14" t="n">
+        <v>12</v>
+      </c>
+      <c r="F14" t="inlineStr">
         <is>
           <t>Gold Hill School</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>890 Main St, Boulder, CO 80302</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>BVSD</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>http://ghe.bvsd.org/</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/PZV28vuUvb8p7LJs6</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>Gold Hill Elementary School</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>POINT (-105.412472825461 40.063366273762)</t>
         </is>
       </c>
-      <c r="L14" t="n">
+      <c r="M14" t="n">
         <v>40.063366273762</v>
       </c>
-      <c r="M14" t="n">
+      <c r="N14" t="n">
         <v>-105.412472825461</v>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/PZV28vuUvb8p7LJs6</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="P14" t="inlineStr">
         <is>
           <t>http://ghe.bvsd.org/</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
+      <c r="Q14" t="inlineStr">
         <is>
           <t>POINT (-105.412472825461 40.063366273762)</t>
         </is>
@@ -1413,58 +1457,61 @@
       <c r="D15" t="n">
         <v>13</v>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E15" t="n">
+        <v>13</v>
+      </c>
+      <c r="F15" t="inlineStr">
         <is>
           <t>Indian Peaks ES</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>1335 S Judson St, Longmont, CO 80501</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>SVVSD</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>https://ipes.svvsd.org/</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/rFzqgoYXNnAMFNG27</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>Indian Peaks Elementary School</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>POINT (-105.118010493892 40.14327187343834)</t>
         </is>
       </c>
-      <c r="L15" t="n">
+      <c r="M15" t="n">
         <v>40.14327187343834</v>
       </c>
-      <c r="M15" t="n">
+      <c r="N15" t="n">
         <v>-105.118010493892</v>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/rFzqgoYXNnAMFNG27</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="P15" t="inlineStr">
         <is>
           <t>https://ipes.svvsd.org/</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
+      <c r="Q15" t="inlineStr">
         <is>
           <t>POINT (-105.118010493892 40.14327187343834)</t>
         </is>
@@ -1483,58 +1530,61 @@
       <c r="D16" t="n">
         <v>14</v>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E16" t="n">
+        <v>14</v>
+      </c>
+      <c r="F16" t="inlineStr">
         <is>
           <t>Jamestown School</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>111 Mesa St, Jamestown, CO 80455</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>BVSD</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>http://jae.bvsd.org/</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/xaKW9Ljh7VtMuQPf6</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>Jamestown Elementary School</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>POINT (-105.387802261192 40.1164318137431)</t>
         </is>
       </c>
-      <c r="L16" t="n">
+      <c r="M16" t="n">
         <v>40.1164318137431</v>
       </c>
-      <c r="M16" t="n">
+      <c r="N16" t="n">
         <v>-105.387802261192</v>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="O16" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/xaKW9Ljh7VtMuQPf6</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
+      <c r="P16" t="inlineStr">
         <is>
           <t>http://jae.bvsd.org/</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
+      <c r="Q16" t="inlineStr">
         <is>
           <t>POINT (-105.387802261192 40.1164318137431)</t>
         </is>
@@ -1553,58 +1603,61 @@
       <c r="D17" t="n">
         <v>15</v>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E17" t="n">
+        <v>15</v>
+      </c>
+      <c r="F17" t="inlineStr">
         <is>
           <t>Longs Peak MS</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>1500 14th Ave, Longmont, CO 80501</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>SVVSD</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>http://lpms.svvsd.org/</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/44xqEDG33jkv1pN28</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>Longs Peak Middle School</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="L17" t="inlineStr">
         <is>
           <t>POINT (-105.117518880356 40.18399195721774)</t>
         </is>
       </c>
-      <c r="L17" t="n">
+      <c r="M17" t="n">
         <v>40.18399195721774</v>
       </c>
-      <c r="M17" t="n">
+      <c r="N17" t="n">
         <v>-105.117518880356</v>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="O17" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/44xqEDG33jkv1pN28</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
+      <c r="P17" t="inlineStr">
         <is>
           <t>http://lpms.svvsd.org/</t>
         </is>
       </c>
-      <c r="P17" t="inlineStr">
+      <c r="Q17" t="inlineStr">
         <is>
           <t>POINT (-105.117518880356 40.18399195721774)</t>
         </is>
@@ -1623,58 +1676,61 @@
       <c r="D18" t="n">
         <v>16</v>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E18" t="n">
+        <v>16</v>
+      </c>
+      <c r="F18" t="inlineStr">
         <is>
           <t>Louisville MS</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>1341 Main St, Louisville, CO 80027</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>BVSD</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>http://lom.bvsd.org/</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/VT5YaQMB64667476A</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>Louisville Middle School</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="L18" t="inlineStr">
         <is>
           <t>POINT (-105.1325745422844 39.9841246724845)</t>
         </is>
       </c>
-      <c r="L18" t="n">
+      <c r="M18" t="n">
         <v>39.9841246724845</v>
       </c>
-      <c r="M18" t="n">
+      <c r="N18" t="n">
         <v>-105.1325745422844</v>
       </c>
-      <c r="N18" t="inlineStr">
+      <c r="O18" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/VT5YaQMB64667476A</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr">
+      <c r="P18" t="inlineStr">
         <is>
           <t>http://lom.bvsd.org/</t>
         </is>
       </c>
-      <c r="P18" t="inlineStr">
+      <c r="Q18" t="inlineStr">
         <is>
           <t>POINT (-105.1325745422844 39.9841246724845)</t>
         </is>
@@ -1693,58 +1749,61 @@
       <c r="D19" t="n">
         <v>17</v>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="E19" t="n">
+        <v>17</v>
+      </c>
+      <c r="F19" t="inlineStr">
         <is>
           <t>Lyons Middle Senior</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>100 McConnell Dr, Lyons, CO 80540</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>SVVSD</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>https://lmshs.svvsd.org/</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/ohTLL54wbPdkJNFA8</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>Lyons Middle/Senior High School</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
+      <c r="L19" t="inlineStr">
         <is>
           <t>POINT (-105.264461148759 40.2147599852984)</t>
         </is>
       </c>
-      <c r="L19" t="n">
+      <c r="M19" t="n">
         <v>40.2147599852984</v>
       </c>
-      <c r="M19" t="n">
+      <c r="N19" t="n">
         <v>-105.264461148759</v>
       </c>
-      <c r="N19" t="inlineStr">
+      <c r="O19" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/ohTLL54wbPdkJNFA8</t>
         </is>
       </c>
-      <c r="O19" t="inlineStr">
+      <c r="P19" t="inlineStr">
         <is>
           <t>https://lmshs.svvsd.org/</t>
         </is>
       </c>
-      <c r="P19" t="inlineStr">
+      <c r="Q19" t="inlineStr">
         <is>
           <t>POINT (-105.264461148759 40.2147599852984)</t>
         </is>
@@ -1763,58 +1822,61 @@
       <c r="D20" t="n">
         <v>18</v>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="E20" t="n">
+        <v>18</v>
+      </c>
+      <c r="F20" t="inlineStr">
         <is>
           <t>Manhattan MS</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>290 Manhattan Dr, Boulder, CO 80303</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>BVSD</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>http://mam.bvsd.org/</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/pkEKK86Dh3tGgHz46</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>Manhattan Middle School of Arts and Academics</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
+      <c r="L20" t="inlineStr">
         <is>
           <t>POINT (-105.2273572175253 39.99410342530379)</t>
         </is>
       </c>
-      <c r="L20" t="n">
+      <c r="M20" t="n">
         <v>39.99410342530379</v>
       </c>
-      <c r="M20" t="n">
+      <c r="N20" t="n">
         <v>-105.2273572175253</v>
       </c>
-      <c r="N20" t="inlineStr">
+      <c r="O20" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/pkEKK86Dh3tGgHz46</t>
         </is>
       </c>
-      <c r="O20" t="inlineStr">
+      <c r="P20" t="inlineStr">
         <is>
           <t>http://mam.bvsd.org/</t>
         </is>
       </c>
-      <c r="P20" t="inlineStr">
+      <c r="Q20" t="inlineStr">
         <is>
           <t>POINT (-105.2273572175253 39.99410342530379)</t>
         </is>
@@ -1833,58 +1895,61 @@
       <c r="D21" t="n">
         <v>19</v>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E21" t="n">
+        <v>19</v>
+      </c>
+      <c r="F21" t="inlineStr">
         <is>
           <t>Monarch HS</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>329 Campus Dr, Louisville, CO 80027</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>BVSD</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>http://moh.bvsd.org/</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/GVkb3S8qP6y3d6Lc6</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>Monarch High School</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
+      <c r="L21" t="inlineStr">
         <is>
           <t>POINT (-105.141776992356 39.9520220573069)</t>
         </is>
       </c>
-      <c r="L21" t="n">
+      <c r="M21" t="n">
         <v>39.9520220573069</v>
       </c>
-      <c r="M21" t="n">
+      <c r="N21" t="n">
         <v>-105.141776992356</v>
       </c>
-      <c r="N21" t="inlineStr">
+      <c r="O21" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/GVkb3S8qP6y3d6Lc6</t>
         </is>
       </c>
-      <c r="O21" t="inlineStr">
+      <c r="P21" t="inlineStr">
         <is>
           <t>http://moh.bvsd.org/</t>
         </is>
       </c>
-      <c r="P21" t="inlineStr">
+      <c r="Q21" t="inlineStr">
         <is>
           <t>POINT (-105.141776992356 39.9520220573069)</t>
         </is>
@@ -1903,58 +1968,61 @@
       <c r="D22" t="n">
         <v>20</v>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="E22" t="n">
+        <v>20</v>
+      </c>
+      <c r="F22" t="inlineStr">
         <is>
           <t>Monarch K-8</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>263 Campus Dr, Louisville, CO 80027</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>BVSD</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>http://mo8.bvsd.org/</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/fM4A7oD6cKkm9gXJ9</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>Monarch K-8</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
+      <c r="L22" t="inlineStr">
         <is>
           <t>POINT (-105.1435104051174 39.95142599070905)</t>
         </is>
       </c>
-      <c r="L22" t="n">
+      <c r="M22" t="n">
         <v>39.95142599070905</v>
       </c>
-      <c r="M22" t="n">
+      <c r="N22" t="n">
         <v>-105.1435104051174</v>
       </c>
-      <c r="N22" t="inlineStr">
+      <c r="O22" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/fM4A7oD6cKkm9gXJ9</t>
         </is>
       </c>
-      <c r="O22" t="inlineStr">
+      <c r="P22" t="inlineStr">
         <is>
           <t>http://mo8.bvsd.org/</t>
         </is>
       </c>
-      <c r="P22" t="inlineStr">
+      <c r="Q22" t="inlineStr">
         <is>
           <t>POINT (-105.1435104051174 39.95142599070905)</t>
         </is>
@@ -1973,58 +2041,61 @@
       <c r="D23" t="n">
         <v>21</v>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="E23" t="n">
+        <v>21</v>
+      </c>
+      <c r="F23" t="inlineStr">
         <is>
           <t>Nederland HS</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>597 Co Hwy 130, Nederland, CO 80466</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>BVSD</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>https://neh.bvsd.org/</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/mVMWPW4o458ETfhw5</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>Nederland Middle/Senior High School</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr">
+      <c r="L23" t="inlineStr">
         <is>
           <t>POINT (-105.5233421126253 39.95383849383303)</t>
         </is>
       </c>
-      <c r="L23" t="n">
+      <c r="M23" t="n">
         <v>39.95383849383303</v>
       </c>
-      <c r="M23" t="n">
+      <c r="N23" t="n">
         <v>-105.5233421126253</v>
       </c>
-      <c r="N23" t="inlineStr">
+      <c r="O23" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/mVMWPW4o458ETfhw5</t>
         </is>
       </c>
-      <c r="O23" t="inlineStr">
+      <c r="P23" t="inlineStr">
         <is>
           <t>https://neh.bvsd.org/</t>
         </is>
       </c>
-      <c r="P23" t="inlineStr">
+      <c r="Q23" t="inlineStr">
         <is>
           <t>POINT (-105.5233421126253 39.95383849383303)</t>
         </is>
@@ -2043,50 +2114,53 @@
       <c r="D24" t="n">
         <v>22</v>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="E24" t="n">
+        <v>22</v>
+      </c>
+      <c r="F24" t="inlineStr">
         <is>
           <t>New Vista</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>700 20th St, Boulder, CO 80302</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>BVSD</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>http://nvh.bvsd.org/</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/mVZ7Cv3jx5iSPW3u9</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>New Vista High School</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr">
+      <c r="L24" t="inlineStr">
         <is>
           <t>POINT (-105.2665043792843 40.00119784626813)</t>
         </is>
       </c>
-      <c r="L24" t="n">
+      <c r="M24" t="n">
         <v>40.0011978462681</v>
       </c>
-      <c r="M24" t="n">
+      <c r="N24" t="n">
         <v>-105.266504379284</v>
       </c>
-      <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr">
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr">
         <is>
           <t>POINT (-105.266504379284 40.0011978462681)</t>
         </is>
@@ -2105,58 +2179,61 @@
       <c r="D25" t="n">
         <v>23</v>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="E25" t="n">
+        <v>23</v>
+      </c>
+      <c r="F25" t="inlineStr">
         <is>
           <t>Niwot HS</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>8989 Niwot Rd, Niwot, CO 80503</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>SVVSD</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>https://nhs.svvsd.org/</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/VmRuiC4cCzQrbJPR7</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>Niwot High School</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr">
+      <c r="L25" t="inlineStr">
         <is>
           <t>POINT (-105.1442414652976 40.10369506217272)</t>
         </is>
       </c>
-      <c r="L25" t="n">
+      <c r="M25" t="n">
         <v>40.10369506217272</v>
       </c>
-      <c r="M25" t="n">
+      <c r="N25" t="n">
         <v>-105.1442414652976</v>
       </c>
-      <c r="N25" t="inlineStr">
+      <c r="O25" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/VmRuiC4cCzQrbJPR7</t>
         </is>
       </c>
-      <c r="O25" t="inlineStr">
+      <c r="P25" t="inlineStr">
         <is>
           <t>https://nhs.svvsd.org/</t>
         </is>
       </c>
-      <c r="P25" t="inlineStr">
+      <c r="Q25" t="inlineStr">
         <is>
           <t>POINT (-105.1442414652976 40.10369506217272)</t>
         </is>
@@ -2175,58 +2252,61 @@
       <c r="D26" t="n">
         <v>24</v>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="E26" t="n">
+        <v>24</v>
+      </c>
+      <c r="F26" t="inlineStr">
         <is>
           <t>Silver Creek HS</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>4901 Nelson Rd, Longmont, CO 80503</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>SVVSD</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>http://schs.svvsd.org/</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/6j7ZvjGuNgq38Uv1A</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>Silver Creek High School</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr">
+      <c r="L26" t="inlineStr">
         <is>
           <t>POINT (-105.1665699930847 40.15137160754995)</t>
         </is>
       </c>
-      <c r="L26" t="n">
+      <c r="M26" t="n">
         <v>40.15137160754995</v>
       </c>
-      <c r="M26" t="n">
+      <c r="N26" t="n">
         <v>-105.1665699930847</v>
       </c>
-      <c r="N26" t="inlineStr">
+      <c r="O26" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/6j7ZvjGuNgq38Uv1A</t>
         </is>
       </c>
-      <c r="O26" t="inlineStr">
+      <c r="P26" t="inlineStr">
         <is>
           <t>http://schs.svvsd.org/</t>
         </is>
       </c>
-      <c r="P26" t="inlineStr">
+      <c r="Q26" t="inlineStr">
         <is>
           <t>POINT (-105.1665699930847 40.15137160754995)</t>
         </is>
@@ -2245,58 +2325,61 @@
       <c r="D27" t="n">
         <v>25</v>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="E27" t="n">
+        <v>25</v>
+      </c>
+      <c r="F27" t="inlineStr">
         <is>
           <t>Southern Hills MS</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>1500 Knox Dr, Boulder, CO 80305</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>BVSD</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>http://shm.bvsd.org/</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/J5CQaiF7gt1pezXm8</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>Southern Hills Middle School</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr">
+      <c r="L27" t="inlineStr">
         <is>
           <t>POINT (-105.2452260530946 39.97413389369987)</t>
         </is>
       </c>
-      <c r="L27" t="n">
+      <c r="M27" t="n">
         <v>39.97413389369987</v>
       </c>
-      <c r="M27" t="n">
+      <c r="N27" t="n">
         <v>-105.2452260530946</v>
       </c>
-      <c r="N27" t="inlineStr">
+      <c r="O27" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/J5CQaiF7gt1pezXm8</t>
         </is>
       </c>
-      <c r="O27" t="inlineStr">
+      <c r="P27" t="inlineStr">
         <is>
           <t>http://shm.bvsd.org/</t>
         </is>
       </c>
-      <c r="P27" t="inlineStr">
+      <c r="Q27" t="inlineStr">
         <is>
           <t>POINT (-105.2452260530946 39.97413389369987)</t>
         </is>
@@ -2315,58 +2398,61 @@
       <c r="D28" t="n">
         <v>26</v>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="E28" t="n">
+        <v>26</v>
+      </c>
+      <c r="F28" t="inlineStr">
         <is>
           <t>Sunset MS</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>1300 S Sunset St, Longmont, CO 80501</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>SVVSD</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>http://sms.svvsd.org/</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/2iVHM51MYZg9XEZo9</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>Sunset Middle School</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr">
+      <c r="L28" t="inlineStr">
         <is>
           <t>POINT (-105.1199067185428 40.14458073069962)</t>
         </is>
       </c>
-      <c r="L28" t="n">
+      <c r="M28" t="n">
         <v>40.14458073069962</v>
       </c>
-      <c r="M28" t="n">
+      <c r="N28" t="n">
         <v>-105.1199067185428</v>
       </c>
-      <c r="N28" t="inlineStr">
+      <c r="O28" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/2iVHM51MYZg9XEZo9</t>
         </is>
       </c>
-      <c r="O28" t="inlineStr">
+      <c r="P28" t="inlineStr">
         <is>
           <t>http://sms.svvsd.org/</t>
         </is>
       </c>
-      <c r="P28" t="inlineStr">
+      <c r="Q28" t="inlineStr">
         <is>
           <t>POINT (-105.1199067185428 40.14458073069962)</t>
         </is>
@@ -2385,58 +2471,61 @@
       <c r="D29" t="n">
         <v>27</v>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="E29" t="n">
+        <v>27</v>
+      </c>
+      <c r="F29" t="inlineStr">
         <is>
           <t>Timberline PK-8</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>233 E Mountain View Ave, Longmont, CO 80504</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>SVVSD</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>http://tpk8.svvsd.org/</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/Dqyuok7JMiowX96x5</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>Timberline PK-8 SVVSD</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr">
+      <c r="L29" t="inlineStr">
         <is>
           <t>POINT (-105.0857347392096 40.18091133152473)</t>
         </is>
       </c>
-      <c r="L29" t="n">
+      <c r="M29" t="n">
         <v>40.18091133152473</v>
       </c>
-      <c r="M29" t="n">
+      <c r="N29" t="n">
         <v>-105.0857347392096</v>
       </c>
-      <c r="N29" t="inlineStr">
+      <c r="O29" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/Dqyuok7JMiowX96x5</t>
         </is>
       </c>
-      <c r="O29" t="inlineStr">
+      <c r="P29" t="inlineStr">
         <is>
           <t>http://tpk8.svvsd.org/</t>
         </is>
       </c>
-      <c r="P29" t="inlineStr">
+      <c r="Q29" t="inlineStr">
         <is>
           <t>POINT (-105.0857347392096 40.18091133152473)</t>
         </is>
@@ -2455,58 +2544,61 @@
       <c r="D30" t="n">
         <v>28</v>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="E30" t="n">
+        <v>28</v>
+      </c>
+      <c r="F30" t="inlineStr">
         <is>
           <t>Trail Ridge MS</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>1000 Button Rock Dr, Longmont, CO 80504</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>SVVSD</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>https://trms.svvsd.org/</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/jwrYoLXX3rzhtEFy7</t>
         </is>
       </c>
-      <c r="J30" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>Trail Ridge Middle School</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr">
+      <c r="L30" t="inlineStr">
         <is>
           <t>POINT (-105.0576162268638 40.17693117783666)</t>
         </is>
       </c>
-      <c r="L30" t="n">
+      <c r="M30" t="n">
         <v>40.17693117783666</v>
       </c>
-      <c r="M30" t="n">
+      <c r="N30" t="n">
         <v>-105.0576162268638</v>
       </c>
-      <c r="N30" t="inlineStr">
+      <c r="O30" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/jwrYoLXX3rzhtEFy7</t>
         </is>
       </c>
-      <c r="O30" t="inlineStr">
+      <c r="P30" t="inlineStr">
         <is>
           <t>https://trms.svvsd.org/</t>
         </is>
       </c>
-      <c r="P30" t="inlineStr">
+      <c r="Q30" t="inlineStr">
         <is>
           <t>POINT (-105.0576162268638 40.17693117783666)</t>
         </is>
@@ -2525,34 +2617,37 @@
       <c r="D31" t="n">
         <v>29</v>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="E31" t="n">
+        <v>29</v>
+      </c>
+      <c r="F31" t="inlineStr">
         <is>
           <t>Ward Private Home</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr">
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
         <is>
           <t>Ward private home</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr">
+      <c r="L31" t="inlineStr">
         <is>
           <t>POINT (-105.506518983446 40.0733984409928)</t>
         </is>
       </c>
-      <c r="L31" t="n">
+      <c r="M31" t="n">
         <v>40.0733984409928</v>
       </c>
-      <c r="M31" t="n">
+      <c r="N31" t="n">
         <v>-105.506518983446</v>
       </c>
-      <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr">
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr">
         <is>
           <t>POINT (-105.506518983446 40.0733984409928)</t>
         </is>

--- a/data/venues_all_years_fixed.xlsx
+++ b/data/venues_all_years_fixed.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q31"/>
+  <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,80 +436,70 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 0.3</t>
+          <t>Unnamed: 0</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 0.2</t>
+          <t>Venue</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 0.1</t>
+          <t>venue_code</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 0</t>
+          <t>address</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Venue</t>
+          <t>organization</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>address</t>
+          <t>website</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>organization</t>
+          <t>google_map_link</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>website</t>
+          <t>google_map_name</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>google_map_link</t>
+          <t>geometry-invalid</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>google_map_name</t>
+          <t>lat</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>geometry-invalid</t>
+          <t>lon</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>lat</t>
+          <t>google_map_url</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>lon</t>
+          <t>website_url</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>google_map_url</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>website_url</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>geometry</t>
         </is>
@@ -522,63 +512,59 @@
       <c r="B2" t="n">
         <v>0</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>Allenspark Fire Station</t>
         </is>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>ALLENSPFS</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>14861 CO-7, Allenspark, CO 80510</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
-          <t>14861 CO-7, Allenspark, CO 80510</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>http://www.allensparkfire.com/</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/HYN1GYNb9yE4w4RL7</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr">
         <is>
+          <t>Allenspark Fire Protection</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>POINT (-105.5279141785934 40.19712777610975)</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>40.19712777610975</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-105.5279141785934</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/HYN1GYNb9yE4w4RL7</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
           <t>http://www.allensparkfire.com/</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/HYN1GYNb9yE4w4RL7</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Allenspark Fire Protection</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>POINT (-105.5279141785934 40.19712777610975)</t>
-        </is>
-      </c>
-      <c r="M2" t="n">
-        <v>40.19712777610975</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-105.5279141785934</v>
-      </c>
       <c r="O2" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/HYN1GYNb9yE4w4RL7</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>http://www.allensparkfire.com/</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
         <is>
           <t>POINT (-105.5279141785934 40.19712777610975)</t>
         </is>
@@ -591,67 +577,63 @@
       <c r="B3" t="n">
         <v>1</v>
       </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1</v>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Altona MS</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>ALTONAMS</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>4600 Clover Basin Dr, Longmont, CO 80503</t>
+        </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Altona MS</t>
+          <t>SVVSD</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>4600 Clover Basin Dr, Longmont, CO 80503</t>
+          <t>https://ams.svvsd.org/</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>SVVSD</t>
+          <t>https://maps.app.goo.gl/ew5ypnry93DZwFNj8</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
+          <t>Altona Middle School</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>POINT (-105.1626179175455 40.14448266991539)</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>40.14448266991539</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-105.1626179175455</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/ew5ypnry93DZwFNj8</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
           <t>https://ams.svvsd.org/</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/ew5ypnry93DZwFNj8</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Altona Middle School</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>POINT (-105.1626179175455 40.14448266991539)</t>
-        </is>
-      </c>
-      <c r="M3" t="n">
-        <v>40.14448266991539</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-105.1626179175455</v>
-      </c>
       <c r="O3" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/ew5ypnry93DZwFNj8</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>https://ams.svvsd.org/</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
         <is>
           <t>POINT (-105.1626179175455 40.14448266991539)</t>
         </is>
@@ -664,67 +646,63 @@
       <c r="B4" t="n">
         <v>2</v>
       </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" t="n">
-        <v>2</v>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Angevine MS</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>ANGEVIMS</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>1150 W South Boulder Rd, Lafayette, CO 80026</t>
+        </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Angevine MS</t>
+          <t>BVSD</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1150 W South Boulder Rd, Lafayette, CO 80026</t>
+          <t>http://anm.bvsd.org/</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>BVSD</t>
+          <t>https://maps.app.goo.gl/QtidHUByDwtU8Z599</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
+          <t>Angevine Middle School</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>POINT (-105.1033574278846 39.98955883968855)</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>39.98955883968855</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-105.1033574278846</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/QtidHUByDwtU8Z599</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
           <t>http://anm.bvsd.org/</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/QtidHUByDwtU8Z599</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>Angevine Middle School</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>POINT (-105.1033574278846 39.98955883968855)</t>
-        </is>
-      </c>
-      <c r="M4" t="n">
-        <v>39.98955883968855</v>
-      </c>
-      <c r="N4" t="n">
-        <v>-105.1033574278846</v>
-      </c>
       <c r="O4" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/QtidHUByDwtU8Z599</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>http://anm.bvsd.org/</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
         <is>
           <t>POINT (-105.1033574278846 39.98955883968855)</t>
         </is>
@@ -737,67 +715,63 @@
       <c r="B5" t="n">
         <v>3</v>
       </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3</v>
-      </c>
-      <c r="E5" t="n">
-        <v>3</v>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Boulder HS</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>BOULDEHS</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>1604 Arapahoe Ave, Boulder, CO 80302</t>
+        </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Boulder HS</t>
+          <t>BVSD</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1604 Arapahoe Ave, Boulder, CO 80302</t>
+          <t>http://boh.bvsd.org/</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>BVSD</t>
+          <t>https://maps.app.goo.gl/dKMDjeKUL4kjNDMp6</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
+          <t>Boulder High School</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>POINT (-105.2728711769165 40.01411590640171)</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>40.01411590640171</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-105.2728711769165</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/dKMDjeKUL4kjNDMp6</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
           <t>http://boh.bvsd.org/</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/dKMDjeKUL4kjNDMp6</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>Boulder High School</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>POINT (-105.2728711769165 40.01411590640171)</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
-        <v>40.01411590640171</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-105.2728711769165</v>
-      </c>
       <c r="O5" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/dKMDjeKUL4kjNDMp6</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>http://boh.bvsd.org/</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
         <is>
           <t>POINT (-105.2728711769165 40.01411590640171)</t>
         </is>
@@ -810,67 +784,63 @@
       <c r="B6" t="n">
         <v>4</v>
       </c>
-      <c r="C6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" t="n">
-        <v>4</v>
-      </c>
-      <c r="E6" t="n">
-        <v>4</v>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Burlington Elementary</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>BURLINGES</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>1051 S Pratt Pkwy, Longmont, CO 80501</t>
+        </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Burlington Elementary</t>
+          <t>SVVSD</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1051 S Pratt Pkwy, Longmont, CO 80501</t>
+          <t>http://bes.svvsd.org/</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>SVVSD</t>
+          <t>https://maps.app.goo.gl/QefhqxMskS5oyZY87</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
+          <t>Burlington Elementary School</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>POINT (-105.108633248163 40.1466539913149)</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>40.1466539913149</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-105.108633248163</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/QefhqxMskS5oyZY87</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
           <t>http://bes.svvsd.org/</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/QefhqxMskS5oyZY87</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>Burlington Elementary School</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>POINT (-105.108633248163 40.1466539913149)</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>40.1466539913149</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-105.108633248163</v>
-      </c>
       <c r="O6" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/QefhqxMskS5oyZY87</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>http://bes.svvsd.org/</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
         <is>
           <t>POINT (-105.108633248163 40.1466539913149)</t>
         </is>
@@ -883,67 +853,63 @@
       <c r="B7" t="n">
         <v>5</v>
       </c>
-      <c r="C7" t="n">
-        <v>5</v>
-      </c>
-      <c r="D7" t="n">
-        <v>5</v>
-      </c>
-      <c r="E7" t="n">
-        <v>5</v>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Casey MS</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>CASEYMS</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1301 High St, Boulder, CO 80304</t>
+        </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Casey MS</t>
+          <t>BVSD</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1301 High St, Boulder, CO 80304</t>
+          <t>http://cam.bvsd.org/</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>BVSD</t>
+          <t>https://maps.app.goo.gl/kqj3JEma8TPCRKWU9</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
+          <t>Casey Middle School</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>POINT (-105.2791579470394 40.0228711759357)</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>40.0228711759357</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-105.2791579470394</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/kqj3JEma8TPCRKWU9</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
           <t>http://cam.bvsd.org/</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/kqj3JEma8TPCRKWU9</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>Casey Middle School</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>POINT (-105.2791579470394 40.0228711759357)</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
-        <v>40.0228711759357</v>
-      </c>
-      <c r="N7" t="n">
-        <v>-105.2791579470394</v>
-      </c>
       <c r="O7" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/kqj3JEma8TPCRKWU9</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>http://cam.bvsd.org/</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
         <is>
           <t>POINT (-105.2791579470394 40.0228711759357)</t>
         </is>
@@ -956,67 +922,63 @@
       <c r="B8" t="n">
         <v>6</v>
       </c>
-      <c r="C8" t="n">
-        <v>6</v>
-      </c>
-      <c r="D8" t="n">
-        <v>6</v>
-      </c>
-      <c r="E8" t="n">
-        <v>6</v>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Centaurus HS</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>CENTAURHS</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>10300 W South Boulder Rd, Lafayette, CO 80026</t>
+        </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Centaurus HS</t>
+          <t>BVSD</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>10300 W South Boulder Rd, Lafayette, CO 80026</t>
+          <t>http://ceh.bvsd.org/</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>BVSD</t>
+          <t>https://maps.app.goo.gl/qmDEC4W3XTN7acfs9</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
+          <t>Centaurus High School</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>POINT (-105.1125276640655 39.98635981263706)</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>39.98635981263706</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-105.1125276640655</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/qmDEC4W3XTN7acfs9</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
           <t>http://ceh.bvsd.org/</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/qmDEC4W3XTN7acfs9</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>Centaurus High School</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>POINT (-105.1125276640655 39.98635981263706)</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>39.98635981263706</v>
-      </c>
-      <c r="N8" t="n">
-        <v>-105.1125276640655</v>
-      </c>
       <c r="O8" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/qmDEC4W3XTN7acfs9</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>http://ceh.bvsd.org/</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
         <is>
           <t>POINT (-105.1125276640655 39.98635981263706)</t>
         </is>
@@ -1029,67 +991,63 @@
       <c r="B9" t="n">
         <v>7</v>
       </c>
-      <c r="C9" t="n">
-        <v>7</v>
-      </c>
-      <c r="D9" t="n">
-        <v>7</v>
-      </c>
-      <c r="E9" t="n">
-        <v>7</v>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Centennial MS</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>CENTENNMS</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2205 Norwood Ave, Boulder, CO 80304</t>
+        </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Centennial MS</t>
+          <t>BVSD</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2205 Norwood Ave, Boulder, CO 80304</t>
+          <t>http://cem.bvsd.org/</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>BVSD</t>
+          <t>https://maps.app.goo.gl/tKhhHtoniAvTfpPH9</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
+          <t>Centennial Middle School</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>POINT (-105.2671472290834 40.04506796264024)</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>40.04506796264024</v>
+      </c>
+      <c r="L9" t="n">
+        <v>-105.2671472290834</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/tKhhHtoniAvTfpPH9</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
           <t>http://cem.bvsd.org/</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/tKhhHtoniAvTfpPH9</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>Centennial Middle School</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>POINT (-105.2671472290834 40.04506796264024)</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>40.04506796264024</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-105.2671472290834</v>
-      </c>
       <c r="O9" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/tKhhHtoniAvTfpPH9</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>http://cem.bvsd.org/</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
         <is>
           <t>POINT (-105.2671472290834 40.04506796264024)</t>
         </is>
@@ -1102,67 +1060,63 @@
       <c r="B10" t="n">
         <v>8</v>
       </c>
-      <c r="C10" t="n">
-        <v>8</v>
-      </c>
-      <c r="D10" t="n">
-        <v>8</v>
-      </c>
-      <c r="E10" t="n">
-        <v>8</v>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Eldorado K8</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>ELDORADOK8</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>3351 S Indiana St, Superior, CO 80027</t>
+        </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Eldorado K8</t>
+          <t>BVSD</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>3351 S Indiana St, Superior, CO 80027</t>
+          <t>http://el8.bvsd.org/</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>BVSD</t>
+          <t>https://maps.app.goo.gl/s2gJjfVYasWGLpMz7</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
+          <t>Eldorado K-8 School</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>POINT (-105.161197194222 39.921698179021)</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>39.921698179021</v>
+      </c>
+      <c r="L10" t="n">
+        <v>-105.161197194222</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/s2gJjfVYasWGLpMz7</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
           <t>http://el8.bvsd.org/</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/s2gJjfVYasWGLpMz7</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>Eldorado K-8 School</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>POINT (-105.161197194222 39.921698179021)</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>39.921698179021</v>
-      </c>
-      <c r="N10" t="n">
-        <v>-105.161197194222</v>
-      </c>
       <c r="O10" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/s2gJjfVYasWGLpMz7</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>http://el8.bvsd.org/</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
         <is>
           <t>POINT (-105.161197194222 39.921698179021)</t>
         </is>
@@ -1175,55 +1129,51 @@
       <c r="B11" t="n">
         <v>9</v>
       </c>
-      <c r="C11" t="n">
-        <v>9</v>
-      </c>
-      <c r="D11" t="n">
-        <v>9</v>
-      </c>
-      <c r="E11" t="n">
-        <v>9</v>
-      </c>
-      <c r="F11" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>Eldorado Sp. Fire House</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>ELDOSPGFS</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>4390 Eldorado Springs Dr, Boulder, CO 80303</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/TBWeoHAtGKUfwDy79</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Rocky Mountain Fire District Station 6</t>
+        </is>
+      </c>
       <c r="J11" t="inlineStr">
         <is>
+          <t>POINT (-105.2493101229037 39.94266172014046)</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>39.94266172014046</v>
+      </c>
+      <c r="L11" t="n">
+        <v>-105.2493101229037</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
           <t>https://maps.app.goo.gl/TBWeoHAtGKUfwDy79</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>Rocky Mountain Fire District Station 6</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>POINT (-105.2493101229037 39.94266172014046)</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>39.94266172014046</v>
-      </c>
-      <c r="N11" t="n">
-        <v>-105.2493101229037</v>
-      </c>
+      <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/TBWeoHAtGKUfwDy79</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr">
         <is>
           <t>POINT (-105.2493101229037 39.94266172014046)</t>
         </is>
@@ -1236,67 +1186,63 @@
       <c r="B12" t="n">
         <v>10</v>
       </c>
-      <c r="C12" t="n">
-        <v>10</v>
-      </c>
-      <c r="D12" t="n">
-        <v>10</v>
-      </c>
-      <c r="E12" t="n">
-        <v>10</v>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Erie MS</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>ERIEMS</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>650 Main St, Erie, CO 80516</t>
+        </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Erie MS</t>
+          <t>SVVSD</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>650 Main St, Erie, CO 80516</t>
+          <t>https://ems.svvsd.org/</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>SVVSD</t>
+          <t>https://maps.app.goo.gl/A5evm4HRnAPM1aUp8</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
+          <t>Erie Middle School</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>POINT (-105.0529688258069 40.05101707648438)</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>40.05101707648438</v>
+      </c>
+      <c r="L12" t="n">
+        <v>-105.0529688258069</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/A5evm4HRnAPM1aUp8</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
           <t>https://ems.svvsd.org/</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/A5evm4HRnAPM1aUp8</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>Erie Middle School</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>POINT (-105.0529688258069 40.05101707648438)</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>40.05101707648438</v>
-      </c>
-      <c r="N12" t="n">
-        <v>-105.0529688258069</v>
-      </c>
       <c r="O12" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/A5evm4HRnAPM1aUp8</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>https://ems.svvsd.org/</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
         <is>
           <t>POINT (-105.0529688258069 40.05101707648438)</t>
         </is>
@@ -1309,63 +1255,59 @@
       <c r="B13" t="n">
         <v>11</v>
       </c>
-      <c r="C13" t="n">
-        <v>11</v>
-      </c>
-      <c r="D13" t="n">
-        <v>11</v>
-      </c>
-      <c r="E13" t="n">
-        <v>11</v>
-      </c>
-      <c r="F13" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>Frasier Mead.</t>
         </is>
       </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>FRASMEADOW</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>350 Ponca Pl, Boulder, CO 80303</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>350 Ponca Pl, Boulder, CO 80303</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>http://www.frasiermeadows.org/</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/RCv4sKncUCjLLnzP7</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr">
         <is>
+          <t>Frasier Retirement Community</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>POINT (-105.2338815741678 39.99456396590154)</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>39.99456396590154</v>
+      </c>
+      <c r="L13" t="n">
+        <v>-105.2338815741678</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/RCv4sKncUCjLLnzP7</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
           <t>http://www.frasiermeadows.org/</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/RCv4sKncUCjLLnzP7</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>Frasier Retirement Community</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>POINT (-105.2338815741678 39.99456396590154)</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>39.99456396590154</v>
-      </c>
-      <c r="N13" t="n">
-        <v>-105.2338815741678</v>
-      </c>
       <c r="O13" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/RCv4sKncUCjLLnzP7</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>http://www.frasiermeadows.org/</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
         <is>
           <t>POINT (-105.2338815741678 39.99456396590154)</t>
         </is>
@@ -1378,67 +1320,63 @@
       <c r="B14" t="n">
         <v>12</v>
       </c>
-      <c r="C14" t="n">
-        <v>12</v>
-      </c>
-      <c r="D14" t="n">
-        <v>12</v>
-      </c>
-      <c r="E14" t="n">
-        <v>12</v>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Gold Hill School</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>GOLDHILLES</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>890 Main St, Boulder, CO 80302</t>
+        </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Gold Hill School</t>
+          <t>BVSD</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>890 Main St, Boulder, CO 80302</t>
+          <t>http://ghe.bvsd.org/</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>BVSD</t>
+          <t>https://maps.app.goo.gl/PZV28vuUvb8p7LJs6</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
+          <t>Gold Hill Elementary School</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>POINT (-105.412472825461 40.063366273762)</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>40.063366273762</v>
+      </c>
+      <c r="L14" t="n">
+        <v>-105.412472825461</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/PZV28vuUvb8p7LJs6</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
           <t>http://ghe.bvsd.org/</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/PZV28vuUvb8p7LJs6</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>Gold Hill Elementary School</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>POINT (-105.412472825461 40.063366273762)</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>40.063366273762</v>
-      </c>
-      <c r="N14" t="n">
-        <v>-105.412472825461</v>
-      </c>
       <c r="O14" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/PZV28vuUvb8p7LJs6</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>http://ghe.bvsd.org/</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
         <is>
           <t>POINT (-105.412472825461 40.063366273762)</t>
         </is>
@@ -1451,67 +1389,63 @@
       <c r="B15" t="n">
         <v>13</v>
       </c>
-      <c r="C15" t="n">
-        <v>13</v>
-      </c>
-      <c r="D15" t="n">
-        <v>13</v>
-      </c>
-      <c r="E15" t="n">
-        <v>13</v>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Indian Peaks ES</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>INDIPEAKES</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>1335 S Judson St, Longmont, CO 80501</t>
+        </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Indian Peaks ES</t>
+          <t>SVVSD</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>1335 S Judson St, Longmont, CO 80501</t>
+          <t>https://ipes.svvsd.org/</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>SVVSD</t>
+          <t>https://maps.app.goo.gl/rFzqgoYXNnAMFNG27</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
+          <t>Indian Peaks Elementary School</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>POINT (-105.118010493892 40.14327187343834)</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>40.14327187343834</v>
+      </c>
+      <c r="L15" t="n">
+        <v>-105.118010493892</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/rFzqgoYXNnAMFNG27</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
           <t>https://ipes.svvsd.org/</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/rFzqgoYXNnAMFNG27</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>Indian Peaks Elementary School</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>POINT (-105.118010493892 40.14327187343834)</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>40.14327187343834</v>
-      </c>
-      <c r="N15" t="n">
-        <v>-105.118010493892</v>
-      </c>
       <c r="O15" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/rFzqgoYXNnAMFNG27</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>https://ipes.svvsd.org/</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
         <is>
           <t>POINT (-105.118010493892 40.14327187343834)</t>
         </is>
@@ -1524,67 +1458,63 @@
       <c r="B16" t="n">
         <v>14</v>
       </c>
-      <c r="C16" t="n">
-        <v>14</v>
-      </c>
-      <c r="D16" t="n">
-        <v>14</v>
-      </c>
-      <c r="E16" t="n">
-        <v>14</v>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Jamestown School</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>JAMESTWNES</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>111 Mesa St, Jamestown, CO 80455</t>
+        </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Jamestown School</t>
+          <t>BVSD</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>111 Mesa St, Jamestown, CO 80455</t>
+          <t>http://jae.bvsd.org/</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>BVSD</t>
+          <t>https://maps.app.goo.gl/xaKW9Ljh7VtMuQPf6</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
+          <t>Jamestown Elementary School</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>POINT (-105.387802261192 40.1164318137431)</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>40.1164318137431</v>
+      </c>
+      <c r="L16" t="n">
+        <v>-105.387802261192</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/xaKW9Ljh7VtMuQPf6</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
           <t>http://jae.bvsd.org/</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/xaKW9Ljh7VtMuQPf6</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>Jamestown Elementary School</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>POINT (-105.387802261192 40.1164318137431)</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>40.1164318137431</v>
-      </c>
-      <c r="N16" t="n">
-        <v>-105.387802261192</v>
-      </c>
       <c r="O16" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/xaKW9Ljh7VtMuQPf6</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>http://jae.bvsd.org/</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
         <is>
           <t>POINT (-105.387802261192 40.1164318137431)</t>
         </is>
@@ -1597,67 +1527,63 @@
       <c r="B17" t="n">
         <v>15</v>
       </c>
-      <c r="C17" t="n">
-        <v>15</v>
-      </c>
-      <c r="D17" t="n">
-        <v>15</v>
-      </c>
-      <c r="E17" t="n">
-        <v>15</v>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Longs Peak MS</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>LONGSPEAKMS</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>1500 14th Ave, Longmont, CO 80501</t>
+        </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Longs Peak MS</t>
+          <t>SVVSD</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>1500 14th Ave, Longmont, CO 80501</t>
+          <t>http://lpms.svvsd.org/</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>SVVSD</t>
+          <t>https://maps.app.goo.gl/44xqEDG33jkv1pN28</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
+          <t>Longs Peak Middle School</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>POINT (-105.117518880356 40.18399195721774)</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>40.18399195721774</v>
+      </c>
+      <c r="L17" t="n">
+        <v>-105.117518880356</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/44xqEDG33jkv1pN28</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
           <t>http://lpms.svvsd.org/</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/44xqEDG33jkv1pN28</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>Longs Peak Middle School</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>POINT (-105.117518880356 40.18399195721774)</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>40.18399195721774</v>
-      </c>
-      <c r="N17" t="n">
-        <v>-105.117518880356</v>
-      </c>
       <c r="O17" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/44xqEDG33jkv1pN28</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>http://lpms.svvsd.org/</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
         <is>
           <t>POINT (-105.117518880356 40.18399195721774)</t>
         </is>
@@ -1670,67 +1596,63 @@
       <c r="B18" t="n">
         <v>16</v>
       </c>
-      <c r="C18" t="n">
-        <v>16</v>
-      </c>
-      <c r="D18" t="n">
-        <v>16</v>
-      </c>
-      <c r="E18" t="n">
-        <v>16</v>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Louisville MS</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>LOUISVLLEMS</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>1341 Main St, Louisville, CO 80027</t>
+        </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Louisville MS</t>
+          <t>BVSD</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>1341 Main St, Louisville, CO 80027</t>
+          <t>http://lom.bvsd.org/</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>BVSD</t>
+          <t>https://maps.app.goo.gl/VT5YaQMB64667476A</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
+          <t>Louisville Middle School</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>POINT (-105.1325745422844 39.9841246724845)</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>39.9841246724845</v>
+      </c>
+      <c r="L18" t="n">
+        <v>-105.1325745422844</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/VT5YaQMB64667476A</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
           <t>http://lom.bvsd.org/</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/VT5YaQMB64667476A</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>Louisville Middle School</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>POINT (-105.1325745422844 39.9841246724845)</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>39.9841246724845</v>
-      </c>
-      <c r="N18" t="n">
-        <v>-105.1325745422844</v>
-      </c>
       <c r="O18" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/VT5YaQMB64667476A</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>http://lom.bvsd.org/</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr">
         <is>
           <t>POINT (-105.1325745422844 39.9841246724845)</t>
         </is>
@@ -1743,67 +1665,63 @@
       <c r="B19" t="n">
         <v>17</v>
       </c>
-      <c r="C19" t="n">
-        <v>17</v>
-      </c>
-      <c r="D19" t="n">
-        <v>17</v>
-      </c>
-      <c r="E19" t="n">
-        <v>17</v>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Lyons Middle Senior</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>LYONSMS</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>100 McConnell Dr, Lyons, CO 80540</t>
+        </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Lyons Middle Senior</t>
+          <t>SVVSD</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>100 McConnell Dr, Lyons, CO 80540</t>
+          <t>https://lmshs.svvsd.org/</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>SVVSD</t>
+          <t>https://maps.app.goo.gl/ohTLL54wbPdkJNFA8</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
+          <t>Lyons Middle/Senior High School</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>POINT (-105.264461148759 40.2147599852984)</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>40.2147599852984</v>
+      </c>
+      <c r="L19" t="n">
+        <v>-105.264461148759</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/ohTLL54wbPdkJNFA8</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
           <t>https://lmshs.svvsd.org/</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/ohTLL54wbPdkJNFA8</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>Lyons Middle/Senior High School</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>POINT (-105.264461148759 40.2147599852984)</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>40.2147599852984</v>
-      </c>
-      <c r="N19" t="n">
-        <v>-105.264461148759</v>
-      </c>
       <c r="O19" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/ohTLL54wbPdkJNFA8</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>https://lmshs.svvsd.org/</t>
-        </is>
-      </c>
-      <c r="Q19" t="inlineStr">
         <is>
           <t>POINT (-105.264461148759 40.2147599852984)</t>
         </is>
@@ -1816,67 +1734,63 @@
       <c r="B20" t="n">
         <v>18</v>
       </c>
-      <c r="C20" t="n">
-        <v>18</v>
-      </c>
-      <c r="D20" t="n">
-        <v>18</v>
-      </c>
-      <c r="E20" t="n">
-        <v>18</v>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Manhattan MS</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>MANHATMS</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>290 Manhattan Dr, Boulder, CO 80303</t>
+        </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Manhattan MS</t>
+          <t>BVSD</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>290 Manhattan Dr, Boulder, CO 80303</t>
+          <t>http://mam.bvsd.org/</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>BVSD</t>
+          <t>https://maps.app.goo.gl/pkEKK86Dh3tGgHz46</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
+          <t>Manhattan Middle School of Arts and Academics</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>POINT (-105.2273572175253 39.99410342530379)</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>39.99410342530379</v>
+      </c>
+      <c r="L20" t="n">
+        <v>-105.2273572175253</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/pkEKK86Dh3tGgHz46</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
           <t>http://mam.bvsd.org/</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/pkEKK86Dh3tGgHz46</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>Manhattan Middle School of Arts and Academics</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>POINT (-105.2273572175253 39.99410342530379)</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>39.99410342530379</v>
-      </c>
-      <c r="N20" t="n">
-        <v>-105.2273572175253</v>
-      </c>
       <c r="O20" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/pkEKK86Dh3tGgHz46</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>http://mam.bvsd.org/</t>
-        </is>
-      </c>
-      <c r="Q20" t="inlineStr">
         <is>
           <t>POINT (-105.2273572175253 39.99410342530379)</t>
         </is>
@@ -1889,67 +1803,63 @@
       <c r="B21" t="n">
         <v>19</v>
       </c>
-      <c r="C21" t="n">
-        <v>19</v>
-      </c>
-      <c r="D21" t="n">
-        <v>19</v>
-      </c>
-      <c r="E21" t="n">
-        <v>19</v>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Monarch HS</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>MONARCHHS</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>329 Campus Dr, Louisville, CO 80027</t>
+        </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Monarch HS</t>
+          <t>BVSD</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>329 Campus Dr, Louisville, CO 80027</t>
+          <t>http://moh.bvsd.org/</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>BVSD</t>
+          <t>https://maps.app.goo.gl/GVkb3S8qP6y3d6Lc6</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
+          <t>Monarch High School</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>POINT (-105.141776992356 39.9520220573069)</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>39.9520220573069</v>
+      </c>
+      <c r="L21" t="n">
+        <v>-105.141776992356</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/GVkb3S8qP6y3d6Lc6</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
           <t>http://moh.bvsd.org/</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/GVkb3S8qP6y3d6Lc6</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>Monarch High School</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>POINT (-105.141776992356 39.9520220573069)</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>39.9520220573069</v>
-      </c>
-      <c r="N21" t="n">
-        <v>-105.141776992356</v>
-      </c>
       <c r="O21" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/GVkb3S8qP6y3d6Lc6</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>http://moh.bvsd.org/</t>
-        </is>
-      </c>
-      <c r="Q21" t="inlineStr">
         <is>
           <t>POINT (-105.141776992356 39.9520220573069)</t>
         </is>
@@ -1962,67 +1872,63 @@
       <c r="B22" t="n">
         <v>20</v>
       </c>
-      <c r="C22" t="n">
-        <v>20</v>
-      </c>
-      <c r="D22" t="n">
-        <v>20</v>
-      </c>
-      <c r="E22" t="n">
-        <v>20</v>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Monarch K-8</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>MONARCHK8</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>263 Campus Dr, Louisville, CO 80027</t>
+        </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
+          <t>BVSD</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>http://mo8.bvsd.org/</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/fM4A7oD6cKkm9gXJ9</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
           <t>Monarch K-8</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>263 Campus Dr, Louisville, CO 80027</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>BVSD</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>POINT (-105.1435104051174 39.95142599070905)</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>39.95142599070905</v>
+      </c>
+      <c r="L22" t="n">
+        <v>-105.1435104051174</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/fM4A7oD6cKkm9gXJ9</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
         <is>
           <t>http://mo8.bvsd.org/</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/fM4A7oD6cKkm9gXJ9</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>Monarch K-8</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>POINT (-105.1435104051174 39.95142599070905)</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>39.95142599070905</v>
-      </c>
-      <c r="N22" t="n">
-        <v>-105.1435104051174</v>
-      </c>
       <c r="O22" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/fM4A7oD6cKkm9gXJ9</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>http://mo8.bvsd.org/</t>
-        </is>
-      </c>
-      <c r="Q22" t="inlineStr">
         <is>
           <t>POINT (-105.1435104051174 39.95142599070905)</t>
         </is>
@@ -2035,67 +1941,63 @@
       <c r="B23" t="n">
         <v>21</v>
       </c>
-      <c r="C23" t="n">
-        <v>21</v>
-      </c>
-      <c r="D23" t="n">
-        <v>21</v>
-      </c>
-      <c r="E23" t="n">
-        <v>21</v>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Nederland HS</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>NEDERLNDHS</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>597 Co Hwy 130, Nederland, CO 80466</t>
+        </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Nederland HS</t>
+          <t>BVSD</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>597 Co Hwy 130, Nederland, CO 80466</t>
+          <t>https://neh.bvsd.org/</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>BVSD</t>
+          <t>https://maps.app.goo.gl/mVMWPW4o458ETfhw5</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
+          <t>Nederland Middle/Senior High School</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>POINT (-105.5233421126253 39.95383849383303)</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>39.95383849383303</v>
+      </c>
+      <c r="L23" t="n">
+        <v>-105.5233421126253</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/mVMWPW4o458ETfhw5</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
           <t>https://neh.bvsd.org/</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/mVMWPW4o458ETfhw5</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>Nederland Middle/Senior High School</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>POINT (-105.5233421126253 39.95383849383303)</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>39.95383849383303</v>
-      </c>
-      <c r="N23" t="n">
-        <v>-105.5233421126253</v>
-      </c>
       <c r="O23" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/mVMWPW4o458ETfhw5</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>https://neh.bvsd.org/</t>
-        </is>
-      </c>
-      <c r="Q23" t="inlineStr">
         <is>
           <t>POINT (-105.5233421126253 39.95383849383303)</t>
         </is>
@@ -2108,59 +2010,55 @@
       <c r="B24" t="n">
         <v>22</v>
       </c>
-      <c r="C24" t="n">
-        <v>22</v>
-      </c>
-      <c r="D24" t="n">
-        <v>22</v>
-      </c>
-      <c r="E24" t="n">
-        <v>22</v>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>New Vista</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>NEWVISTAHS</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>700 20th St, Boulder, CO 80302</t>
+        </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>New Vista</t>
+          <t>BVSD</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>700 20th St, Boulder, CO 80302</t>
+          <t>http://nvh.bvsd.org/</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>BVSD</t>
+          <t>https://maps.app.goo.gl/mVZ7Cv3jx5iSPW3u9</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>http://nvh.bvsd.org/</t>
+          <t>New Vista High School</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/mVZ7Cv3jx5iSPW3u9</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>New Vista High School</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
           <t>POINT (-105.2665043792843 40.00119784626813)</t>
         </is>
       </c>
-      <c r="M24" t="n">
+      <c r="K24" t="n">
         <v>40.0011978462681</v>
       </c>
-      <c r="N24" t="n">
+      <c r="L24" t="n">
         <v>-105.266504379284</v>
       </c>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr">
         <is>
           <t>POINT (-105.266504379284 40.0011978462681)</t>
         </is>
@@ -2173,67 +2071,63 @@
       <c r="B25" t="n">
         <v>23</v>
       </c>
-      <c r="C25" t="n">
-        <v>23</v>
-      </c>
-      <c r="D25" t="n">
-        <v>23</v>
-      </c>
-      <c r="E25" t="n">
-        <v>23</v>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Niwot HS</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>NIWOTHS</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>8989 Niwot Rd, Niwot, CO 80503</t>
+        </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Niwot HS</t>
+          <t>SVVSD</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>8989 Niwot Rd, Niwot, CO 80503</t>
+          <t>https://nhs.svvsd.org/</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>SVVSD</t>
+          <t>https://maps.app.goo.gl/VmRuiC4cCzQrbJPR7</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
+          <t>Niwot High School</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>POINT (-105.1442414652976 40.10369506217272)</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>40.10369506217272</v>
+      </c>
+      <c r="L25" t="n">
+        <v>-105.1442414652976</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/VmRuiC4cCzQrbJPR7</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
           <t>https://nhs.svvsd.org/</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/VmRuiC4cCzQrbJPR7</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>Niwot High School</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>POINT (-105.1442414652976 40.10369506217272)</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>40.10369506217272</v>
-      </c>
-      <c r="N25" t="n">
-        <v>-105.1442414652976</v>
-      </c>
       <c r="O25" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/VmRuiC4cCzQrbJPR7</t>
-        </is>
-      </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>https://nhs.svvsd.org/</t>
-        </is>
-      </c>
-      <c r="Q25" t="inlineStr">
         <is>
           <t>POINT (-105.1442414652976 40.10369506217272)</t>
         </is>
@@ -2246,67 +2140,63 @@
       <c r="B26" t="n">
         <v>24</v>
       </c>
-      <c r="C26" t="n">
-        <v>24</v>
-      </c>
-      <c r="D26" t="n">
-        <v>24</v>
-      </c>
-      <c r="E26" t="n">
-        <v>24</v>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Silver Creek HS</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>SILVRCRKHS</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>4901 Nelson Rd, Longmont, CO 80503</t>
+        </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Silver Creek HS</t>
+          <t>SVVSD</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>4901 Nelson Rd, Longmont, CO 80503</t>
+          <t>http://schs.svvsd.org/</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>SVVSD</t>
+          <t>https://maps.app.goo.gl/6j7ZvjGuNgq38Uv1A</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
+          <t>Silver Creek High School</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>POINT (-105.1665699930847 40.15137160754995)</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>40.15137160754995</v>
+      </c>
+      <c r="L26" t="n">
+        <v>-105.1665699930847</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/6j7ZvjGuNgq38Uv1A</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
           <t>http://schs.svvsd.org/</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/6j7ZvjGuNgq38Uv1A</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>Silver Creek High School</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>POINT (-105.1665699930847 40.15137160754995)</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>40.15137160754995</v>
-      </c>
-      <c r="N26" t="n">
-        <v>-105.1665699930847</v>
-      </c>
       <c r="O26" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/6j7ZvjGuNgq38Uv1A</t>
-        </is>
-      </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>http://schs.svvsd.org/</t>
-        </is>
-      </c>
-      <c r="Q26" t="inlineStr">
         <is>
           <t>POINT (-105.1665699930847 40.15137160754995)</t>
         </is>
@@ -2319,67 +2209,63 @@
       <c r="B27" t="n">
         <v>25</v>
       </c>
-      <c r="C27" t="n">
-        <v>25</v>
-      </c>
-      <c r="D27" t="n">
-        <v>25</v>
-      </c>
-      <c r="E27" t="n">
-        <v>25</v>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Southern Hills MS</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>SOUTHILLMS</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>1500 Knox Dr, Boulder, CO 80305</t>
+        </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Southern Hills MS</t>
+          <t>BVSD</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>1500 Knox Dr, Boulder, CO 80305</t>
+          <t>http://shm.bvsd.org/</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>BVSD</t>
+          <t>https://maps.app.goo.gl/J5CQaiF7gt1pezXm8</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
+          <t>Southern Hills Middle School</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>POINT (-105.2452260530946 39.97413389369987)</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>39.97413389369987</v>
+      </c>
+      <c r="L27" t="n">
+        <v>-105.2452260530946</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/J5CQaiF7gt1pezXm8</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
           <t>http://shm.bvsd.org/</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/J5CQaiF7gt1pezXm8</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>Southern Hills Middle School</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>POINT (-105.2452260530946 39.97413389369987)</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>39.97413389369987</v>
-      </c>
-      <c r="N27" t="n">
-        <v>-105.2452260530946</v>
-      </c>
       <c r="O27" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/J5CQaiF7gt1pezXm8</t>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>http://shm.bvsd.org/</t>
-        </is>
-      </c>
-      <c r="Q27" t="inlineStr">
         <is>
           <t>POINT (-105.2452260530946 39.97413389369987)</t>
         </is>
@@ -2392,67 +2278,63 @@
       <c r="B28" t="n">
         <v>26</v>
       </c>
-      <c r="C28" t="n">
-        <v>26</v>
-      </c>
-      <c r="D28" t="n">
-        <v>26</v>
-      </c>
-      <c r="E28" t="n">
-        <v>26</v>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Sunset MS</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>SUNSETMS</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>1300 S Sunset St, Longmont, CO 80501</t>
+        </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Sunset MS</t>
+          <t>SVVSD</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>1300 S Sunset St, Longmont, CO 80501</t>
+          <t>http://sms.svvsd.org/</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>SVVSD</t>
+          <t>https://maps.app.goo.gl/2iVHM51MYZg9XEZo9</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
+          <t>Sunset Middle School</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>POINT (-105.1199067185428 40.14458073069962)</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>40.14458073069962</v>
+      </c>
+      <c r="L28" t="n">
+        <v>-105.1199067185428</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/2iVHM51MYZg9XEZo9</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
           <t>http://sms.svvsd.org/</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/2iVHM51MYZg9XEZo9</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>Sunset Middle School</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>POINT (-105.1199067185428 40.14458073069962)</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>40.14458073069962</v>
-      </c>
-      <c r="N28" t="n">
-        <v>-105.1199067185428</v>
-      </c>
       <c r="O28" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/2iVHM51MYZg9XEZo9</t>
-        </is>
-      </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>http://sms.svvsd.org/</t>
-        </is>
-      </c>
-      <c r="Q28" t="inlineStr">
         <is>
           <t>POINT (-105.1199067185428 40.14458073069962)</t>
         </is>
@@ -2465,67 +2347,63 @@
       <c r="B29" t="n">
         <v>27</v>
       </c>
-      <c r="C29" t="n">
-        <v>27</v>
-      </c>
-      <c r="D29" t="n">
-        <v>27</v>
-      </c>
-      <c r="E29" t="n">
-        <v>27</v>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Timberline PK-8</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>TIMBERLINEK8</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>233 E Mountain View Ave, Longmont, CO 80504</t>
+        </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Timberline PK-8</t>
+          <t>SVVSD</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>233 E Mountain View Ave, Longmont, CO 80504</t>
+          <t>http://tpk8.svvsd.org/</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>SVVSD</t>
+          <t>https://maps.app.goo.gl/Dqyuok7JMiowX96x5</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
+          <t>Timberline PK-8 SVVSD</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>POINT (-105.0857347392096 40.18091133152473)</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>40.18091133152473</v>
+      </c>
+      <c r="L29" t="n">
+        <v>-105.0857347392096</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/Dqyuok7JMiowX96x5</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
           <t>http://tpk8.svvsd.org/</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/Dqyuok7JMiowX96x5</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>Timberline PK-8 SVVSD</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>POINT (-105.0857347392096 40.18091133152473)</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>40.18091133152473</v>
-      </c>
-      <c r="N29" t="n">
-        <v>-105.0857347392096</v>
-      </c>
       <c r="O29" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/Dqyuok7JMiowX96x5</t>
-        </is>
-      </c>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t>http://tpk8.svvsd.org/</t>
-        </is>
-      </c>
-      <c r="Q29" t="inlineStr">
         <is>
           <t>POINT (-105.0857347392096 40.18091133152473)</t>
         </is>
@@ -2538,67 +2416,63 @@
       <c r="B30" t="n">
         <v>28</v>
       </c>
-      <c r="C30" t="n">
-        <v>28</v>
-      </c>
-      <c r="D30" t="n">
-        <v>28</v>
-      </c>
-      <c r="E30" t="n">
-        <v>28</v>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Trail Ridge MS</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>TRAILRIDGEMS</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>1000 Button Rock Dr, Longmont, CO 80504</t>
+        </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Trail Ridge MS</t>
+          <t>SVVSD</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>1000 Button Rock Dr, Longmont, CO 80504</t>
+          <t>https://trms.svvsd.org/</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>SVVSD</t>
+          <t>https://maps.app.goo.gl/jwrYoLXX3rzhtEFy7</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
+          <t>Trail Ridge Middle School</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>POINT (-105.0576162268638 40.17693117783666)</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>40.17693117783666</v>
+      </c>
+      <c r="L30" t="n">
+        <v>-105.0576162268638</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/jwrYoLXX3rzhtEFy7</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
           <t>https://trms.svvsd.org/</t>
         </is>
       </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/jwrYoLXX3rzhtEFy7</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>Trail Ridge Middle School</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>POINT (-105.0576162268638 40.17693117783666)</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>40.17693117783666</v>
-      </c>
-      <c r="N30" t="n">
-        <v>-105.0576162268638</v>
-      </c>
       <c r="O30" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/jwrYoLXX3rzhtEFy7</t>
-        </is>
-      </c>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t>https://trms.svvsd.org/</t>
-        </is>
-      </c>
-      <c r="Q30" t="inlineStr">
         <is>
           <t>POINT (-105.0576162268638 40.17693117783666)</t>
         </is>
@@ -2611,45 +2485,155 @@
       <c r="B31" t="n">
         <v>29</v>
       </c>
-      <c r="C31" t="n">
-        <v>29</v>
-      </c>
-      <c r="D31" t="n">
-        <v>29</v>
-      </c>
-      <c r="E31" t="n">
-        <v>29</v>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Ward Private Home</t>
-        </is>
-      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Ward Community Center</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>WARD</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>1 Columbia St, Ward, CO 80481</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>Ward private home</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
+      <c r="I31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
         <is>
           <t>POINT (-105.506518983446 40.0733984409928)</t>
         </is>
       </c>
-      <c r="M31" t="n">
+      <c r="K31" t="n">
         <v>40.0733984409928</v>
       </c>
-      <c r="N31" t="n">
+      <c r="L31" t="n">
         <v>-105.506518983446</v>
       </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr">
         <is>
           <t>POINT (-105.506518983446 40.0733984409928)</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Horizons K8</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>HORIZONK8</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>4545 Sioux Dr, Boulder, CO 80303</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>charter school</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>http://www.horizonsk8school.org/</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/XHvYLyzK95buV9zK9</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Horizons K-8 School</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>39.9936610442773</v>
+      </c>
+      <c r="L32" t="n">
+        <v>-105.237949287953</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>POINT (-105.237949287953 39.9936610442773)</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Platt MS</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>PLATTMS</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>6096 Baseline Rd, Boulder, CO 80303</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>BVSD</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>http://npm.bvsd.org/</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/SRxrXgCL5287jJjE8</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Nevin Platt Middle School</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>40.0030354657493</v>
+      </c>
+      <c r="L33" t="n">
+        <v>-105.209456648465</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>POINT (-105.209456648465 40.0030354657493)</t>
         </is>
       </c>
     </row>

--- a/data/venues_all_years_fixed.xlsx
+++ b/data/venues_all_years_fixed.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,55 +436,70 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.2</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>venue_id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>venue</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>venue_code</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>address</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>org</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>website</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>gmap_link</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>gmap_name</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>lat</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>lon</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>geometry</t>
         </is>
@@ -497,44 +512,53 @@
       <c r="B2" t="n">
         <v>0</v>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="inlineStr">
         <is>
           <t>Allenspark Fire Station</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>ALLP_FS</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>14861 CO-7, Allenspark, CO 80510</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
         <is>
           <t>http://www.allensparkfire.com/</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/HYN1GYNb9yE4w4RL7</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>Allenspark Fire Protection</t>
         </is>
       </c>
-      <c r="J2" t="n">
+      <c r="M2" t="n">
         <v>40.19712777610975</v>
       </c>
-      <c r="K2" t="n">
+      <c r="N2" t="n">
         <v>-105.5279141785934</v>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>POINT (-105.5279141785934 40.19712777610975)</t>
         </is>
@@ -547,48 +571,57 @@
       <c r="B3" t="n">
         <v>1</v>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="inlineStr">
         <is>
           <t>Altona MS</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>ALTO_MS</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>4600 Clover Basin Dr, Longmont, CO 80503</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>SVVSD</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>https://ams.svvsd.org/</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/ew5ypnry93DZwFNj8</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>Altona Middle School</t>
         </is>
       </c>
-      <c r="J3" t="n">
+      <c r="M3" t="n">
         <v>40.14448266991539</v>
       </c>
-      <c r="K3" t="n">
+      <c r="N3" t="n">
         <v>-105.1626179175455</v>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>POINT (-105.1626179175455 40.14448266991539)</t>
         </is>
@@ -601,48 +634,57 @@
       <c r="B4" t="n">
         <v>2</v>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" t="inlineStr">
         <is>
           <t>Angevine MS</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>ANGV_MS</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>1150 W South Boulder Rd, Lafayette, CO 80026</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>BVSD</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>http://anm.bvsd.org/</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/QtidHUByDwtU8Z599</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>Angevine Middle School</t>
         </is>
       </c>
-      <c r="J4" t="n">
+      <c r="M4" t="n">
         <v>39.98955883968855</v>
       </c>
-      <c r="K4" t="n">
+      <c r="N4" t="n">
         <v>-105.1033574278846</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>POINT (-105.1033574278846 39.98955883968855)</t>
         </is>
@@ -655,48 +697,57 @@
       <c r="B5" t="n">
         <v>3</v>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3</v>
+      </c>
+      <c r="F5" t="inlineStr">
         <is>
           <t>Boulder HS</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>BLDR_HS</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>1604 Arapahoe Ave, Boulder, CO 80302</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>BVSD</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>http://boh.bvsd.org/</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/dKMDjeKUL4kjNDMp6</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>Boulder High School</t>
         </is>
       </c>
-      <c r="J5" t="n">
+      <c r="M5" t="n">
         <v>40.01411590640171</v>
       </c>
-      <c r="K5" t="n">
+      <c r="N5" t="n">
         <v>-105.2728711769165</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>POINT (-105.2728711769165 40.01411590640171)</t>
         </is>
@@ -709,48 +760,57 @@
       <c r="B6" t="n">
         <v>4</v>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F6" t="inlineStr">
         <is>
           <t>Burlington Elementary</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>BURL_ES</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>1051 S Pratt Pkwy, Longmont, CO 80501</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>SVVSD</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>http://bes.svvsd.org/</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/QefhqxMskS5oyZY87</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>Burlington Elementary School</t>
         </is>
       </c>
-      <c r="J6" t="n">
+      <c r="M6" t="n">
         <v>40.1466539913149</v>
       </c>
-      <c r="K6" t="n">
+      <c r="N6" t="n">
         <v>-105.108633248163</v>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>POINT (-105.108633248163 40.1466539913149)</t>
         </is>
@@ -763,48 +823,57 @@
       <c r="B7" t="n">
         <v>5</v>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E7" t="n">
+        <v>5</v>
+      </c>
+      <c r="F7" t="inlineStr">
         <is>
           <t>Casey MS</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>CASE_MS</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>1301 High St, Boulder, CO 80304</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>BVSD</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>http://cam.bvsd.org/</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/kqj3JEma8TPCRKWU9</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>Casey Middle School</t>
         </is>
       </c>
-      <c r="J7" t="n">
+      <c r="M7" t="n">
         <v>40.0228711759357</v>
       </c>
-      <c r="K7" t="n">
+      <c r="N7" t="n">
         <v>-105.2791579470394</v>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>POINT (-105.2791579470394 40.0228711759357)</t>
         </is>
@@ -817,48 +886,57 @@
       <c r="B8" t="n">
         <v>6</v>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="n">
+        <v>6</v>
+      </c>
+      <c r="E8" t="n">
+        <v>6</v>
+      </c>
+      <c r="F8" t="inlineStr">
         <is>
           <t>Centaurus HS</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>CTAU_HS</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>10300 W South Boulder Rd, Lafayette, CO 80026</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>BVSD</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>http://ceh.bvsd.org/</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/qmDEC4W3XTN7acfs9</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>Centaurus High School</t>
         </is>
       </c>
-      <c r="J8" t="n">
+      <c r="M8" t="n">
         <v>39.98635981263706</v>
       </c>
-      <c r="K8" t="n">
+      <c r="N8" t="n">
         <v>-105.1125276640655</v>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>POINT (-105.1125276640655 39.98635981263706)</t>
         </is>
@@ -871,48 +949,57 @@
       <c r="B9" t="n">
         <v>7</v>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="n">
+        <v>7</v>
+      </c>
+      <c r="E9" t="n">
+        <v>7</v>
+      </c>
+      <c r="F9" t="inlineStr">
         <is>
           <t>Centennial MS</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>CNTL_MS</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>2205 Norwood Ave, Boulder, CO 80304</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>BVSD</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>http://cem.bvsd.org/</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/tKhhHtoniAvTfpPH9</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>Centennial Middle School</t>
         </is>
       </c>
-      <c r="J9" t="n">
+      <c r="M9" t="n">
         <v>40.04506796264024</v>
       </c>
-      <c r="K9" t="n">
+      <c r="N9" t="n">
         <v>-105.2671472290834</v>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>POINT (-105.2671472290834 40.04506796264024)</t>
         </is>
@@ -925,48 +1012,57 @@
       <c r="B10" t="n">
         <v>8</v>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="n">
+        <v>8</v>
+      </c>
+      <c r="E10" t="n">
+        <v>8</v>
+      </c>
+      <c r="F10" t="inlineStr">
         <is>
           <t>Eldorado K8</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>ELDO_K8</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>3351 S Indiana St, Superior, CO 80027</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>BVSD</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>http://el8.bvsd.org/</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/s2gJjfVYasWGLpMz7</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>Eldorado K-8 School</t>
         </is>
       </c>
-      <c r="J10" t="n">
+      <c r="M10" t="n">
         <v>39.921698179021</v>
       </c>
-      <c r="K10" t="n">
+      <c r="N10" t="n">
         <v>-105.161197194222</v>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>POINT (-105.161197194222 39.921698179021)</t>
         </is>
@@ -979,40 +1075,49 @@
       <c r="B11" t="n">
         <v>9</v>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="n">
+        <v>9</v>
+      </c>
+      <c r="E11" t="n">
+        <v>9</v>
+      </c>
+      <c r="F11" t="inlineStr">
         <is>
           <t>Eldorado Sp. Fire House</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>ELSP_FS</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>4390 Eldorado Springs Dr, Boulder, CO 80303</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/TBWeoHAtGKUfwDy79</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>Rocky Mountain Fire District Station 6</t>
         </is>
       </c>
-      <c r="J11" t="n">
+      <c r="M11" t="n">
         <v>39.94266172014046</v>
       </c>
-      <c r="K11" t="n">
+      <c r="N11" t="n">
         <v>-105.2493101229037</v>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>POINT (-105.2493101229037 39.94266172014046)</t>
         </is>
@@ -1025,48 +1130,57 @@
       <c r="B12" t="n">
         <v>10</v>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="n">
+        <v>10</v>
+      </c>
+      <c r="E12" t="n">
+        <v>10</v>
+      </c>
+      <c r="F12" t="inlineStr">
         <is>
           <t>Erie MS</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>ERIE_MS</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>650 Main St, Erie, CO 80516</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>SVVSD</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>https://ems.svvsd.org/</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/A5evm4HRnAPM1aUp8</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>Erie Middle School</t>
         </is>
       </c>
-      <c r="J12" t="n">
+      <c r="M12" t="n">
         <v>40.05101707648438</v>
       </c>
-      <c r="K12" t="n">
+      <c r="N12" t="n">
         <v>-105.0529688258069</v>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>POINT (-105.0529688258069 40.05101707648438)</t>
         </is>
@@ -1079,44 +1193,53 @@
       <c r="B13" t="n">
         <v>11</v>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="n">
+        <v>11</v>
+      </c>
+      <c r="E13" t="n">
+        <v>11</v>
+      </c>
+      <c r="F13" t="inlineStr">
         <is>
           <t>Frasier Mead.</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>FRAMDW</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>350 Ponca Pl, Boulder, CO 80303</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
         <is>
           <t>http://www.frasiermeadows.org/</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/RCv4sKncUCjLLnzP7</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>Frasier Retirement Community</t>
         </is>
       </c>
-      <c r="J13" t="n">
+      <c r="M13" t="n">
         <v>39.99456396590154</v>
       </c>
-      <c r="K13" t="n">
+      <c r="N13" t="n">
         <v>-105.2338815741678</v>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>POINT (-105.2338815741678 39.99456396590154)</t>
         </is>
@@ -1129,48 +1252,57 @@
       <c r="B14" t="n">
         <v>12</v>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="n">
+        <v>12</v>
+      </c>
+      <c r="E14" t="n">
+        <v>12</v>
+      </c>
+      <c r="F14" t="inlineStr">
         <is>
           <t>Gold Hill School</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>GOLD_ES</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>890 Main St, Boulder, CO 80302</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>BVSD</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>http://ghe.bvsd.org/</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/PZV28vuUvb8p7LJs6</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>Gold Hill Elementary School</t>
         </is>
       </c>
-      <c r="J14" t="n">
+      <c r="M14" t="n">
         <v>40.063366273762</v>
       </c>
-      <c r="K14" t="n">
+      <c r="N14" t="n">
         <v>-105.412472825461</v>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>POINT (-105.412472825461 40.063366273762)</t>
         </is>
@@ -1183,48 +1315,57 @@
       <c r="B15" t="n">
         <v>13</v>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="n">
+        <v>13</v>
+      </c>
+      <c r="E15" t="n">
+        <v>13</v>
+      </c>
+      <c r="F15" t="inlineStr">
         <is>
           <t>Indian Peaks ES</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>INPK_ES</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>1335 S Judson St, Longmont, CO 80501</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>SVVSD</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>https://ipes.svvsd.org/</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/rFzqgoYXNnAMFNG27</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>Indian Peaks Elementary School</t>
         </is>
       </c>
-      <c r="J15" t="n">
+      <c r="M15" t="n">
         <v>40.14327187343834</v>
       </c>
-      <c r="K15" t="n">
+      <c r="N15" t="n">
         <v>-105.118010493892</v>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>POINT (-105.118010493892 40.14327187343834)</t>
         </is>
@@ -1237,48 +1378,57 @@
       <c r="B16" t="n">
         <v>14</v>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="n">
+        <v>14</v>
+      </c>
+      <c r="E16" t="n">
+        <v>14</v>
+      </c>
+      <c r="F16" t="inlineStr">
         <is>
           <t>Jamestown School</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>JAME_ES</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>111 Mesa St, Jamestown, CO 80455</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>BVSD</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>http://jae.bvsd.org/</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/xaKW9Ljh7VtMuQPf6</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>Jamestown Elementary School</t>
         </is>
       </c>
-      <c r="J16" t="n">
+      <c r="M16" t="n">
         <v>40.1164318137431</v>
       </c>
-      <c r="K16" t="n">
+      <c r="N16" t="n">
         <v>-105.387802261192</v>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="O16" t="inlineStr">
         <is>
           <t>POINT (-105.387802261192 40.1164318137431)</t>
         </is>
@@ -1291,48 +1441,57 @@
       <c r="B17" t="n">
         <v>15</v>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="n">
+        <v>15</v>
+      </c>
+      <c r="E17" t="n">
+        <v>15</v>
+      </c>
+      <c r="F17" t="inlineStr">
         <is>
           <t>Longs Peak MS</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>LNGP_MS</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>1500 14th Ave, Longmont, CO 80501</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>SVVSD</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>http://lpms.svvsd.org/</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/44xqEDG33jkv1pN28</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="L17" t="inlineStr">
         <is>
           <t>Longs Peak Middle School</t>
         </is>
       </c>
-      <c r="J17" t="n">
+      <c r="M17" t="n">
         <v>40.18399195721774</v>
       </c>
-      <c r="K17" t="n">
+      <c r="N17" t="n">
         <v>-105.117518880356</v>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="O17" t="inlineStr">
         <is>
           <t>POINT (-105.117518880356 40.18399195721774)</t>
         </is>
@@ -1345,48 +1504,57 @@
       <c r="B18" t="n">
         <v>16</v>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="n">
+        <v>16</v>
+      </c>
+      <c r="E18" t="n">
+        <v>16</v>
+      </c>
+      <c r="F18" t="inlineStr">
         <is>
           <t>Louisville MS</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>LSVL_MS</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>1341 Main St, Louisville, CO 80027</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>BVSD</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>http://lom.bvsd.org/</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/VT5YaQMB64667476A</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="L18" t="inlineStr">
         <is>
           <t>Louisville Middle School</t>
         </is>
       </c>
-      <c r="J18" t="n">
+      <c r="M18" t="n">
         <v>39.9841246724845</v>
       </c>
-      <c r="K18" t="n">
+      <c r="N18" t="n">
         <v>-105.1325745422844</v>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="O18" t="inlineStr">
         <is>
           <t>POINT (-105.1325745422844 39.9841246724845)</t>
         </is>
@@ -1399,48 +1567,57 @@
       <c r="B19" t="n">
         <v>17</v>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="n">
+        <v>17</v>
+      </c>
+      <c r="E19" t="n">
+        <v>17</v>
+      </c>
+      <c r="F19" t="inlineStr">
         <is>
           <t>Lyons Middle Senior</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>LYON_MS</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>100 McConnell Dr, Lyons, CO 80540</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>SVVSD</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>https://lmshs.svvsd.org/</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/ohTLL54wbPdkJNFA8</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="L19" t="inlineStr">
         <is>
           <t>Lyons Middle/Senior High School</t>
         </is>
       </c>
-      <c r="J19" t="n">
+      <c r="M19" t="n">
         <v>40.2147599852984</v>
       </c>
-      <c r="K19" t="n">
+      <c r="N19" t="n">
         <v>-105.264461148759</v>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="O19" t="inlineStr">
         <is>
           <t>POINT (-105.264461148759 40.2147599852984)</t>
         </is>
@@ -1453,48 +1630,57 @@
       <c r="B20" t="n">
         <v>18</v>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="n">
+        <v>18</v>
+      </c>
+      <c r="E20" t="n">
+        <v>18</v>
+      </c>
+      <c r="F20" t="inlineStr">
         <is>
           <t>Manhattan MS</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>MANH_MS</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>290 Manhattan Dr, Boulder, CO 80303</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>BVSD</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>http://mam.bvsd.org/</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/pkEKK86Dh3tGgHz46</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="L20" t="inlineStr">
         <is>
           <t>Manhattan Middle School of Arts and Academics</t>
         </is>
       </c>
-      <c r="J20" t="n">
+      <c r="M20" t="n">
         <v>39.99410342530379</v>
       </c>
-      <c r="K20" t="n">
+      <c r="N20" t="n">
         <v>-105.2273572175253</v>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="O20" t="inlineStr">
         <is>
           <t>POINT (-105.2273572175253 39.99410342530379)</t>
         </is>
@@ -1507,48 +1693,57 @@
       <c r="B21" t="n">
         <v>19</v>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="n">
+        <v>19</v>
+      </c>
+      <c r="E21" t="n">
+        <v>19</v>
+      </c>
+      <c r="F21" t="inlineStr">
         <is>
           <t>Monarch HS</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>MONA_HS</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>329 Campus Dr, Louisville, CO 80027</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>BVSD</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>http://moh.bvsd.org/</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/GVkb3S8qP6y3d6Lc6</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="L21" t="inlineStr">
         <is>
           <t>Monarch High School</t>
         </is>
       </c>
-      <c r="J21" t="n">
+      <c r="M21" t="n">
         <v>39.9520220573069</v>
       </c>
-      <c r="K21" t="n">
+      <c r="N21" t="n">
         <v>-105.141776992356</v>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="O21" t="inlineStr">
         <is>
           <t>POINT (-105.141776992356 39.9520220573069)</t>
         </is>
@@ -1561,48 +1756,57 @@
       <c r="B22" t="n">
         <v>20</v>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="n">
+        <v>20</v>
+      </c>
+      <c r="E22" t="n">
+        <v>20</v>
+      </c>
+      <c r="F22" t="inlineStr">
         <is>
           <t>Monarch K-8</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>MONA_K8</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>263 Campus Dr, Louisville, CO 80027</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>BVSD</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>http://mo8.bvsd.org/</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/fM4A7oD6cKkm9gXJ9</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="L22" t="inlineStr">
         <is>
           <t>Monarch K-8</t>
         </is>
       </c>
-      <c r="J22" t="n">
+      <c r="M22" t="n">
         <v>39.95142599070905</v>
       </c>
-      <c r="K22" t="n">
+      <c r="N22" t="n">
         <v>-105.1435104051174</v>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="O22" t="inlineStr">
         <is>
           <t>POINT (-105.1435104051174 39.95142599070905)</t>
         </is>
@@ -1615,48 +1819,57 @@
       <c r="B23" t="n">
         <v>21</v>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="n">
+        <v>21</v>
+      </c>
+      <c r="E23" t="n">
+        <v>21</v>
+      </c>
+      <c r="F23" t="inlineStr">
         <is>
           <t>Nederland HS</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>NEDE_HS</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>597 Co Hwy 130, Nederland, CO 80466</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>BVSD</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>https://neh.bvsd.org/</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/mVMWPW4o458ETfhw5</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="L23" t="inlineStr">
         <is>
           <t>Nederland Middle/Senior High School</t>
         </is>
       </c>
-      <c r="J23" t="n">
+      <c r="M23" t="n">
         <v>39.95383849383303</v>
       </c>
-      <c r="K23" t="n">
+      <c r="N23" t="n">
         <v>-105.5233421126253</v>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="O23" t="inlineStr">
         <is>
           <t>POINT (-105.5233421126253 39.95383849383303)</t>
         </is>
@@ -1669,48 +1882,57 @@
       <c r="B24" t="n">
         <v>22</v>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="n">
+        <v>22</v>
+      </c>
+      <c r="E24" t="n">
+        <v>22</v>
+      </c>
+      <c r="F24" t="inlineStr">
         <is>
           <t>New Vista</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>NVIST_HS</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>700 20th St, Boulder, CO 80302</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>BVSD</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>http://nvh.bvsd.org/</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/mVZ7Cv3jx5iSPW3u9</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="L24" t="inlineStr">
         <is>
           <t>New Vista High School</t>
         </is>
       </c>
-      <c r="J24" t="n">
+      <c r="M24" t="n">
         <v>40.0011978462681</v>
       </c>
-      <c r="K24" t="n">
+      <c r="N24" t="n">
         <v>-105.266504379284</v>
       </c>
-      <c r="L24" t="inlineStr">
+      <c r="O24" t="inlineStr">
         <is>
           <t>POINT (-105.266504379284 40.0011978462681)</t>
         </is>
@@ -1723,48 +1945,57 @@
       <c r="B25" t="n">
         <v>23</v>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="n">
+        <v>23</v>
+      </c>
+      <c r="E25" t="n">
+        <v>23</v>
+      </c>
+      <c r="F25" t="inlineStr">
         <is>
           <t>Niwot HS</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>NIWO_HS</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>8989 Niwot Rd, Niwot, CO 80503</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>SVVSD</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>https://nhs.svvsd.org/</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/VmRuiC4cCzQrbJPR7</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
+      <c r="L25" t="inlineStr">
         <is>
           <t>Niwot High School</t>
         </is>
       </c>
-      <c r="J25" t="n">
+      <c r="M25" t="n">
         <v>40.10369506217272</v>
       </c>
-      <c r="K25" t="n">
+      <c r="N25" t="n">
         <v>-105.1442414652976</v>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="O25" t="inlineStr">
         <is>
           <t>POINT (-105.1442414652976 40.10369506217272)</t>
         </is>
@@ -1777,48 +2008,57 @@
       <c r="B26" t="n">
         <v>24</v>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="n">
+        <v>24</v>
+      </c>
+      <c r="E26" t="n">
+        <v>24</v>
+      </c>
+      <c r="F26" t="inlineStr">
         <is>
           <t>Silver Creek HS</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>SILV_HS</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>4901 Nelson Rd, Longmont, CO 80503</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>SVVSD</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>http://schs.svvsd.org/</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/6j7ZvjGuNgq38Uv1A</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
+      <c r="L26" t="inlineStr">
         <is>
           <t>Silver Creek High School</t>
         </is>
       </c>
-      <c r="J26" t="n">
+      <c r="M26" t="n">
         <v>40.15137160754995</v>
       </c>
-      <c r="K26" t="n">
+      <c r="N26" t="n">
         <v>-105.1665699930847</v>
       </c>
-      <c r="L26" t="inlineStr">
+      <c r="O26" t="inlineStr">
         <is>
           <t>POINT (-105.1665699930847 40.15137160754995)</t>
         </is>
@@ -1831,48 +2071,57 @@
       <c r="B27" t="n">
         <v>25</v>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="n">
+        <v>25</v>
+      </c>
+      <c r="E27" t="n">
+        <v>25</v>
+      </c>
+      <c r="F27" t="inlineStr">
         <is>
           <t>Southern Hills MS</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>SHIL_MS</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>1500 Knox Dr, Boulder, CO 80305</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>BVSD</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>http://shm.bvsd.org/</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/J5CQaiF7gt1pezXm8</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
+      <c r="L27" t="inlineStr">
         <is>
           <t>Southern Hills Middle School</t>
         </is>
       </c>
-      <c r="J27" t="n">
+      <c r="M27" t="n">
         <v>39.97413389369987</v>
       </c>
-      <c r="K27" t="n">
+      <c r="N27" t="n">
         <v>-105.2452260530946</v>
       </c>
-      <c r="L27" t="inlineStr">
+      <c r="O27" t="inlineStr">
         <is>
           <t>POINT (-105.2452260530946 39.97413389369987)</t>
         </is>
@@ -1885,48 +2134,57 @@
       <c r="B28" t="n">
         <v>26</v>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="n">
+        <v>26</v>
+      </c>
+      <c r="E28" t="n">
+        <v>26</v>
+      </c>
+      <c r="F28" t="inlineStr">
         <is>
           <t>Sunset MS</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>SUNS_MS</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>1300 S Sunset St, Longmont, CO 80501</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>SVVSD</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>http://sms.svvsd.org/</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/2iVHM51MYZg9XEZo9</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
+      <c r="L28" t="inlineStr">
         <is>
           <t>Sunset Middle School</t>
         </is>
       </c>
-      <c r="J28" t="n">
+      <c r="M28" t="n">
         <v>40.14458073069962</v>
       </c>
-      <c r="K28" t="n">
+      <c r="N28" t="n">
         <v>-105.1199067185428</v>
       </c>
-      <c r="L28" t="inlineStr">
+      <c r="O28" t="inlineStr">
         <is>
           <t>POINT (-105.1199067185428 40.14458073069962)</t>
         </is>
@@ -1939,48 +2197,57 @@
       <c r="B29" t="n">
         <v>27</v>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="n">
+        <v>27</v>
+      </c>
+      <c r="E29" t="n">
+        <v>27</v>
+      </c>
+      <c r="F29" t="inlineStr">
         <is>
           <t>Timberline PK-8</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>TIMB_K8</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>233 E Mountain View Ave, Longmont, CO 80504</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>SVVSD</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>http://tpk8.svvsd.org/</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/Dqyuok7JMiowX96x5</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
+      <c r="L29" t="inlineStr">
         <is>
           <t>Timberline PK-8 SVVSD</t>
         </is>
       </c>
-      <c r="J29" t="n">
+      <c r="M29" t="n">
         <v>40.18091133152473</v>
       </c>
-      <c r="K29" t="n">
+      <c r="N29" t="n">
         <v>-105.0857347392096</v>
       </c>
-      <c r="L29" t="inlineStr">
+      <c r="O29" t="inlineStr">
         <is>
           <t>POINT (-105.0857347392096 40.18091133152473)</t>
         </is>
@@ -1993,48 +2260,57 @@
       <c r="B30" t="n">
         <v>28</v>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="n">
+        <v>28</v>
+      </c>
+      <c r="E30" t="n">
+        <v>28</v>
+      </c>
+      <c r="F30" t="inlineStr">
         <is>
           <t>Trail Ridge MS</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>TRID_MS</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>1000 Button Rock Dr, Longmont, CO 80504</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>SVVSD</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>https://trms.svvsd.org/</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/jwrYoLXX3rzhtEFy7</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
+      <c r="L30" t="inlineStr">
         <is>
           <t>Trail Ridge Middle School</t>
         </is>
       </c>
-      <c r="J30" t="n">
+      <c r="M30" t="n">
         <v>40.17693117783666</v>
       </c>
-      <c r="K30" t="n">
+      <c r="N30" t="n">
         <v>-105.0576162268638</v>
       </c>
-      <c r="L30" t="inlineStr">
+      <c r="O30" t="inlineStr">
         <is>
           <t>POINT (-105.0576162268638 40.17693117783666)</t>
         </is>
@@ -2047,36 +2323,45 @@
       <c r="B31" t="n">
         <v>29</v>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="n">
+        <v>29</v>
+      </c>
+      <c r="E31" t="n">
+        <v>29</v>
+      </c>
+      <c r="F31" t="inlineStr">
         <is>
           <t>Ward Community Center</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>WARD</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>1 Columbia St, Ward, CO 80481</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr">
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="J31" t="n">
+      <c r="M31" t="n">
         <v>40.0733984409928</v>
       </c>
-      <c r="K31" t="n">
+      <c r="N31" t="n">
         <v>-105.506518983446</v>
       </c>
-      <c r="L31" t="inlineStr">
+      <c r="O31" t="inlineStr">
         <is>
           <t>POINT (-105.506518983446 40.0733984409928)</t>
         </is>
@@ -2089,48 +2374,57 @@
       <c r="B32" t="n">
         <v>30</v>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="n">
+        <v>30</v>
+      </c>
+      <c r="E32" t="n">
+        <v>30</v>
+      </c>
+      <c r="F32" t="inlineStr">
         <is>
           <t>Horizons K8</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>HORI_K8</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>4545 Sioux Dr, Boulder, CO 80303</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>charter school</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>http://www.horizonsk8school.org/</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
+      <c r="K32" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/XHvYLyzK95buV9zK9</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr">
+      <c r="L32" t="inlineStr">
         <is>
           <t>Horizons K-8 School</t>
         </is>
       </c>
-      <c r="J32" t="n">
+      <c r="M32" t="n">
         <v>39.9936610442773</v>
       </c>
-      <c r="K32" t="n">
+      <c r="N32" t="n">
         <v>-105.237949287953</v>
       </c>
-      <c r="L32" t="inlineStr">
+      <c r="O32" t="inlineStr">
         <is>
           <t>POINT (-105.237949287953 39.9936610442773)</t>
         </is>
@@ -2143,48 +2437,57 @@
       <c r="B33" t="n">
         <v>31</v>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="n">
+        <v>31</v>
+      </c>
+      <c r="E33" t="n">
+        <v>31</v>
+      </c>
+      <c r="F33" t="inlineStr">
         <is>
           <t>Platt MS</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>PLAT_MS</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>6096 Baseline Rd, Boulder, CO 80303</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>BVSD</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="J33" t="inlineStr">
         <is>
           <t>http://npm.bvsd.org/</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="K33" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/SRxrXgCL5287jJjE8</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr">
+      <c r="L33" t="inlineStr">
         <is>
           <t>Nevin Platt Middle School</t>
         </is>
       </c>
-      <c r="J33" t="n">
+      <c r="M33" t="n">
         <v>40.0030354657493</v>
       </c>
-      <c r="K33" t="n">
+      <c r="N33" t="n">
         <v>-105.209456648465</v>
       </c>
-      <c r="L33" t="inlineStr">
+      <c r="O33" t="inlineStr">
         <is>
           <t>POINT (-105.209456648465 40.0030354657493)</t>
         </is>

--- a/data/venues_all_years_fixed.xlsx
+++ b/data/venues_all_years_fixed.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O33"/>
+  <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,70 +436,60 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 0.2</t>
+          <t>Unnamed: 0</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 0.1</t>
+          <t>venue_id</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 0</t>
+          <t>venue</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>venue_id</t>
+          <t>venue_code</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>venue</t>
+          <t>address</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>venue_code</t>
+          <t>org</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>address</t>
+          <t>website</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>org</t>
+          <t>gmap_link</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>website</t>
+          <t>gmap_name</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>gmap_link</t>
+          <t>lat</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>gmap_name</t>
+          <t>lon</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>lat</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>lon</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>geometry</t>
         </is>
@@ -515,50 +505,44 @@
       <c r="C2" t="n">
         <v>0</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Allenspark Fire Station</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>ALLP_FS</t>
+        </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Allenspark Fire Station</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>ALLP_FS</t>
-        </is>
-      </c>
+          <t>14861 CO-7, Allenspark, CO 80510</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>14861 CO-7, Allenspark, CO 80510</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>http://www.allensparkfire.com/</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/HYN1GYNb9yE4w4RL7</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>http://www.allensparkfire.com/</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/HYN1GYNb9yE4w4RL7</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
           <t>Allenspark Fire Protection</t>
         </is>
       </c>
-      <c r="M2" t="n">
+      <c r="K2" t="n">
         <v>40.19712777610975</v>
       </c>
-      <c r="N2" t="n">
+      <c r="L2" t="n">
         <v>-105.5279141785934</v>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>POINT (-105.5279141785934 40.19712777610975)</t>
         </is>
@@ -574,54 +558,48 @@
       <c r="C3" t="n">
         <v>1</v>
       </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1</v>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Altona MS</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>ALTO_MS</t>
+        </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Altona MS</t>
+          <t>4600 Clover Basin Dr, Longmont, CO 80503</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>ALTO_MS</t>
+          <t>SVVSD</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>4600 Clover Basin Dr, Longmont, CO 80503</t>
+          <t>https://ams.svvsd.org/</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>SVVSD</t>
+          <t>https://maps.app.goo.gl/ew5ypnry93DZwFNj8</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>https://ams.svvsd.org/</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/ew5ypnry93DZwFNj8</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
           <t>Altona Middle School</t>
         </is>
       </c>
-      <c r="M3" t="n">
+      <c r="K3" t="n">
         <v>40.14448266991539</v>
       </c>
-      <c r="N3" t="n">
+      <c r="L3" t="n">
         <v>-105.1626179175455</v>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>POINT (-105.1626179175455 40.14448266991539)</t>
         </is>
@@ -637,54 +615,48 @@
       <c r="C4" t="n">
         <v>2</v>
       </c>
-      <c r="D4" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" t="n">
-        <v>2</v>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Angevine MS</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>ANGV_MS</t>
+        </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Angevine MS</t>
+          <t>1150 W South Boulder Rd, Lafayette, CO 80026</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>ANGV_MS</t>
+          <t>BVSD</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1150 W South Boulder Rd, Lafayette, CO 80026</t>
+          <t>http://anm.bvsd.org/</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>BVSD</t>
+          <t>https://maps.app.goo.gl/QtidHUByDwtU8Z599</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>http://anm.bvsd.org/</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/QtidHUByDwtU8Z599</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
           <t>Angevine Middle School</t>
         </is>
       </c>
-      <c r="M4" t="n">
+      <c r="K4" t="n">
         <v>39.98955883968855</v>
       </c>
-      <c r="N4" t="n">
+      <c r="L4" t="n">
         <v>-105.1033574278846</v>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>POINT (-105.1033574278846 39.98955883968855)</t>
         </is>
@@ -700,54 +672,48 @@
       <c r="C5" t="n">
         <v>3</v>
       </c>
-      <c r="D5" t="n">
-        <v>3</v>
-      </c>
-      <c r="E5" t="n">
-        <v>3</v>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Boulder HS</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>BLDR_HS</t>
+        </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Boulder HS</t>
+          <t>1604 Arapahoe Ave, Boulder, CO 80302</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>BLDR_HS</t>
+          <t>BVSD</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1604 Arapahoe Ave, Boulder, CO 80302</t>
+          <t>http://boh.bvsd.org/</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>BVSD</t>
+          <t>https://maps.app.goo.gl/dKMDjeKUL4kjNDMp6</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>http://boh.bvsd.org/</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/dKMDjeKUL4kjNDMp6</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
           <t>Boulder High School</t>
         </is>
       </c>
-      <c r="M5" t="n">
+      <c r="K5" t="n">
         <v>40.01411590640171</v>
       </c>
-      <c r="N5" t="n">
+      <c r="L5" t="n">
         <v>-105.2728711769165</v>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>POINT (-105.2728711769165 40.01411590640171)</t>
         </is>
@@ -763,54 +729,48 @@
       <c r="C6" t="n">
         <v>4</v>
       </c>
-      <c r="D6" t="n">
-        <v>4</v>
-      </c>
-      <c r="E6" t="n">
-        <v>4</v>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Burlington Elementary</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>BURL_ES</t>
+        </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Burlington Elementary</t>
+          <t>1051 S Pratt Pkwy, Longmont, CO 80501</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>BURL_ES</t>
+          <t>SVVSD</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>1051 S Pratt Pkwy, Longmont, CO 80501</t>
+          <t>http://bes.svvsd.org/</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>SVVSD</t>
+          <t>https://maps.app.goo.gl/QefhqxMskS5oyZY87</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>http://bes.svvsd.org/</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/QefhqxMskS5oyZY87</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
           <t>Burlington Elementary School</t>
         </is>
       </c>
-      <c r="M6" t="n">
+      <c r="K6" t="n">
         <v>40.1466539913149</v>
       </c>
-      <c r="N6" t="n">
+      <c r="L6" t="n">
         <v>-105.108633248163</v>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>POINT (-105.108633248163 40.1466539913149)</t>
         </is>
@@ -826,54 +786,48 @@
       <c r="C7" t="n">
         <v>5</v>
       </c>
-      <c r="D7" t="n">
-        <v>5</v>
-      </c>
-      <c r="E7" t="n">
-        <v>5</v>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Casey MS</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>CASE_MS</t>
+        </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Casey MS</t>
+          <t>1301 High St, Boulder, CO 80304</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>CASE_MS</t>
+          <t>BVSD</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>1301 High St, Boulder, CO 80304</t>
+          <t>http://cam.bvsd.org/</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>BVSD</t>
+          <t>https://maps.app.goo.gl/kqj3JEma8TPCRKWU9</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>http://cam.bvsd.org/</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/kqj3JEma8TPCRKWU9</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
           <t>Casey Middle School</t>
         </is>
       </c>
-      <c r="M7" t="n">
+      <c r="K7" t="n">
         <v>40.0228711759357</v>
       </c>
-      <c r="N7" t="n">
+      <c r="L7" t="n">
         <v>-105.2791579470394</v>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>POINT (-105.2791579470394 40.0228711759357)</t>
         </is>
@@ -889,54 +843,48 @@
       <c r="C8" t="n">
         <v>6</v>
       </c>
-      <c r="D8" t="n">
-        <v>6</v>
-      </c>
-      <c r="E8" t="n">
-        <v>6</v>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Centaurus HS</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>CTAU_HS</t>
+        </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Centaurus HS</t>
+          <t>10300 W South Boulder Rd, Lafayette, CO 80026</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>CTAU_HS</t>
+          <t>BVSD</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>10300 W South Boulder Rd, Lafayette, CO 80026</t>
+          <t>http://ceh.bvsd.org/</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>BVSD</t>
+          <t>https://maps.app.goo.gl/qmDEC4W3XTN7acfs9</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>http://ceh.bvsd.org/</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/qmDEC4W3XTN7acfs9</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
           <t>Centaurus High School</t>
         </is>
       </c>
-      <c r="M8" t="n">
+      <c r="K8" t="n">
         <v>39.98635981263706</v>
       </c>
-      <c r="N8" t="n">
+      <c r="L8" t="n">
         <v>-105.1125276640655</v>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>POINT (-105.1125276640655 39.98635981263706)</t>
         </is>
@@ -952,54 +900,48 @@
       <c r="C9" t="n">
         <v>7</v>
       </c>
-      <c r="D9" t="n">
-        <v>7</v>
-      </c>
-      <c r="E9" t="n">
-        <v>7</v>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Centennial MS</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>CNTL_MS</t>
+        </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Centennial MS</t>
+          <t>2205 Norwood Ave, Boulder, CO 80304</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>CNTL_MS</t>
+          <t>BVSD</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2205 Norwood Ave, Boulder, CO 80304</t>
+          <t>http://cem.bvsd.org/</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>BVSD</t>
+          <t>https://maps.app.goo.gl/tKhhHtoniAvTfpPH9</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>http://cem.bvsd.org/</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/tKhhHtoniAvTfpPH9</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
           <t>Centennial Middle School</t>
         </is>
       </c>
-      <c r="M9" t="n">
+      <c r="K9" t="n">
         <v>40.04506796264024</v>
       </c>
-      <c r="N9" t="n">
+      <c r="L9" t="n">
         <v>-105.2671472290834</v>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>POINT (-105.2671472290834 40.04506796264024)</t>
         </is>
@@ -1015,54 +957,48 @@
       <c r="C10" t="n">
         <v>8</v>
       </c>
-      <c r="D10" t="n">
-        <v>8</v>
-      </c>
-      <c r="E10" t="n">
-        <v>8</v>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Eldorado K8</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>ELDO_K8</t>
+        </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Eldorado K8</t>
+          <t>3351 S Indiana St, Superior, CO 80027</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>ELDO_K8</t>
+          <t>BVSD</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>3351 S Indiana St, Superior, CO 80027</t>
+          <t>http://el8.bvsd.org/</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>BVSD</t>
+          <t>https://maps.app.goo.gl/s2gJjfVYasWGLpMz7</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>http://el8.bvsd.org/</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/s2gJjfVYasWGLpMz7</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
           <t>Eldorado K-8 School</t>
         </is>
       </c>
-      <c r="M10" t="n">
+      <c r="K10" t="n">
         <v>39.921698179021</v>
       </c>
-      <c r="N10" t="n">
+      <c r="L10" t="n">
         <v>-105.161197194222</v>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>POINT (-105.161197194222 39.921698179021)</t>
         </is>
@@ -1078,46 +1014,40 @@
       <c r="C11" t="n">
         <v>9</v>
       </c>
-      <c r="D11" t="n">
-        <v>9</v>
-      </c>
-      <c r="E11" t="n">
-        <v>9</v>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Eldorado Sp. Fire House</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>ELSP_FS</t>
+        </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Eldorado Sp. Fire House</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>ELSP_FS</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
           <t>4390 Eldorado Springs Dr, Boulder, CO 80303</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/TBWeoHAtGKUfwDy79</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>Rocky Mountain Fire District Station 6</t>
         </is>
       </c>
-      <c r="M11" t="n">
+      <c r="K11" t="n">
         <v>39.94266172014046</v>
       </c>
-      <c r="N11" t="n">
+      <c r="L11" t="n">
         <v>-105.2493101229037</v>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>POINT (-105.2493101229037 39.94266172014046)</t>
         </is>
@@ -1133,54 +1063,48 @@
       <c r="C12" t="n">
         <v>10</v>
       </c>
-      <c r="D12" t="n">
-        <v>10</v>
-      </c>
-      <c r="E12" t="n">
-        <v>10</v>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Erie MS</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>ERIE_MS</t>
+        </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Erie MS</t>
+          <t>650 Main St, Erie, CO 80516</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>ERIE_MS</t>
+          <t>SVVSD</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>650 Main St, Erie, CO 80516</t>
+          <t>https://ems.svvsd.org/</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>SVVSD</t>
+          <t>https://maps.app.goo.gl/A5evm4HRnAPM1aUp8</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>https://ems.svvsd.org/</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/A5evm4HRnAPM1aUp8</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
           <t>Erie Middle School</t>
         </is>
       </c>
-      <c r="M12" t="n">
+      <c r="K12" t="n">
         <v>40.05101707648438</v>
       </c>
-      <c r="N12" t="n">
+      <c r="L12" t="n">
         <v>-105.0529688258069</v>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>POINT (-105.0529688258069 40.05101707648438)</t>
         </is>
@@ -1196,50 +1120,44 @@
       <c r="C13" t="n">
         <v>11</v>
       </c>
-      <c r="D13" t="n">
-        <v>11</v>
-      </c>
-      <c r="E13" t="n">
-        <v>11</v>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Frasier Mead.</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>FRAMDW</t>
+        </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Frasier Mead.</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>FRAMDW</t>
-        </is>
-      </c>
+          <t>350 Ponca Pl, Boulder, CO 80303</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
-          <t>350 Ponca Pl, Boulder, CO 80303</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
+          <t>http://www.frasiermeadows.org/</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/RCv4sKncUCjLLnzP7</t>
+        </is>
+      </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>http://www.frasiermeadows.org/</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/RCv4sKncUCjLLnzP7</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
           <t>Frasier Retirement Community</t>
         </is>
       </c>
-      <c r="M13" t="n">
+      <c r="K13" t="n">
         <v>39.99456396590154</v>
       </c>
-      <c r="N13" t="n">
+      <c r="L13" t="n">
         <v>-105.2338815741678</v>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>POINT (-105.2338815741678 39.99456396590154)</t>
         </is>
@@ -1255,54 +1173,48 @@
       <c r="C14" t="n">
         <v>12</v>
       </c>
-      <c r="D14" t="n">
-        <v>12</v>
-      </c>
-      <c r="E14" t="n">
-        <v>12</v>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Gold Hill School</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>GOLD_ES</t>
+        </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Gold Hill School</t>
+          <t>890 Main St, Boulder, CO 80302</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>GOLD_ES</t>
+          <t>BVSD</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>890 Main St, Boulder, CO 80302</t>
+          <t>http://ghe.bvsd.org/</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>BVSD</t>
+          <t>https://maps.app.goo.gl/PZV28vuUvb8p7LJs6</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>http://ghe.bvsd.org/</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/PZV28vuUvb8p7LJs6</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
           <t>Gold Hill Elementary School</t>
         </is>
       </c>
-      <c r="M14" t="n">
+      <c r="K14" t="n">
         <v>40.063366273762</v>
       </c>
-      <c r="N14" t="n">
+      <c r="L14" t="n">
         <v>-105.412472825461</v>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>POINT (-105.412472825461 40.063366273762)</t>
         </is>
@@ -1318,54 +1230,48 @@
       <c r="C15" t="n">
         <v>13</v>
       </c>
-      <c r="D15" t="n">
-        <v>13</v>
-      </c>
-      <c r="E15" t="n">
-        <v>13</v>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Indian Peaks ES</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>INPK_ES</t>
+        </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Indian Peaks ES</t>
+          <t>1335 S Judson St, Longmont, CO 80501</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>INPK_ES</t>
+          <t>SVVSD</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>1335 S Judson St, Longmont, CO 80501</t>
+          <t>https://ipes.svvsd.org/</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>SVVSD</t>
+          <t>https://maps.app.goo.gl/rFzqgoYXNnAMFNG27</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>https://ipes.svvsd.org/</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/rFzqgoYXNnAMFNG27</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
           <t>Indian Peaks Elementary School</t>
         </is>
       </c>
-      <c r="M15" t="n">
+      <c r="K15" t="n">
         <v>40.14327187343834</v>
       </c>
-      <c r="N15" t="n">
+      <c r="L15" t="n">
         <v>-105.118010493892</v>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>POINT (-105.118010493892 40.14327187343834)</t>
         </is>
@@ -1381,54 +1287,48 @@
       <c r="C16" t="n">
         <v>14</v>
       </c>
-      <c r="D16" t="n">
-        <v>14</v>
-      </c>
-      <c r="E16" t="n">
-        <v>14</v>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Jamestown School</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>JAME_ES</t>
+        </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Jamestown School</t>
+          <t>111 Mesa St, Jamestown, CO 80455</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>JAME_ES</t>
+          <t>BVSD</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>111 Mesa St, Jamestown, CO 80455</t>
+          <t>http://jae.bvsd.org/</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>BVSD</t>
+          <t>https://maps.app.goo.gl/xaKW9Ljh7VtMuQPf6</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>http://jae.bvsd.org/</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/xaKW9Ljh7VtMuQPf6</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
           <t>Jamestown Elementary School</t>
         </is>
       </c>
-      <c r="M16" t="n">
+      <c r="K16" t="n">
         <v>40.1164318137431</v>
       </c>
-      <c r="N16" t="n">
+      <c r="L16" t="n">
         <v>-105.387802261192</v>
       </c>
-      <c r="O16" t="inlineStr">
+      <c r="M16" t="inlineStr">
         <is>
           <t>POINT (-105.387802261192 40.1164318137431)</t>
         </is>
@@ -1444,54 +1344,48 @@
       <c r="C17" t="n">
         <v>15</v>
       </c>
-      <c r="D17" t="n">
-        <v>15</v>
-      </c>
-      <c r="E17" t="n">
-        <v>15</v>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Longs Peak MS</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>LNGP_MS</t>
+        </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Longs Peak MS</t>
+          <t>1500 14th Ave, Longmont, CO 80501</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>LNGP_MS</t>
+          <t>SVVSD</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>1500 14th Ave, Longmont, CO 80501</t>
+          <t>http://lpms.svvsd.org/</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>SVVSD</t>
+          <t>https://maps.app.goo.gl/44xqEDG33jkv1pN28</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>http://lpms.svvsd.org/</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/44xqEDG33jkv1pN28</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
           <t>Longs Peak Middle School</t>
         </is>
       </c>
-      <c r="M17" t="n">
+      <c r="K17" t="n">
         <v>40.18399195721774</v>
       </c>
-      <c r="N17" t="n">
+      <c r="L17" t="n">
         <v>-105.117518880356</v>
       </c>
-      <c r="O17" t="inlineStr">
+      <c r="M17" t="inlineStr">
         <is>
           <t>POINT (-105.117518880356 40.18399195721774)</t>
         </is>
@@ -1507,54 +1401,48 @@
       <c r="C18" t="n">
         <v>16</v>
       </c>
-      <c r="D18" t="n">
-        <v>16</v>
-      </c>
-      <c r="E18" t="n">
-        <v>16</v>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Louisville MS</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>LSVL_MS</t>
+        </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Louisville MS</t>
+          <t>1341 Main St, Louisville, CO 80027</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>LSVL_MS</t>
+          <t>BVSD</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>1341 Main St, Louisville, CO 80027</t>
+          <t>http://lom.bvsd.org/</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>BVSD</t>
+          <t>https://maps.app.goo.gl/VT5YaQMB64667476A</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>http://lom.bvsd.org/</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/VT5YaQMB64667476A</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
           <t>Louisville Middle School</t>
         </is>
       </c>
-      <c r="M18" t="n">
+      <c r="K18" t="n">
         <v>39.9841246724845</v>
       </c>
-      <c r="N18" t="n">
+      <c r="L18" t="n">
         <v>-105.1325745422844</v>
       </c>
-      <c r="O18" t="inlineStr">
+      <c r="M18" t="inlineStr">
         <is>
           <t>POINT (-105.1325745422844 39.9841246724845)</t>
         </is>
@@ -1570,54 +1458,48 @@
       <c r="C19" t="n">
         <v>17</v>
       </c>
-      <c r="D19" t="n">
-        <v>17</v>
-      </c>
-      <c r="E19" t="n">
-        <v>17</v>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Lyons Middle Senior</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>LYON_MS</t>
+        </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Lyons Middle Senior</t>
+          <t>100 McConnell Dr, Lyons, CO 80540</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>LYON_MS</t>
+          <t>SVVSD</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>100 McConnell Dr, Lyons, CO 80540</t>
+          <t>https://lmshs.svvsd.org/</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>SVVSD</t>
+          <t>https://maps.app.goo.gl/ohTLL54wbPdkJNFA8</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>https://lmshs.svvsd.org/</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/ohTLL54wbPdkJNFA8</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
           <t>Lyons Middle/Senior High School</t>
         </is>
       </c>
-      <c r="M19" t="n">
+      <c r="K19" t="n">
         <v>40.2147599852984</v>
       </c>
-      <c r="N19" t="n">
+      <c r="L19" t="n">
         <v>-105.264461148759</v>
       </c>
-      <c r="O19" t="inlineStr">
+      <c r="M19" t="inlineStr">
         <is>
           <t>POINT (-105.264461148759 40.2147599852984)</t>
         </is>
@@ -1633,54 +1515,48 @@
       <c r="C20" t="n">
         <v>18</v>
       </c>
-      <c r="D20" t="n">
-        <v>18</v>
-      </c>
-      <c r="E20" t="n">
-        <v>18</v>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Manhattan MS</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>MANH_MS</t>
+        </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Manhattan MS</t>
+          <t>290 Manhattan Dr, Boulder, CO 80303</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>MANH_MS</t>
+          <t>BVSD</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>290 Manhattan Dr, Boulder, CO 80303</t>
+          <t>http://mam.bvsd.org/</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>BVSD</t>
+          <t>https://maps.app.goo.gl/pkEKK86Dh3tGgHz46</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>http://mam.bvsd.org/</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/pkEKK86Dh3tGgHz46</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
           <t>Manhattan Middle School of Arts and Academics</t>
         </is>
       </c>
-      <c r="M20" t="n">
+      <c r="K20" t="n">
         <v>39.99410342530379</v>
       </c>
-      <c r="N20" t="n">
+      <c r="L20" t="n">
         <v>-105.2273572175253</v>
       </c>
-      <c r="O20" t="inlineStr">
+      <c r="M20" t="inlineStr">
         <is>
           <t>POINT (-105.2273572175253 39.99410342530379)</t>
         </is>
@@ -1696,54 +1572,48 @@
       <c r="C21" t="n">
         <v>19</v>
       </c>
-      <c r="D21" t="n">
-        <v>19</v>
-      </c>
-      <c r="E21" t="n">
-        <v>19</v>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Monarch HS</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>MONA_HS</t>
+        </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Monarch HS</t>
+          <t>329 Campus Dr, Louisville, CO 80027</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>MONA_HS</t>
+          <t>BVSD</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>329 Campus Dr, Louisville, CO 80027</t>
+          <t>http://moh.bvsd.org/</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>BVSD</t>
+          <t>https://maps.app.goo.gl/GVkb3S8qP6y3d6Lc6</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>http://moh.bvsd.org/</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/GVkb3S8qP6y3d6Lc6</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
           <t>Monarch High School</t>
         </is>
       </c>
-      <c r="M21" t="n">
+      <c r="K21" t="n">
         <v>39.9520220573069</v>
       </c>
-      <c r="N21" t="n">
+      <c r="L21" t="n">
         <v>-105.141776992356</v>
       </c>
-      <c r="O21" t="inlineStr">
+      <c r="M21" t="inlineStr">
         <is>
           <t>POINT (-105.141776992356 39.9520220573069)</t>
         </is>
@@ -1759,54 +1629,48 @@
       <c r="C22" t="n">
         <v>20</v>
       </c>
-      <c r="D22" t="n">
-        <v>20</v>
-      </c>
-      <c r="E22" t="n">
-        <v>20</v>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Monarch K-8</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>MONA_K8</t>
+        </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
+          <t>263 Campus Dr, Louisville, CO 80027</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>BVSD</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>http://mo8.bvsd.org/</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/fM4A7oD6cKkm9gXJ9</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
           <t>Monarch K-8</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>MONA_K8</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>263 Campus Dr, Louisville, CO 80027</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>BVSD</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>http://mo8.bvsd.org/</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/fM4A7oD6cKkm9gXJ9</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>Monarch K-8</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
+      <c r="K22" t="n">
         <v>39.95142599070905</v>
       </c>
-      <c r="N22" t="n">
+      <c r="L22" t="n">
         <v>-105.1435104051174</v>
       </c>
-      <c r="O22" t="inlineStr">
+      <c r="M22" t="inlineStr">
         <is>
           <t>POINT (-105.1435104051174 39.95142599070905)</t>
         </is>
@@ -1822,54 +1686,48 @@
       <c r="C23" t="n">
         <v>21</v>
       </c>
-      <c r="D23" t="n">
-        <v>21</v>
-      </c>
-      <c r="E23" t="n">
-        <v>21</v>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Nederland HS</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>NEDE_HS</t>
+        </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Nederland HS</t>
+          <t>597 Co Hwy 130, Nederland, CO 80466</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>NEDE_HS</t>
+          <t>BVSD</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>597 Co Hwy 130, Nederland, CO 80466</t>
+          <t>https://neh.bvsd.org/</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>BVSD</t>
+          <t>https://maps.app.goo.gl/mVMWPW4o458ETfhw5</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>https://neh.bvsd.org/</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/mVMWPW4o458ETfhw5</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
           <t>Nederland Middle/Senior High School</t>
         </is>
       </c>
-      <c r="M23" t="n">
+      <c r="K23" t="n">
         <v>39.95383849383303</v>
       </c>
-      <c r="N23" t="n">
+      <c r="L23" t="n">
         <v>-105.5233421126253</v>
       </c>
-      <c r="O23" t="inlineStr">
+      <c r="M23" t="inlineStr">
         <is>
           <t>POINT (-105.5233421126253 39.95383849383303)</t>
         </is>
@@ -1885,54 +1743,48 @@
       <c r="C24" t="n">
         <v>22</v>
       </c>
-      <c r="D24" t="n">
-        <v>22</v>
-      </c>
-      <c r="E24" t="n">
-        <v>22</v>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>New Vista</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>NVIST_HS</t>
+        </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>New Vista</t>
+          <t>700 20th St, Boulder, CO 80302</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>NVIST_HS</t>
+          <t>BVSD</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>700 20th St, Boulder, CO 80302</t>
+          <t>http://nvh.bvsd.org/</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>BVSD</t>
+          <t>https://maps.app.goo.gl/mVZ7Cv3jx5iSPW3u9</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>http://nvh.bvsd.org/</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/mVZ7Cv3jx5iSPW3u9</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
           <t>New Vista High School</t>
         </is>
       </c>
-      <c r="M24" t="n">
+      <c r="K24" t="n">
         <v>40.0011978462681</v>
       </c>
-      <c r="N24" t="n">
+      <c r="L24" t="n">
         <v>-105.266504379284</v>
       </c>
-      <c r="O24" t="inlineStr">
+      <c r="M24" t="inlineStr">
         <is>
           <t>POINT (-105.266504379284 40.0011978462681)</t>
         </is>
@@ -1948,54 +1800,48 @@
       <c r="C25" t="n">
         <v>23</v>
       </c>
-      <c r="D25" t="n">
-        <v>23</v>
-      </c>
-      <c r="E25" t="n">
-        <v>23</v>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Niwot HS</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>NIWO_HS</t>
+        </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Niwot HS</t>
+          <t>8989 Niwot Rd, Niwot, CO 80503</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>NIWO_HS</t>
+          <t>SVVSD</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>8989 Niwot Rd, Niwot, CO 80503</t>
+          <t>https://nhs.svvsd.org/</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>SVVSD</t>
+          <t>https://maps.app.goo.gl/VmRuiC4cCzQrbJPR7</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>https://nhs.svvsd.org/</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/VmRuiC4cCzQrbJPR7</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
           <t>Niwot High School</t>
         </is>
       </c>
-      <c r="M25" t="n">
+      <c r="K25" t="n">
         <v>40.10369506217272</v>
       </c>
-      <c r="N25" t="n">
+      <c r="L25" t="n">
         <v>-105.1442414652976</v>
       </c>
-      <c r="O25" t="inlineStr">
+      <c r="M25" t="inlineStr">
         <is>
           <t>POINT (-105.1442414652976 40.10369506217272)</t>
         </is>
@@ -2011,54 +1857,48 @@
       <c r="C26" t="n">
         <v>24</v>
       </c>
-      <c r="D26" t="n">
-        <v>24</v>
-      </c>
-      <c r="E26" t="n">
-        <v>24</v>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Silver Creek HS</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>SILV_HS</t>
+        </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Silver Creek HS</t>
+          <t>4901 Nelson Rd, Longmont, CO 80503</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>SILV_HS</t>
+          <t>SVVSD</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>4901 Nelson Rd, Longmont, CO 80503</t>
+          <t>http://schs.svvsd.org/</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>SVVSD</t>
+          <t>https://maps.app.goo.gl/6j7ZvjGuNgq38Uv1A</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>http://schs.svvsd.org/</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/6j7ZvjGuNgq38Uv1A</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
           <t>Silver Creek High School</t>
         </is>
       </c>
-      <c r="M26" t="n">
+      <c r="K26" t="n">
         <v>40.15137160754995</v>
       </c>
-      <c r="N26" t="n">
+      <c r="L26" t="n">
         <v>-105.1665699930847</v>
       </c>
-      <c r="O26" t="inlineStr">
+      <c r="M26" t="inlineStr">
         <is>
           <t>POINT (-105.1665699930847 40.15137160754995)</t>
         </is>
@@ -2074,54 +1914,48 @@
       <c r="C27" t="n">
         <v>25</v>
       </c>
-      <c r="D27" t="n">
-        <v>25</v>
-      </c>
-      <c r="E27" t="n">
-        <v>25</v>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Southern Hills MS</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>SHIL_MS</t>
+        </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Southern Hills MS</t>
+          <t>1500 Knox Dr, Boulder, CO 80305</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>SHIL_MS</t>
+          <t>BVSD</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>1500 Knox Dr, Boulder, CO 80305</t>
+          <t>http://shm.bvsd.org/</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>BVSD</t>
+          <t>https://maps.app.goo.gl/J5CQaiF7gt1pezXm8</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>http://shm.bvsd.org/</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/J5CQaiF7gt1pezXm8</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
           <t>Southern Hills Middle School</t>
         </is>
       </c>
-      <c r="M27" t="n">
+      <c r="K27" t="n">
         <v>39.97413389369987</v>
       </c>
-      <c r="N27" t="n">
+      <c r="L27" t="n">
         <v>-105.2452260530946</v>
       </c>
-      <c r="O27" t="inlineStr">
+      <c r="M27" t="inlineStr">
         <is>
           <t>POINT (-105.2452260530946 39.97413389369987)</t>
         </is>
@@ -2137,54 +1971,48 @@
       <c r="C28" t="n">
         <v>26</v>
       </c>
-      <c r="D28" t="n">
-        <v>26</v>
-      </c>
-      <c r="E28" t="n">
-        <v>26</v>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Sunset MS</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>SUNS_MS</t>
+        </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Sunset MS</t>
+          <t>1300 S Sunset St, Longmont, CO 80501</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>SUNS_MS</t>
+          <t>SVVSD</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>1300 S Sunset St, Longmont, CO 80501</t>
+          <t>http://sms.svvsd.org/</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>SVVSD</t>
+          <t>https://maps.app.goo.gl/2iVHM51MYZg9XEZo9</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>http://sms.svvsd.org/</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/2iVHM51MYZg9XEZo9</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
           <t>Sunset Middle School</t>
         </is>
       </c>
-      <c r="M28" t="n">
+      <c r="K28" t="n">
         <v>40.14458073069962</v>
       </c>
-      <c r="N28" t="n">
+      <c r="L28" t="n">
         <v>-105.1199067185428</v>
       </c>
-      <c r="O28" t="inlineStr">
+      <c r="M28" t="inlineStr">
         <is>
           <t>POINT (-105.1199067185428 40.14458073069962)</t>
         </is>
@@ -2200,54 +2028,48 @@
       <c r="C29" t="n">
         <v>27</v>
       </c>
-      <c r="D29" t="n">
-        <v>27</v>
-      </c>
-      <c r="E29" t="n">
-        <v>27</v>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Timberline PK-8</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>TIMB_K8</t>
+        </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Timberline PK-8</t>
+          <t>233 E Mountain View Ave, Longmont, CO 80504</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>TIMB_K8</t>
+          <t>SVVSD</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>233 E Mountain View Ave, Longmont, CO 80504</t>
+          <t>http://tpk8.svvsd.org/</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>SVVSD</t>
+          <t>https://maps.app.goo.gl/Dqyuok7JMiowX96x5</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>http://tpk8.svvsd.org/</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/Dqyuok7JMiowX96x5</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
           <t>Timberline PK-8 SVVSD</t>
         </is>
       </c>
-      <c r="M29" t="n">
+      <c r="K29" t="n">
         <v>40.18091133152473</v>
       </c>
-      <c r="N29" t="n">
+      <c r="L29" t="n">
         <v>-105.0857347392096</v>
       </c>
-      <c r="O29" t="inlineStr">
+      <c r="M29" t="inlineStr">
         <is>
           <t>POINT (-105.0857347392096 40.18091133152473)</t>
         </is>
@@ -2263,54 +2085,48 @@
       <c r="C30" t="n">
         <v>28</v>
       </c>
-      <c r="D30" t="n">
-        <v>28</v>
-      </c>
-      <c r="E30" t="n">
-        <v>28</v>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Trail Ridge MS</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>TRID_MS</t>
+        </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Trail Ridge MS</t>
+          <t>1000 Button Rock Dr, Longmont, CO 80504</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>TRID_MS</t>
+          <t>SVVSD</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>1000 Button Rock Dr, Longmont, CO 80504</t>
+          <t>https://trms.svvsd.org/</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>SVVSD</t>
+          <t>https://maps.app.goo.gl/jwrYoLXX3rzhtEFy7</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>https://trms.svvsd.org/</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/jwrYoLXX3rzhtEFy7</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
           <t>Trail Ridge Middle School</t>
         </is>
       </c>
-      <c r="M30" t="n">
+      <c r="K30" t="n">
         <v>40.17693117783666</v>
       </c>
-      <c r="N30" t="n">
+      <c r="L30" t="n">
         <v>-105.0576162268638</v>
       </c>
-      <c r="O30" t="inlineStr">
+      <c r="M30" t="inlineStr">
         <is>
           <t>POINT (-105.0576162268638 40.17693117783666)</t>
         </is>
@@ -2326,42 +2142,36 @@
       <c r="C31" t="n">
         <v>29</v>
       </c>
-      <c r="D31" t="n">
-        <v>29</v>
-      </c>
-      <c r="E31" t="n">
-        <v>29</v>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Ward Community Center</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>WARD</t>
+        </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Ward Community Center</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>WARD</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
           <t>1 Columbia St, Ward, CO 80481</t>
         </is>
       </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M31" t="n">
+      <c r="K31" t="n">
         <v>40.0733984409928</v>
       </c>
-      <c r="N31" t="n">
+      <c r="L31" t="n">
         <v>-105.506518983446</v>
       </c>
-      <c r="O31" t="inlineStr">
+      <c r="M31" t="inlineStr">
         <is>
           <t>POINT (-105.506518983446 40.0733984409928)</t>
         </is>
@@ -2377,54 +2187,48 @@
       <c r="C32" t="n">
         <v>30</v>
       </c>
-      <c r="D32" t="n">
-        <v>30</v>
-      </c>
-      <c r="E32" t="n">
-        <v>30</v>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Horizons K8</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>HORI_K8</t>
+        </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Horizons K8</t>
+          <t>4545 Sioux Dr, Boulder, CO 80303</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>HORI_K8</t>
+          <t>charter school</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>4545 Sioux Dr, Boulder, CO 80303</t>
+          <t>http://www.horizonsk8school.org/</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>charter school</t>
+          <t>https://maps.app.goo.gl/XHvYLyzK95buV9zK9</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>http://www.horizonsk8school.org/</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/XHvYLyzK95buV9zK9</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
           <t>Horizons K-8 School</t>
         </is>
       </c>
-      <c r="M32" t="n">
+      <c r="K32" t="n">
         <v>39.9936610442773</v>
       </c>
-      <c r="N32" t="n">
+      <c r="L32" t="n">
         <v>-105.237949287953</v>
       </c>
-      <c r="O32" t="inlineStr">
+      <c r="M32" t="inlineStr">
         <is>
           <t>POINT (-105.237949287953 39.9936610442773)</t>
         </is>
@@ -2440,56 +2244,174 @@
       <c r="C33" t="n">
         <v>31</v>
       </c>
-      <c r="D33" t="n">
-        <v>31</v>
-      </c>
-      <c r="E33" t="n">
-        <v>31</v>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Platt MS</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>PLAT_MS</t>
+        </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Platt MS</t>
+          <t>6096 Baseline Rd, Boulder, CO 80303</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>PLAT_MS</t>
+          <t>BVSD</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>6096 Baseline Rd, Boulder, CO 80303</t>
+          <t>http://npm.bvsd.org/</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>BVSD</t>
+          <t>https://maps.app.goo.gl/SRxrXgCL5287jJjE8</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>http://npm.bvsd.org/</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/SRxrXgCL5287jJjE8</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
           <t>Nevin Platt Middle School</t>
         </is>
       </c>
-      <c r="M33" t="n">
+      <c r="K33" t="n">
         <v>40.0030354657493</v>
       </c>
-      <c r="N33" t="n">
+      <c r="L33" t="n">
         <v>-105.209456648465</v>
       </c>
-      <c r="O33" t="inlineStr">
+      <c r="M33" t="inlineStr">
         <is>
           <t>POINT (-105.209456648465 40.0030354657493)</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Erie Elementary</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>ERIE_ES</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4137 E County Line Rd, Erie, CO 80516</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>SVVSD</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>https://ees.svvsd.org/</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/G29aD86nrnjvwdcr5</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Erie Elementary School</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>40.0505686161916</v>
+      </c>
+      <c r="L34" t="n">
+        <v>-105.055990906269</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>POINT (-105.055990906269 40.0505686161916)</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>POINT (nan nan)</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>POINT (nan nan)</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>40.0505686161916, -105.05599090626951</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>POINT (nan nan)</t>
         </is>
       </c>
     </row>

--- a/data/venues_all_years_fixed.xlsx
+++ b/data/venues_all_years_fixed.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M37"/>
+  <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,60 +436,55 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 0</t>
+          <t>venue_id</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>venue_id</t>
+          <t>venue</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>venue</t>
+          <t>venue_code</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>venue_code</t>
+          <t>address</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>address</t>
+          <t>org</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>org</t>
+          <t>website</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>website</t>
+          <t>gmap_link</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>gmap_link</t>
+          <t>gmap_name</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>gmap_name</t>
+          <t>lat</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>lat</t>
+          <t>lon</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>lon</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>geometry</t>
         </is>
@@ -502,47 +497,44 @@
       <c r="B2" t="n">
         <v>0</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Allenspark Fire Station</t>
+        </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Allenspark Fire Station</t>
+          <t>ALLP_FS</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ALLP_FS</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
           <t>14861 CO-7, Allenspark, CO 80510</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>http://www.allensparkfire.com/</t>
+        </is>
+      </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>http://www.allensparkfire.com/</t>
+          <t>https://maps.app.goo.gl/HYN1GYNb9yE4w4RL7</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/HYN1GYNb9yE4w4RL7</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
           <t>Allenspark Fire Protection</t>
         </is>
       </c>
+      <c r="J2" t="n">
+        <v>40.19712777610975</v>
+      </c>
       <c r="K2" t="n">
-        <v>40.19712777610975</v>
-      </c>
-      <c r="L2" t="n">
         <v>-105.5279141785934</v>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>POINT (-105.5279141785934 40.19712777610975)</t>
         </is>
@@ -555,51 +547,48 @@
       <c r="B3" t="n">
         <v>1</v>
       </c>
-      <c r="C3" t="n">
-        <v>1</v>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Altona MS</t>
+        </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Altona MS</t>
+          <t>ALTO_MS</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>ALTO_MS</t>
+          <t>4600 Clover Basin Dr, Longmont, CO 80503</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4600 Clover Basin Dr, Longmont, CO 80503</t>
+          <t>SVVSD</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>SVVSD</t>
+          <t>https://ams.svvsd.org/</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>https://ams.svvsd.org/</t>
+          <t>https://maps.app.goo.gl/ew5ypnry93DZwFNj8</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/ew5ypnry93DZwFNj8</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
           <t>Altona Middle School</t>
         </is>
       </c>
+      <c r="J3" t="n">
+        <v>40.14448266991539</v>
+      </c>
       <c r="K3" t="n">
-        <v>40.14448266991539</v>
-      </c>
-      <c r="L3" t="n">
         <v>-105.1626179175455</v>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>POINT (-105.1626179175455 40.14448266991539)</t>
         </is>
@@ -612,51 +601,48 @@
       <c r="B4" t="n">
         <v>2</v>
       </c>
-      <c r="C4" t="n">
-        <v>2</v>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Angevine MS</t>
+        </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Angevine MS</t>
+          <t>ANGV_MS</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ANGV_MS</t>
+          <t>1150 W South Boulder Rd, Lafayette, CO 80026</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1150 W South Boulder Rd, Lafayette, CO 80026</t>
+          <t>BVSD</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>BVSD</t>
+          <t>http://anm.bvsd.org/</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>http://anm.bvsd.org/</t>
+          <t>https://maps.app.goo.gl/QtidHUByDwtU8Z599</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/QtidHUByDwtU8Z599</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
           <t>Angevine Middle School</t>
         </is>
       </c>
+      <c r="J4" t="n">
+        <v>39.98955883968855</v>
+      </c>
       <c r="K4" t="n">
-        <v>39.98955883968855</v>
-      </c>
-      <c r="L4" t="n">
         <v>-105.1033574278846</v>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>POINT (-105.1033574278846 39.98955883968855)</t>
         </is>
@@ -669,51 +655,48 @@
       <c r="B5" t="n">
         <v>3</v>
       </c>
-      <c r="C5" t="n">
-        <v>3</v>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Boulder HS</t>
+        </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Boulder HS</t>
+          <t>BLDR_HS</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>BLDR_HS</t>
+          <t>1604 Arapahoe Ave, Boulder, CO 80302</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1604 Arapahoe Ave, Boulder, CO 80302</t>
+          <t>BVSD</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>BVSD</t>
+          <t>http://boh.bvsd.org/</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>http://boh.bvsd.org/</t>
+          <t>https://maps.app.goo.gl/dKMDjeKUL4kjNDMp6</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/dKMDjeKUL4kjNDMp6</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
           <t>Boulder High School</t>
         </is>
       </c>
+      <c r="J5" t="n">
+        <v>40.01411590640171</v>
+      </c>
       <c r="K5" t="n">
-        <v>40.01411590640171</v>
-      </c>
-      <c r="L5" t="n">
         <v>-105.2728711769165</v>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>POINT (-105.2728711769165 40.01411590640171)</t>
         </is>
@@ -726,51 +709,48 @@
       <c r="B6" t="n">
         <v>4</v>
       </c>
-      <c r="C6" t="n">
-        <v>4</v>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Burlington Elementary</t>
+        </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Burlington Elementary</t>
+          <t>BURL_ES</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>BURL_ES</t>
+          <t>1051 S Pratt Pkwy, Longmont, CO 80501</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1051 S Pratt Pkwy, Longmont, CO 80501</t>
+          <t>SVVSD</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>SVVSD</t>
+          <t>http://bes.svvsd.org/</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>http://bes.svvsd.org/</t>
+          <t>https://maps.app.goo.gl/QefhqxMskS5oyZY87</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/QefhqxMskS5oyZY87</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
           <t>Burlington Elementary School</t>
         </is>
       </c>
+      <c r="J6" t="n">
+        <v>40.1466539913149</v>
+      </c>
       <c r="K6" t="n">
-        <v>40.1466539913149</v>
-      </c>
-      <c r="L6" t="n">
         <v>-105.108633248163</v>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>POINT (-105.108633248163 40.1466539913149)</t>
         </is>
@@ -783,51 +763,48 @@
       <c r="B7" t="n">
         <v>5</v>
       </c>
-      <c r="C7" t="n">
-        <v>5</v>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Casey MS</t>
+        </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Casey MS</t>
+          <t>CASE_MS</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CASE_MS</t>
+          <t>1301 High St, Boulder, CO 80304</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1301 High St, Boulder, CO 80304</t>
+          <t>BVSD</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>BVSD</t>
+          <t>http://cam.bvsd.org/</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>http://cam.bvsd.org/</t>
+          <t>https://maps.app.goo.gl/kqj3JEma8TPCRKWU9</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/kqj3JEma8TPCRKWU9</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
           <t>Casey Middle School</t>
         </is>
       </c>
+      <c r="J7" t="n">
+        <v>40.0228711759357</v>
+      </c>
       <c r="K7" t="n">
-        <v>40.0228711759357</v>
-      </c>
-      <c r="L7" t="n">
         <v>-105.2791579470394</v>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>POINT (-105.2791579470394 40.0228711759357)</t>
         </is>
@@ -840,51 +817,48 @@
       <c r="B8" t="n">
         <v>6</v>
       </c>
-      <c r="C8" t="n">
-        <v>6</v>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Centaurus HS</t>
+        </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Centaurus HS</t>
+          <t>CTAU_HS</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CTAU_HS</t>
+          <t>10300 W South Boulder Rd, Lafayette, CO 80026</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>10300 W South Boulder Rd, Lafayette, CO 80026</t>
+          <t>BVSD</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>BVSD</t>
+          <t>http://ceh.bvsd.org/</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>http://ceh.bvsd.org/</t>
+          <t>https://maps.app.goo.gl/qmDEC4W3XTN7acfs9</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/qmDEC4W3XTN7acfs9</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
           <t>Centaurus High School</t>
         </is>
       </c>
+      <c r="J8" t="n">
+        <v>39.98635981263706</v>
+      </c>
       <c r="K8" t="n">
-        <v>39.98635981263706</v>
-      </c>
-      <c r="L8" t="n">
         <v>-105.1125276640655</v>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>POINT (-105.1125276640655 39.98635981263706)</t>
         </is>
@@ -897,51 +871,48 @@
       <c r="B9" t="n">
         <v>7</v>
       </c>
-      <c r="C9" t="n">
-        <v>7</v>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Centennial MS</t>
+        </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Centennial MS</t>
+          <t>CNTL_MS</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>CNTL_MS</t>
+          <t>2205 Norwood Ave, Boulder, CO 80304</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2205 Norwood Ave, Boulder, CO 80304</t>
+          <t>BVSD</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>BVSD</t>
+          <t>http://cem.bvsd.org/</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>http://cem.bvsd.org/</t>
+          <t>https://maps.app.goo.gl/tKhhHtoniAvTfpPH9</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/tKhhHtoniAvTfpPH9</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
           <t>Centennial Middle School</t>
         </is>
       </c>
+      <c r="J9" t="n">
+        <v>40.04506796264024</v>
+      </c>
       <c r="K9" t="n">
-        <v>40.04506796264024</v>
-      </c>
-      <c r="L9" t="n">
         <v>-105.2671472290834</v>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>POINT (-105.2671472290834 40.04506796264024)</t>
         </is>
@@ -954,51 +925,48 @@
       <c r="B10" t="n">
         <v>8</v>
       </c>
-      <c r="C10" t="n">
-        <v>8</v>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Eldorado K8</t>
+        </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Eldorado K8</t>
+          <t>ELDO_K8</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>ELDO_K8</t>
+          <t>3351 S Indiana St, Superior, CO 80027</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3351 S Indiana St, Superior, CO 80027</t>
+          <t>BVSD</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>BVSD</t>
+          <t>http://el8.bvsd.org/</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>http://el8.bvsd.org/</t>
+          <t>https://maps.app.goo.gl/s2gJjfVYasWGLpMz7</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/s2gJjfVYasWGLpMz7</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
           <t>Eldorado K-8 School</t>
         </is>
       </c>
+      <c r="J10" t="n">
+        <v>39.921698179021</v>
+      </c>
       <c r="K10" t="n">
-        <v>39.921698179021</v>
-      </c>
-      <c r="L10" t="n">
         <v>-105.161197194222</v>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>POINT (-105.161197194222 39.921698179021)</t>
         </is>
@@ -1011,43 +979,40 @@
       <c r="B11" t="n">
         <v>9</v>
       </c>
-      <c r="C11" t="n">
-        <v>9</v>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Eldorado Sp. Fire House</t>
+        </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Eldorado Sp. Fire House</t>
+          <t>ELSP_FS</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>ELSP_FS</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
           <t>4390 Eldorado Springs Dr, Boulder, CO 80303</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/TBWeoHAtGKUfwDy79</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/TBWeoHAtGKUfwDy79</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
           <t>Rocky Mountain Fire District Station 6</t>
         </is>
       </c>
+      <c r="J11" t="n">
+        <v>39.94266172014046</v>
+      </c>
       <c r="K11" t="n">
-        <v>39.94266172014046</v>
-      </c>
-      <c r="L11" t="n">
         <v>-105.2493101229037</v>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>POINT (-105.2493101229037 39.94266172014046)</t>
         </is>
@@ -1060,51 +1025,48 @@
       <c r="B12" t="n">
         <v>10</v>
       </c>
-      <c r="C12" t="n">
-        <v>10</v>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Erie MS</t>
+        </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Erie MS</t>
+          <t>ERIE_MS</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>ERIE_MS</t>
+          <t>650 Main St, Erie, CO 80516</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>650 Main St, Erie, CO 80516</t>
+          <t>SVVSD</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>SVVSD</t>
+          <t>https://ems.svvsd.org/</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>https://ems.svvsd.org/</t>
+          <t>https://maps.app.goo.gl/A5evm4HRnAPM1aUp8</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/A5evm4HRnAPM1aUp8</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
           <t>Erie Middle School</t>
         </is>
       </c>
+      <c r="J12" t="n">
+        <v>40.05101707648438</v>
+      </c>
       <c r="K12" t="n">
-        <v>40.05101707648438</v>
-      </c>
-      <c r="L12" t="n">
         <v>-105.0529688258069</v>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>POINT (-105.0529688258069 40.05101707648438)</t>
         </is>
@@ -1117,47 +1079,44 @@
       <c r="B13" t="n">
         <v>11</v>
       </c>
-      <c r="C13" t="n">
-        <v>11</v>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Frasier Mead.</t>
+        </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Frasier Mead.</t>
+          <t>FRAMDW</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>FRAMDW</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
           <t>350 Ponca Pl, Boulder, CO 80303</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>http://www.frasiermeadows.org/</t>
+        </is>
+      </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>http://www.frasiermeadows.org/</t>
+          <t>https://maps.app.goo.gl/RCv4sKncUCjLLnzP7</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/RCv4sKncUCjLLnzP7</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
           <t>Frasier Retirement Community</t>
         </is>
       </c>
+      <c r="J13" t="n">
+        <v>39.99456396590154</v>
+      </c>
       <c r="K13" t="n">
-        <v>39.99456396590154</v>
-      </c>
-      <c r="L13" t="n">
         <v>-105.2338815741678</v>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>POINT (-105.2338815741678 39.99456396590154)</t>
         </is>
@@ -1170,51 +1129,48 @@
       <c r="B14" t="n">
         <v>12</v>
       </c>
-      <c r="C14" t="n">
-        <v>12</v>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Gold Hill School</t>
+        </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Gold Hill School</t>
+          <t>GOLD_ES</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>GOLD_ES</t>
+          <t>890 Main St, Boulder, CO 80302</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>890 Main St, Boulder, CO 80302</t>
+          <t>BVSD</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>BVSD</t>
+          <t>http://ghe.bvsd.org/</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>http://ghe.bvsd.org/</t>
+          <t>https://maps.app.goo.gl/PZV28vuUvb8p7LJs6</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/PZV28vuUvb8p7LJs6</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
           <t>Gold Hill Elementary School</t>
         </is>
       </c>
+      <c r="J14" t="n">
+        <v>40.063366273762</v>
+      </c>
       <c r="K14" t="n">
-        <v>40.063366273762</v>
-      </c>
-      <c r="L14" t="n">
         <v>-105.412472825461</v>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>POINT (-105.412472825461 40.063366273762)</t>
         </is>
@@ -1227,51 +1183,48 @@
       <c r="B15" t="n">
         <v>13</v>
       </c>
-      <c r="C15" t="n">
-        <v>13</v>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Indian Peaks ES</t>
+        </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Indian Peaks ES</t>
+          <t>INPK_ES</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>INPK_ES</t>
+          <t>1335 S Judson St, Longmont, CO 80501</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1335 S Judson St, Longmont, CO 80501</t>
+          <t>SVVSD</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>SVVSD</t>
+          <t>https://ipes.svvsd.org/</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>https://ipes.svvsd.org/</t>
+          <t>https://maps.app.goo.gl/rFzqgoYXNnAMFNG27</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/rFzqgoYXNnAMFNG27</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
           <t>Indian Peaks Elementary School</t>
         </is>
       </c>
+      <c r="J15" t="n">
+        <v>40.14327187343834</v>
+      </c>
       <c r="K15" t="n">
-        <v>40.14327187343834</v>
-      </c>
-      <c r="L15" t="n">
         <v>-105.118010493892</v>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>POINT (-105.118010493892 40.14327187343834)</t>
         </is>
@@ -1284,51 +1237,48 @@
       <c r="B16" t="n">
         <v>14</v>
       </c>
-      <c r="C16" t="n">
-        <v>14</v>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Jamestown School</t>
+        </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Jamestown School</t>
+          <t>JAME_ES</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>JAME_ES</t>
+          <t>111 Mesa St, Jamestown, CO 80455</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>111 Mesa St, Jamestown, CO 80455</t>
+          <t>BVSD</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>BVSD</t>
+          <t>http://jae.bvsd.org/</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>http://jae.bvsd.org/</t>
+          <t>https://maps.app.goo.gl/xaKW9Ljh7VtMuQPf6</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/xaKW9Ljh7VtMuQPf6</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
           <t>Jamestown Elementary School</t>
         </is>
       </c>
+      <c r="J16" t="n">
+        <v>40.1164318137431</v>
+      </c>
       <c r="K16" t="n">
-        <v>40.1164318137431</v>
-      </c>
-      <c r="L16" t="n">
         <v>-105.387802261192</v>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>POINT (-105.387802261192 40.1164318137431)</t>
         </is>
@@ -1341,51 +1291,48 @@
       <c r="B17" t="n">
         <v>15</v>
       </c>
-      <c r="C17" t="n">
-        <v>15</v>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Longs Peak MS</t>
+        </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Longs Peak MS</t>
+          <t>LNGP_MS</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>LNGP_MS</t>
+          <t>1500 14th Ave, Longmont, CO 80501</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1500 14th Ave, Longmont, CO 80501</t>
+          <t>SVVSD</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>SVVSD</t>
+          <t>http://lpms.svvsd.org/</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>http://lpms.svvsd.org/</t>
+          <t>https://maps.app.goo.gl/44xqEDG33jkv1pN28</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/44xqEDG33jkv1pN28</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
           <t>Longs Peak Middle School</t>
         </is>
       </c>
+      <c r="J17" t="n">
+        <v>40.18399195721774</v>
+      </c>
       <c r="K17" t="n">
-        <v>40.18399195721774</v>
-      </c>
-      <c r="L17" t="n">
         <v>-105.117518880356</v>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="L17" t="inlineStr">
         <is>
           <t>POINT (-105.117518880356 40.18399195721774)</t>
         </is>
@@ -1398,51 +1345,48 @@
       <c r="B18" t="n">
         <v>16</v>
       </c>
-      <c r="C18" t="n">
-        <v>16</v>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Louisville MS</t>
+        </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Louisville MS</t>
+          <t>LSVL_MS</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>LSVL_MS</t>
+          <t>1341 Main St, Louisville, CO 80027</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1341 Main St, Louisville, CO 80027</t>
+          <t>BVSD</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>BVSD</t>
+          <t>http://lom.bvsd.org/</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>http://lom.bvsd.org/</t>
+          <t>https://maps.app.goo.gl/VT5YaQMB64667476A</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/VT5YaQMB64667476A</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
           <t>Louisville Middle School</t>
         </is>
       </c>
+      <c r="J18" t="n">
+        <v>39.9841246724845</v>
+      </c>
       <c r="K18" t="n">
-        <v>39.9841246724845</v>
-      </c>
-      <c r="L18" t="n">
         <v>-105.1325745422844</v>
       </c>
-      <c r="M18" t="inlineStr">
+      <c r="L18" t="inlineStr">
         <is>
           <t>POINT (-105.1325745422844 39.9841246724845)</t>
         </is>
@@ -1455,51 +1399,48 @@
       <c r="B19" t="n">
         <v>17</v>
       </c>
-      <c r="C19" t="n">
-        <v>17</v>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Lyons Middle Senior</t>
+        </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Lyons Middle Senior</t>
+          <t>LYON_MS</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>LYON_MS</t>
+          <t>100 McConnell Dr, Lyons, CO 80540</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>100 McConnell Dr, Lyons, CO 80540</t>
+          <t>SVVSD</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>SVVSD</t>
+          <t>https://lmshs.svvsd.org/</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>https://lmshs.svvsd.org/</t>
+          <t>https://maps.app.goo.gl/ohTLL54wbPdkJNFA8</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/ohTLL54wbPdkJNFA8</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
           <t>Lyons Middle/Senior High School</t>
         </is>
       </c>
+      <c r="J19" t="n">
+        <v>40.2147599852984</v>
+      </c>
       <c r="K19" t="n">
-        <v>40.2147599852984</v>
-      </c>
-      <c r="L19" t="n">
         <v>-105.264461148759</v>
       </c>
-      <c r="M19" t="inlineStr">
+      <c r="L19" t="inlineStr">
         <is>
           <t>POINT (-105.264461148759 40.2147599852984)</t>
         </is>
@@ -1512,51 +1453,48 @@
       <c r="B20" t="n">
         <v>18</v>
       </c>
-      <c r="C20" t="n">
-        <v>18</v>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Manhattan MS</t>
+        </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Manhattan MS</t>
+          <t>MANH_MS</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>MANH_MS</t>
+          <t>290 Manhattan Dr, Boulder, CO 80303</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>290 Manhattan Dr, Boulder, CO 80303</t>
+          <t>BVSD</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>BVSD</t>
+          <t>http://mam.bvsd.org/</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>http://mam.bvsd.org/</t>
+          <t>https://maps.app.goo.gl/pkEKK86Dh3tGgHz46</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/pkEKK86Dh3tGgHz46</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
           <t>Manhattan Middle School of Arts and Academics</t>
         </is>
       </c>
+      <c r="J20" t="n">
+        <v>39.99410342530379</v>
+      </c>
       <c r="K20" t="n">
-        <v>39.99410342530379</v>
-      </c>
-      <c r="L20" t="n">
         <v>-105.2273572175253</v>
       </c>
-      <c r="M20" t="inlineStr">
+      <c r="L20" t="inlineStr">
         <is>
           <t>POINT (-105.2273572175253 39.99410342530379)</t>
         </is>
@@ -1569,51 +1507,48 @@
       <c r="B21" t="n">
         <v>19</v>
       </c>
-      <c r="C21" t="n">
-        <v>19</v>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Monarch HS</t>
+        </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Monarch HS</t>
+          <t>MONA_HS</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>MONA_HS</t>
+          <t>329 Campus Dr, Louisville, CO 80027</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>329 Campus Dr, Louisville, CO 80027</t>
+          <t>BVSD</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>BVSD</t>
+          <t>http://moh.bvsd.org/</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>http://moh.bvsd.org/</t>
+          <t>https://maps.app.goo.gl/GVkb3S8qP6y3d6Lc6</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/GVkb3S8qP6y3d6Lc6</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
           <t>Monarch High School</t>
         </is>
       </c>
+      <c r="J21" t="n">
+        <v>39.9520220573069</v>
+      </c>
       <c r="K21" t="n">
-        <v>39.9520220573069</v>
-      </c>
-      <c r="L21" t="n">
         <v>-105.141776992356</v>
       </c>
-      <c r="M21" t="inlineStr">
+      <c r="L21" t="inlineStr">
         <is>
           <t>POINT (-105.141776992356 39.9520220573069)</t>
         </is>
@@ -1626,51 +1561,48 @@
       <c r="B22" t="n">
         <v>20</v>
       </c>
-      <c r="C22" t="n">
-        <v>20</v>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Monarch K-8</t>
+        </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
+          <t>MONA_K8</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>263 Campus Dr, Louisville, CO 80027</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>BVSD</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>http://mo8.bvsd.org/</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/fM4A7oD6cKkm9gXJ9</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
           <t>Monarch K-8</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>MONA_K8</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>263 Campus Dr, Louisville, CO 80027</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>BVSD</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>http://mo8.bvsd.org/</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/fM4A7oD6cKkm9gXJ9</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>Monarch K-8</t>
-        </is>
+      <c r="J22" t="n">
+        <v>39.95142599070905</v>
       </c>
       <c r="K22" t="n">
-        <v>39.95142599070905</v>
-      </c>
-      <c r="L22" t="n">
         <v>-105.1435104051174</v>
       </c>
-      <c r="M22" t="inlineStr">
+      <c r="L22" t="inlineStr">
         <is>
           <t>POINT (-105.1435104051174 39.95142599070905)</t>
         </is>
@@ -1683,51 +1615,48 @@
       <c r="B23" t="n">
         <v>21</v>
       </c>
-      <c r="C23" t="n">
-        <v>21</v>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Nederland HS</t>
+        </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Nederland HS</t>
+          <t>NEDE_HS</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>NEDE_HS</t>
+          <t>597 Co Hwy 130, Nederland, CO 80466</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>597 Co Hwy 130, Nederland, CO 80466</t>
+          <t>BVSD</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>BVSD</t>
+          <t>https://neh.bvsd.org/</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>https://neh.bvsd.org/</t>
+          <t>https://maps.app.goo.gl/mVMWPW4o458ETfhw5</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/mVMWPW4o458ETfhw5</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
           <t>Nederland Middle/Senior High School</t>
         </is>
       </c>
+      <c r="J23" t="n">
+        <v>39.95383849383303</v>
+      </c>
       <c r="K23" t="n">
-        <v>39.95383849383303</v>
-      </c>
-      <c r="L23" t="n">
         <v>-105.5233421126253</v>
       </c>
-      <c r="M23" t="inlineStr">
+      <c r="L23" t="inlineStr">
         <is>
           <t>POINT (-105.5233421126253 39.95383849383303)</t>
         </is>
@@ -1740,51 +1669,48 @@
       <c r="B24" t="n">
         <v>22</v>
       </c>
-      <c r="C24" t="n">
-        <v>22</v>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>New Vista</t>
+        </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>New Vista</t>
+          <t>NVIST_HS</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>NVIST_HS</t>
+          <t>700 20th St, Boulder, CO 80302</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>700 20th St, Boulder, CO 80302</t>
+          <t>BVSD</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>BVSD</t>
+          <t>http://nvh.bvsd.org/</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>http://nvh.bvsd.org/</t>
+          <t>https://maps.app.goo.gl/mVZ7Cv3jx5iSPW3u9</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/mVZ7Cv3jx5iSPW3u9</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
           <t>New Vista High School</t>
         </is>
       </c>
+      <c r="J24" t="n">
+        <v>40.0011978462681</v>
+      </c>
       <c r="K24" t="n">
-        <v>40.0011978462681</v>
-      </c>
-      <c r="L24" t="n">
         <v>-105.266504379284</v>
       </c>
-      <c r="M24" t="inlineStr">
+      <c r="L24" t="inlineStr">
         <is>
           <t>POINT (-105.266504379284 40.0011978462681)</t>
         </is>
@@ -1797,51 +1723,48 @@
       <c r="B25" t="n">
         <v>23</v>
       </c>
-      <c r="C25" t="n">
-        <v>23</v>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Niwot HS</t>
+        </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Niwot HS</t>
+          <t>NIWO_HS</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>NIWO_HS</t>
+          <t>8989 Niwot Rd, Niwot, CO 80503</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>8989 Niwot Rd, Niwot, CO 80503</t>
+          <t>SVVSD</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>SVVSD</t>
+          <t>https://nhs.svvsd.org/</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>https://nhs.svvsd.org/</t>
+          <t>https://maps.app.goo.gl/VmRuiC4cCzQrbJPR7</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/VmRuiC4cCzQrbJPR7</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
           <t>Niwot High School</t>
         </is>
       </c>
+      <c r="J25" t="n">
+        <v>40.10369506217272</v>
+      </c>
       <c r="K25" t="n">
-        <v>40.10369506217272</v>
-      </c>
-      <c r="L25" t="n">
         <v>-105.1442414652976</v>
       </c>
-      <c r="M25" t="inlineStr">
+      <c r="L25" t="inlineStr">
         <is>
           <t>POINT (-105.1442414652976 40.10369506217272)</t>
         </is>
@@ -1854,51 +1777,48 @@
       <c r="B26" t="n">
         <v>24</v>
       </c>
-      <c r="C26" t="n">
-        <v>24</v>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Silver Creek HS</t>
+        </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Silver Creek HS</t>
+          <t>SILV_HS</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>SILV_HS</t>
+          <t>4901 Nelson Rd, Longmont, CO 80503</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>4901 Nelson Rd, Longmont, CO 80503</t>
+          <t>SVVSD</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>SVVSD</t>
+          <t>http://schs.svvsd.org/</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>http://schs.svvsd.org/</t>
+          <t>https://maps.app.goo.gl/6j7ZvjGuNgq38Uv1A</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/6j7ZvjGuNgq38Uv1A</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
           <t>Silver Creek High School</t>
         </is>
       </c>
+      <c r="J26" t="n">
+        <v>40.15137160754995</v>
+      </c>
       <c r="K26" t="n">
-        <v>40.15137160754995</v>
-      </c>
-      <c r="L26" t="n">
         <v>-105.1665699930847</v>
       </c>
-      <c r="M26" t="inlineStr">
+      <c r="L26" t="inlineStr">
         <is>
           <t>POINT (-105.1665699930847 40.15137160754995)</t>
         </is>
@@ -1911,51 +1831,48 @@
       <c r="B27" t="n">
         <v>25</v>
       </c>
-      <c r="C27" t="n">
-        <v>25</v>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Southern Hills MS</t>
+        </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Southern Hills MS</t>
+          <t>SHIL_MS</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>SHIL_MS</t>
+          <t>1500 Knox Dr, Boulder, CO 80305</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>1500 Knox Dr, Boulder, CO 80305</t>
+          <t>BVSD</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>BVSD</t>
+          <t>http://shm.bvsd.org/</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>http://shm.bvsd.org/</t>
+          <t>https://maps.app.goo.gl/J5CQaiF7gt1pezXm8</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/J5CQaiF7gt1pezXm8</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
           <t>Southern Hills Middle School</t>
         </is>
       </c>
+      <c r="J27" t="n">
+        <v>39.97413389369987</v>
+      </c>
       <c r="K27" t="n">
-        <v>39.97413389369987</v>
-      </c>
-      <c r="L27" t="n">
         <v>-105.2452260530946</v>
       </c>
-      <c r="M27" t="inlineStr">
+      <c r="L27" t="inlineStr">
         <is>
           <t>POINT (-105.2452260530946 39.97413389369987)</t>
         </is>
@@ -1968,51 +1885,48 @@
       <c r="B28" t="n">
         <v>26</v>
       </c>
-      <c r="C28" t="n">
-        <v>26</v>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Sunset MS</t>
+        </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Sunset MS</t>
+          <t>SUNS_MS</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>SUNS_MS</t>
+          <t>1300 S Sunset St, Longmont, CO 80501</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>1300 S Sunset St, Longmont, CO 80501</t>
+          <t>SVVSD</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>SVVSD</t>
+          <t>http://sms.svvsd.org/</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>http://sms.svvsd.org/</t>
+          <t>https://maps.app.goo.gl/2iVHM51MYZg9XEZo9</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/2iVHM51MYZg9XEZo9</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
           <t>Sunset Middle School</t>
         </is>
       </c>
+      <c r="J28" t="n">
+        <v>40.14458073069962</v>
+      </c>
       <c r="K28" t="n">
-        <v>40.14458073069962</v>
-      </c>
-      <c r="L28" t="n">
         <v>-105.1199067185428</v>
       </c>
-      <c r="M28" t="inlineStr">
+      <c r="L28" t="inlineStr">
         <is>
           <t>POINT (-105.1199067185428 40.14458073069962)</t>
         </is>
@@ -2025,51 +1939,48 @@
       <c r="B29" t="n">
         <v>27</v>
       </c>
-      <c r="C29" t="n">
-        <v>27</v>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Timberline PK-8</t>
+        </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Timberline PK-8</t>
+          <t>TIMB_K8</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>TIMB_K8</t>
+          <t>233 E Mountain View Ave, Longmont, CO 80504</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>233 E Mountain View Ave, Longmont, CO 80504</t>
+          <t>SVVSD</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>SVVSD</t>
+          <t>http://tpk8.svvsd.org/</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>http://tpk8.svvsd.org/</t>
+          <t>https://maps.app.goo.gl/Dqyuok7JMiowX96x5</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/Dqyuok7JMiowX96x5</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
           <t>Timberline PK-8 SVVSD</t>
         </is>
       </c>
+      <c r="J29" t="n">
+        <v>40.18091133152473</v>
+      </c>
       <c r="K29" t="n">
-        <v>40.18091133152473</v>
-      </c>
-      <c r="L29" t="n">
         <v>-105.0857347392096</v>
       </c>
-      <c r="M29" t="inlineStr">
+      <c r="L29" t="inlineStr">
         <is>
           <t>POINT (-105.0857347392096 40.18091133152473)</t>
         </is>
@@ -2082,51 +1993,48 @@
       <c r="B30" t="n">
         <v>28</v>
       </c>
-      <c r="C30" t="n">
-        <v>28</v>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Trail Ridge MS</t>
+        </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Trail Ridge MS</t>
+          <t>TRID_MS</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>TRID_MS</t>
+          <t>1000 Button Rock Dr, Longmont, CO 80504</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>1000 Button Rock Dr, Longmont, CO 80504</t>
+          <t>SVVSD</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>SVVSD</t>
+          <t>https://trms.svvsd.org/</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>https://trms.svvsd.org/</t>
+          <t>https://maps.app.goo.gl/jwrYoLXX3rzhtEFy7</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/jwrYoLXX3rzhtEFy7</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
           <t>Trail Ridge Middle School</t>
         </is>
       </c>
+      <c r="J30" t="n">
+        <v>40.17693117783666</v>
+      </c>
       <c r="K30" t="n">
-        <v>40.17693117783666</v>
-      </c>
-      <c r="L30" t="n">
         <v>-105.0576162268638</v>
       </c>
-      <c r="M30" t="inlineStr">
+      <c r="L30" t="inlineStr">
         <is>
           <t>POINT (-105.0576162268638 40.17693117783666)</t>
         </is>
@@ -2139,39 +2047,36 @@
       <c r="B31" t="n">
         <v>29</v>
       </c>
-      <c r="C31" t="n">
-        <v>29</v>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Ward Town Hall</t>
+        </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Ward Community Center</t>
+          <t>WARD</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>WARD</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
           <t>1 Columbia St, Ward, CO 80481</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
+      <c r="J31" t="n">
+        <v>40.0733984409928</v>
+      </c>
       <c r="K31" t="n">
-        <v>40.0733984409928</v>
-      </c>
-      <c r="L31" t="n">
         <v>-105.506518983446</v>
       </c>
-      <c r="M31" t="inlineStr">
+      <c r="L31" t="inlineStr">
         <is>
           <t>POINT (-105.506518983446 40.0733984409928)</t>
         </is>
@@ -2184,51 +2089,48 @@
       <c r="B32" t="n">
         <v>30</v>
       </c>
-      <c r="C32" t="n">
-        <v>30</v>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Horizons K8</t>
+        </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Horizons K8</t>
+          <t>HORI_K8</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>HORI_K8</t>
+          <t>4545 Sioux Dr, Boulder, CO 80303</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>4545 Sioux Dr, Boulder, CO 80303</t>
+          <t>charter school</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>charter school</t>
+          <t>http://www.horizonsk8school.org/</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>http://www.horizonsk8school.org/</t>
+          <t>https://maps.app.goo.gl/XHvYLyzK95buV9zK9</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/XHvYLyzK95buV9zK9</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
           <t>Horizons K-8 School</t>
         </is>
       </c>
+      <c r="J32" t="n">
+        <v>39.9936610442773</v>
+      </c>
       <c r="K32" t="n">
-        <v>39.9936610442773</v>
-      </c>
-      <c r="L32" t="n">
         <v>-105.237949287953</v>
       </c>
-      <c r="M32" t="inlineStr">
+      <c r="L32" t="inlineStr">
         <is>
           <t>POINT (-105.237949287953 39.9936610442773)</t>
         </is>
@@ -2241,51 +2143,48 @@
       <c r="B33" t="n">
         <v>31</v>
       </c>
-      <c r="C33" t="n">
-        <v>31</v>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Platt MS</t>
+        </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Platt MS</t>
+          <t>PLAT_MS</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>PLAT_MS</t>
+          <t>6096 Baseline Rd, Boulder, CO 80303</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>6096 Baseline Rd, Boulder, CO 80303</t>
+          <t>BVSD</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>BVSD</t>
+          <t>http://npm.bvsd.org/</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>http://npm.bvsd.org/</t>
+          <t>https://maps.app.goo.gl/SRxrXgCL5287jJjE8</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/SRxrXgCL5287jJjE8</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
           <t>Nevin Platt Middle School</t>
         </is>
       </c>
+      <c r="J33" t="n">
+        <v>40.0030354657493</v>
+      </c>
       <c r="K33" t="n">
-        <v>40.0030354657493</v>
-      </c>
-      <c r="L33" t="n">
         <v>-105.209456648465</v>
       </c>
-      <c r="M33" t="inlineStr">
+      <c r="L33" t="inlineStr">
         <is>
           <t>POINT (-105.209456648465 40.0030354657493)</t>
         </is>
@@ -2298,51 +2197,48 @@
       <c r="B34" t="n">
         <v>32</v>
       </c>
-      <c r="C34" t="n">
-        <v>32</v>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Erie Elementary</t>
+        </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Erie Elementary</t>
+          <t>ERIE_ES</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>ERIE_ES</t>
+          <t>4137 E County Line Rd, Erie, CO 80516</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>4137 E County Line Rd, Erie, CO 80516</t>
+          <t>SVVSD</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>SVVSD</t>
+          <t>https://ees.svvsd.org/</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>https://ees.svvsd.org/</t>
+          <t>https://maps.app.goo.gl/G29aD86nrnjvwdcr5</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/G29aD86nrnjvwdcr5</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
           <t>Erie Elementary School</t>
         </is>
       </c>
+      <c r="J34" t="n">
+        <v>40.0505686161916</v>
+      </c>
       <c r="K34" t="n">
-        <v>40.0505686161916</v>
-      </c>
-      <c r="L34" t="n">
         <v>-105.055990906269</v>
       </c>
-      <c r="M34" t="inlineStr">
+      <c r="L34" t="inlineStr">
         <is>
           <t>POINT (-105.055990906269 40.0505686161916)</t>
         </is>
@@ -2352,20 +2248,53 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>POINT (nan nan)</t>
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Meadowlark</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>MWLK_P8</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>2300 Meadow Sweet Ln, Erie, CO 80516</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>BVSD</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>https://ml8.bvsd.org/</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/EA1rf9bvvJL3sp8aA</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Meadowlark School</t>
+        </is>
+      </c>
+      <c r="J35" t="n">
+        <v>40.034318124098</v>
+      </c>
+      <c r="K35" t="n">
+        <v>-105.083013187148</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>POINT (-105.083013187148 40.034318124098)</t>
         </is>
       </c>
     </row>
@@ -2383,8 +2312,7 @@
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr">
+      <c r="L36" t="inlineStr">
         <is>
           <t>POINT (nan nan)</t>
         </is>
@@ -2401,15 +2329,34 @@
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>40.0505686161916, -105.05599090626951</t>
-        </is>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr">
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>POINT (nan nan)</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>40.03431812409801, -105.08301318714825</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
         <is>
           <t>POINT (nan nan)</t>
         </is>

--- a/data/venues_all_years_fixed.xlsx
+++ b/data/venues_all_years_fixed.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L38"/>
+  <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,55 +436,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>venue_id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>venue</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>venue_code</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>address</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>org</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>website</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>gmap_link</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>gmap_name</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>lat</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>lon</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>geometry</t>
         </is>
@@ -497,44 +507,50 @@
       <c r="B2" t="n">
         <v>0</v>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>Allenspark Fire Station</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>ALLP_FS</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>14861 CO-7, Allenspark, CO 80510</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
         <is>
           <t>http://www.allensparkfire.com/</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/HYN1GYNb9yE4w4RL7</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>Allenspark Fire Protection</t>
         </is>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>40.19712777610975</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>-105.5279141785934</v>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>POINT (-105.5279141785934 40.19712777610975)</t>
         </is>
@@ -547,48 +563,54 @@
       <c r="B3" t="n">
         <v>1</v>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>Altona MS</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>ALTO_MS</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>4600 Clover Basin Dr, Longmont, CO 80503</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>SVVSD</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>https://ams.svvsd.org/</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/ew5ypnry93DZwFNj8</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>Altona Middle School</t>
         </is>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>40.14448266991539</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>-105.1626179175455</v>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>POINT (-105.1626179175455 40.14448266991539)</t>
         </is>
@@ -601,48 +623,54 @@
       <c r="B4" t="n">
         <v>2</v>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>Angevine MS</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>ANGV_MS</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>1150 W South Boulder Rd, Lafayette, CO 80026</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>BVSD</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>http://anm.bvsd.org/</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/QtidHUByDwtU8Z599</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>Angevine Middle School</t>
         </is>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>39.98955883968855</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>-105.1033574278846</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>POINT (-105.1033574278846 39.98955883968855)</t>
         </is>
@@ -655,48 +683,54 @@
       <c r="B5" t="n">
         <v>3</v>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>Boulder HS</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>BLDR_HS</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>1604 Arapahoe Ave, Boulder, CO 80302</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>BVSD</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>http://boh.bvsd.org/</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/dKMDjeKUL4kjNDMp6</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>Boulder High School</t>
         </is>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>40.01411590640171</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>-105.2728711769165</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>POINT (-105.2728711769165 40.01411590640171)</t>
         </is>
@@ -709,48 +743,54 @@
       <c r="B6" t="n">
         <v>4</v>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4</v>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Burlington Elementary</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>BURL_ES</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>1051 S Pratt Pkwy, Longmont, CO 80501</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>SVVSD</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>http://bes.svvsd.org/</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/QefhqxMskS5oyZY87</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>Burlington Elementary School</t>
         </is>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>40.1466539913149</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>-105.108633248163</v>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>POINT (-105.108633248163 40.1466539913149)</t>
         </is>
@@ -763,48 +803,54 @@
       <c r="B7" t="n">
         <v>5</v>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Casey MS</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>CASE_MS</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>1301 High St, Boulder, CO 80304</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>BVSD</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>http://cam.bvsd.org/</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/kqj3JEma8TPCRKWU9</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>Casey Middle School</t>
         </is>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>40.0228711759357</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>-105.2791579470394</v>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>POINT (-105.2791579470394 40.0228711759357)</t>
         </is>
@@ -817,48 +863,54 @@
       <c r="B8" t="n">
         <v>6</v>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="n">
+        <v>6</v>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Centaurus HS</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>CTAU_HS</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>10300 W South Boulder Rd, Lafayette, CO 80026</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>BVSD</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>http://ceh.bvsd.org/</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/qmDEC4W3XTN7acfs9</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>Centaurus High School</t>
         </is>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>39.98635981263706</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>-105.1125276640655</v>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>POINT (-105.1125276640655 39.98635981263706)</t>
         </is>
@@ -871,48 +923,54 @@
       <c r="B9" t="n">
         <v>7</v>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="n">
+        <v>7</v>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Centennial MS</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>CNTL_MS</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>2205 Norwood Ave, Boulder, CO 80304</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>BVSD</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>http://cem.bvsd.org/</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/tKhhHtoniAvTfpPH9</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>Centennial Middle School</t>
         </is>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>40.04506796264024</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>-105.2671472290834</v>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>POINT (-105.2671472290834 40.04506796264024)</t>
         </is>
@@ -925,48 +983,54 @@
       <c r="B10" t="n">
         <v>8</v>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="n">
+        <v>8</v>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Eldorado K8</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>ELDO_K8</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>3351 S Indiana St, Superior, CO 80027</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>BVSD</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>http://el8.bvsd.org/</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/s2gJjfVYasWGLpMz7</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>Eldorado K-8 School</t>
         </is>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>39.921698179021</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>-105.161197194222</v>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>POINT (-105.161197194222 39.921698179021)</t>
         </is>
@@ -979,40 +1043,46 @@
       <c r="B11" t="n">
         <v>9</v>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="n">
+        <v>9</v>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Eldorado Sp. Fire House</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>ELSP_FS</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>4390 Eldorado Springs Dr, Boulder, CO 80303</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr">
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/TBWeoHAtGKUfwDy79</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>Rocky Mountain Fire District Station 6</t>
         </is>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>39.94266172014046</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>-105.2493101229037</v>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>POINT (-105.2493101229037 39.94266172014046)</t>
         </is>
@@ -1025,48 +1095,54 @@
       <c r="B12" t="n">
         <v>10</v>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="n">
+        <v>10</v>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Erie MS</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>ERIE_MS</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>650 Main St, Erie, CO 80516</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>SVVSD</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>https://ems.svvsd.org/</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/A5evm4HRnAPM1aUp8</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>Erie Middle School</t>
         </is>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>40.05101707648438</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>-105.0529688258069</v>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>POINT (-105.0529688258069 40.05101707648438)</t>
         </is>
@@ -1079,44 +1155,50 @@
       <c r="B13" t="n">
         <v>11</v>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="n">
+        <v>11</v>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Frasier Mead.</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>FRAMDW</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>350 Ponca Pl, Boulder, CO 80303</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
         <is>
           <t>http://www.frasiermeadows.org/</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/RCv4sKncUCjLLnzP7</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>Frasier Retirement Community</t>
         </is>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>39.99456396590154</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>-105.2338815741678</v>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>POINT (-105.2338815741678 39.99456396590154)</t>
         </is>
@@ -1129,48 +1211,54 @@
       <c r="B14" t="n">
         <v>12</v>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="n">
+        <v>12</v>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Gold Hill School</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>GOLD_ES</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>890 Main St, Boulder, CO 80302</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>BVSD</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>http://ghe.bvsd.org/</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/PZV28vuUvb8p7LJs6</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>Gold Hill Elementary School</t>
         </is>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>40.063366273762</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>-105.412472825461</v>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>POINT (-105.412472825461 40.063366273762)</t>
         </is>
@@ -1183,48 +1271,54 @@
       <c r="B15" t="n">
         <v>13</v>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="n">
+        <v>13</v>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Indian Peaks ES</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>INPK_ES</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>1335 S Judson St, Longmont, CO 80501</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>SVVSD</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>https://ipes.svvsd.org/</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/rFzqgoYXNnAMFNG27</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>Indian Peaks Elementary School</t>
         </is>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>40.14327187343834</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>-105.118010493892</v>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>POINT (-105.118010493892 40.14327187343834)</t>
         </is>
@@ -1237,48 +1331,54 @@
       <c r="B16" t="n">
         <v>14</v>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="n">
+        <v>14</v>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Jamestown School</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>JAME_ES</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>111 Mesa St, Jamestown, CO 80455</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>BVSD</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>http://jae.bvsd.org/</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/xaKW9Ljh7VtMuQPf6</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>Jamestown Elementary School</t>
         </is>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>40.1164318137431</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>-105.387802261192</v>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="N16" t="inlineStr">
         <is>
           <t>POINT (-105.387802261192 40.1164318137431)</t>
         </is>
@@ -1291,48 +1391,54 @@
       <c r="B17" t="n">
         <v>15</v>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="n">
+        <v>15</v>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>Longs Peak MS</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>LNGP_MS</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>1500 14th Ave, Longmont, CO 80501</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>SVVSD</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>http://lpms.svvsd.org/</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/44xqEDG33jkv1pN28</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>Longs Peak Middle School</t>
         </is>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>40.18399195721774</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>-105.117518880356</v>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="N17" t="inlineStr">
         <is>
           <t>POINT (-105.117518880356 40.18399195721774)</t>
         </is>
@@ -1345,48 +1451,54 @@
       <c r="B18" t="n">
         <v>16</v>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="n">
+        <v>16</v>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>Louisville MS</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>LSVL_MS</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>1341 Main St, Louisville, CO 80027</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>BVSD</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>http://lom.bvsd.org/</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/VT5YaQMB64667476A</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>Louisville Middle School</t>
         </is>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>39.9841246724845</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>-105.1325745422844</v>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="N18" t="inlineStr">
         <is>
           <t>POINT (-105.1325745422844 39.9841246724845)</t>
         </is>
@@ -1399,48 +1511,54 @@
       <c r="B19" t="n">
         <v>17</v>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="n">
+        <v>17</v>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>Lyons Middle Senior</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>LYON_MS</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>100 McConnell Dr, Lyons, CO 80540</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>SVVSD</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>https://lmshs.svvsd.org/</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/ohTLL54wbPdkJNFA8</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>Lyons Middle/Senior High School</t>
         </is>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>40.2147599852984</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>-105.264461148759</v>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="N19" t="inlineStr">
         <is>
           <t>POINT (-105.264461148759 40.2147599852984)</t>
         </is>
@@ -1453,48 +1571,54 @@
       <c r="B20" t="n">
         <v>18</v>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="n">
+        <v>18</v>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>Manhattan MS</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>MANH_MS</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>290 Manhattan Dr, Boulder, CO 80303</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>BVSD</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>http://mam.bvsd.org/</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/pkEKK86Dh3tGgHz46</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>Manhattan Middle School of Arts and Academics</t>
         </is>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>39.99410342530379</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>-105.2273572175253</v>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="N20" t="inlineStr">
         <is>
           <t>POINT (-105.2273572175253 39.99410342530379)</t>
         </is>
@@ -1507,48 +1631,54 @@
       <c r="B21" t="n">
         <v>19</v>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="n">
+        <v>19</v>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>Monarch HS</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>MONA_HS</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>329 Campus Dr, Louisville, CO 80027</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>BVSD</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>http://moh.bvsd.org/</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/GVkb3S8qP6y3d6Lc6</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>Monarch High School</t>
         </is>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>39.9520220573069</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>-105.141776992356</v>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="N21" t="inlineStr">
         <is>
           <t>POINT (-105.141776992356 39.9520220573069)</t>
         </is>
@@ -1561,48 +1691,54 @@
       <c r="B22" t="n">
         <v>20</v>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="n">
+        <v>20</v>
+      </c>
+      <c r="E22" t="inlineStr">
         <is>
           <t>Monarch K-8</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>MONA_K8</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>263 Campus Dr, Louisville, CO 80027</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>BVSD</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>http://mo8.bvsd.org/</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/fM4A7oD6cKkm9gXJ9</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>Monarch K-8</t>
         </is>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>39.95142599070905</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>-105.1435104051174</v>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="N22" t="inlineStr">
         <is>
           <t>POINT (-105.1435104051174 39.95142599070905)</t>
         </is>
@@ -1615,48 +1751,54 @@
       <c r="B23" t="n">
         <v>21</v>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="n">
+        <v>21</v>
+      </c>
+      <c r="E23" t="inlineStr">
         <is>
           <t>Nederland HS</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>NEDE_HS</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>597 Co Hwy 130, Nederland, CO 80466</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>BVSD</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>https://neh.bvsd.org/</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/mVMWPW4o458ETfhw5</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>Nederland Middle/Senior High School</t>
         </is>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>39.95383849383303</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>-105.5233421126253</v>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="N23" t="inlineStr">
         <is>
           <t>POINT (-105.5233421126253 39.95383849383303)</t>
         </is>
@@ -1669,48 +1811,54 @@
       <c r="B24" t="n">
         <v>22</v>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="n">
+        <v>22</v>
+      </c>
+      <c r="E24" t="inlineStr">
         <is>
           <t>New Vista</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>NVIST_HS</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>700 20th St, Boulder, CO 80302</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>BVSD</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>http://nvh.bvsd.org/</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/mVZ7Cv3jx5iSPW3u9</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>New Vista High School</t>
         </is>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>40.0011978462681</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>-105.266504379284</v>
       </c>
-      <c r="L24" t="inlineStr">
+      <c r="N24" t="inlineStr">
         <is>
           <t>POINT (-105.266504379284 40.0011978462681)</t>
         </is>
@@ -1723,48 +1871,54 @@
       <c r="B25" t="n">
         <v>23</v>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="n">
+        <v>23</v>
+      </c>
+      <c r="E25" t="inlineStr">
         <is>
           <t>Niwot HS</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>NIWO_HS</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>8989 Niwot Rd, Niwot, CO 80503</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>SVVSD</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>https://nhs.svvsd.org/</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/VmRuiC4cCzQrbJPR7</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>Niwot High School</t>
         </is>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>40.10369506217272</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>-105.1442414652976</v>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="N25" t="inlineStr">
         <is>
           <t>POINT (-105.1442414652976 40.10369506217272)</t>
         </is>
@@ -1777,48 +1931,54 @@
       <c r="B26" t="n">
         <v>24</v>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="n">
+        <v>24</v>
+      </c>
+      <c r="E26" t="inlineStr">
         <is>
           <t>Silver Creek HS</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>SILV_HS</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>4901 Nelson Rd, Longmont, CO 80503</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>SVVSD</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>http://schs.svvsd.org/</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/6j7ZvjGuNgq38Uv1A</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>Silver Creek High School</t>
         </is>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>40.15137160754995</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>-105.1665699930847</v>
       </c>
-      <c r="L26" t="inlineStr">
+      <c r="N26" t="inlineStr">
         <is>
           <t>POINT (-105.1665699930847 40.15137160754995)</t>
         </is>
@@ -1831,48 +1991,54 @@
       <c r="B27" t="n">
         <v>25</v>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="n">
+        <v>25</v>
+      </c>
+      <c r="E27" t="inlineStr">
         <is>
           <t>Southern Hills MS</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>SHIL_MS</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>1500 Knox Dr, Boulder, CO 80305</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>BVSD</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>http://shm.bvsd.org/</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/J5CQaiF7gt1pezXm8</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>Southern Hills Middle School</t>
         </is>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>39.97413389369987</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>-105.2452260530946</v>
       </c>
-      <c r="L27" t="inlineStr">
+      <c r="N27" t="inlineStr">
         <is>
           <t>POINT (-105.2452260530946 39.97413389369987)</t>
         </is>
@@ -1885,48 +2051,54 @@
       <c r="B28" t="n">
         <v>26</v>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="n">
+        <v>26</v>
+      </c>
+      <c r="E28" t="inlineStr">
         <is>
           <t>Sunset MS</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>SUNS_MS</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>1300 S Sunset St, Longmont, CO 80501</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>SVVSD</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>http://sms.svvsd.org/</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/2iVHM51MYZg9XEZo9</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>Sunset Middle School</t>
         </is>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>40.14458073069962</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>-105.1199067185428</v>
       </c>
-      <c r="L28" t="inlineStr">
+      <c r="N28" t="inlineStr">
         <is>
           <t>POINT (-105.1199067185428 40.14458073069962)</t>
         </is>
@@ -1939,48 +2111,54 @@
       <c r="B29" t="n">
         <v>27</v>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="n">
+        <v>27</v>
+      </c>
+      <c r="E29" t="inlineStr">
         <is>
           <t>Timberline PK-8</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>TIMB_K8</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>233 E Mountain View Ave, Longmont, CO 80504</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>SVVSD</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>http://tpk8.svvsd.org/</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/Dqyuok7JMiowX96x5</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>Timberline PK-8 SVVSD</t>
         </is>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>40.18091133152473</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>-105.0857347392096</v>
       </c>
-      <c r="L29" t="inlineStr">
+      <c r="N29" t="inlineStr">
         <is>
           <t>POINT (-105.0857347392096 40.18091133152473)</t>
         </is>
@@ -1993,48 +2171,54 @@
       <c r="B30" t="n">
         <v>28</v>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="n">
+        <v>28</v>
+      </c>
+      <c r="E30" t="inlineStr">
         <is>
           <t>Trail Ridge MS</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>TRID_MS</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>1000 Button Rock Dr, Longmont, CO 80504</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>SVVSD</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>https://trms.svvsd.org/</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/jwrYoLXX3rzhtEFy7</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>Trail Ridge Middle School</t>
         </is>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>40.17693117783666</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>-105.0576162268638</v>
       </c>
-      <c r="L30" t="inlineStr">
+      <c r="N30" t="inlineStr">
         <is>
           <t>POINT (-105.0576162268638 40.17693117783666)</t>
         </is>
@@ -2047,36 +2231,42 @@
       <c r="B31" t="n">
         <v>29</v>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="n">
+        <v>29</v>
+      </c>
+      <c r="E31" t="inlineStr">
         <is>
           <t>Ward Town Hall</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>WARD</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>1 Columbia St, Ward, CO 80481</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="J31" t="n">
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="L31" t="n">
         <v>40.0733984409928</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>-105.506518983446</v>
       </c>
-      <c r="L31" t="inlineStr">
+      <c r="N31" t="inlineStr">
         <is>
           <t>POINT (-105.506518983446 40.0733984409928)</t>
         </is>
@@ -2089,48 +2279,54 @@
       <c r="B32" t="n">
         <v>30</v>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="n">
+        <v>30</v>
+      </c>
+      <c r="E32" t="inlineStr">
         <is>
           <t>Horizons K8</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>HORI_K8</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>4545 Sioux Dr, Boulder, CO 80303</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>charter school</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>http://www.horizonsk8school.org/</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/XHvYLyzK95buV9zK9</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr">
+      <c r="K32" t="inlineStr">
         <is>
           <t>Horizons K-8 School</t>
         </is>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>39.9936610442773</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>-105.237949287953</v>
       </c>
-      <c r="L32" t="inlineStr">
+      <c r="N32" t="inlineStr">
         <is>
           <t>POINT (-105.237949287953 39.9936610442773)</t>
         </is>
@@ -2143,48 +2339,54 @@
       <c r="B33" t="n">
         <v>31</v>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="n">
+        <v>31</v>
+      </c>
+      <c r="E33" t="inlineStr">
         <is>
           <t>Platt MS</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>PLAT_MS</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>6096 Baseline Rd, Boulder, CO 80303</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>BVSD</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>http://npm.bvsd.org/</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="J33" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/SRxrXgCL5287jJjE8</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr">
+      <c r="K33" t="inlineStr">
         <is>
           <t>Nevin Platt Middle School</t>
         </is>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>40.0030354657493</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>-105.209456648465</v>
       </c>
-      <c r="L33" t="inlineStr">
+      <c r="N33" t="inlineStr">
         <is>
           <t>POINT (-105.209456648465 40.0030354657493)</t>
         </is>
@@ -2197,48 +2399,54 @@
       <c r="B34" t="n">
         <v>32</v>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="n">
+        <v>32</v>
+      </c>
+      <c r="E34" t="inlineStr">
         <is>
           <t>Erie Elementary</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>ERIE_ES</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>4137 E County Line Rd, Erie, CO 80516</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>SVVSD</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>https://ees.svvsd.org/</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
+      <c r="J34" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/G29aD86nrnjvwdcr5</t>
         </is>
       </c>
-      <c r="I34" t="inlineStr">
+      <c r="K34" t="inlineStr">
         <is>
           <t>Erie Elementary School</t>
         </is>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>40.0505686161916</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>-105.055990906269</v>
       </c>
-      <c r="L34" t="inlineStr">
+      <c r="N34" t="inlineStr">
         <is>
           <t>POINT (-105.055990906269 40.0505686161916)</t>
         </is>
@@ -2251,48 +2459,54 @@
       <c r="B35" t="n">
         <v>33</v>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="n">
+        <v>33</v>
+      </c>
+      <c r="E35" t="inlineStr">
         <is>
           <t>Meadowlark</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>MWLK_P8</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>2300 Meadow Sweet Ln, Erie, CO 80516</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>BVSD</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>https://ml8.bvsd.org/</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
+      <c r="J35" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/EA1rf9bvvJL3sp8aA</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr">
+      <c r="K35" t="inlineStr">
         <is>
           <t>Meadowlark School</t>
         </is>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>40.034318124098</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>-105.083013187148</v>
       </c>
-      <c r="L35" t="inlineStr">
+      <c r="N35" t="inlineStr">
         <is>
           <t>POINT (-105.083013187148 40.034318124098)</t>
         </is>
@@ -2302,8 +2516,12 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr"/>
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
@@ -2312,9 +2530,11 @@
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>POINT (nan nan)</t>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>POINT EMPTY</t>
         </is>
       </c>
     </row>
@@ -2322,8 +2542,12 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr"/>
-      <c r="C37" t="inlineStr"/>
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
@@ -2332,9 +2556,11 @@
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>POINT (nan nan)</t>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>POINT EMPTY</t>
         </is>
       </c>
     </row>
@@ -2342,23 +2568,29 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr"/>
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr">
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
         <is>
           <t>40.03431812409801, -105.08301318714825</t>
         </is>
       </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>POINT (nan nan)</t>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>POINT EMPTY</t>
         </is>
       </c>
     </row>

--- a/data/venues_all_years_fixed.xlsx
+++ b/data/venues_all_years_fixed.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N38"/>
+  <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,65 +436,75 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.3</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Unnamed: 0.1</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>venue_id</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>venue</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>venue_code</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>address</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>org</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>website</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>gmap_link</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>gmap_name</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>lat</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>lon</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>geometry</t>
         </is>
@@ -513,44 +523,50 @@
       <c r="D2" t="n">
         <v>0</v>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
         <is>
           <t>Allenspark Fire Station</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>ALLP_FS</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>14861 CO-7, Allenspark, CO 80510</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
         <is>
           <t>http://www.allensparkfire.com/</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/HYN1GYNb9yE4w4RL7</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>Allenspark Fire Protection</t>
         </is>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>40.19712777610975</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>-105.5279141785934</v>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>POINT (-105.5279141785934 40.19712777610975)</t>
         </is>
@@ -569,48 +585,54 @@
       <c r="D3" t="n">
         <v>1</v>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="inlineStr">
         <is>
           <t>Altona MS</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>ALTO_MS</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>4600 Clover Basin Dr, Longmont, CO 80503</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>SVVSD</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>https://ams.svvsd.org/</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/ew5ypnry93DZwFNj8</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>Altona Middle School</t>
         </is>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>40.14448266991539</v>
       </c>
-      <c r="M3" t="n">
+      <c r="O3" t="n">
         <v>-105.1626179175455</v>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>POINT (-105.1626179175455 40.14448266991539)</t>
         </is>
@@ -629,48 +651,54 @@
       <c r="D4" t="n">
         <v>2</v>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" t="inlineStr">
         <is>
           <t>Angevine MS</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>ANGV_MS</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>1150 W South Boulder Rd, Lafayette, CO 80026</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>BVSD</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>http://anm.bvsd.org/</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/QtidHUByDwtU8Z599</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>Angevine Middle School</t>
         </is>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>39.98955883968855</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
         <v>-105.1033574278846</v>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>POINT (-105.1033574278846 39.98955883968855)</t>
         </is>
@@ -689,48 +717,54 @@
       <c r="D5" t="n">
         <v>3</v>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" t="n">
+        <v>3</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G5" t="inlineStr">
         <is>
           <t>Boulder HS</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>BLDR_HS</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>1604 Arapahoe Ave, Boulder, CO 80302</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>BVSD</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>http://boh.bvsd.org/</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/dKMDjeKUL4kjNDMp6</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>Boulder High School</t>
         </is>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>40.01411590640171</v>
       </c>
-      <c r="M5" t="n">
+      <c r="O5" t="n">
         <v>-105.2728711769165</v>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>POINT (-105.2728711769165 40.01411590640171)</t>
         </is>
@@ -749,48 +783,54 @@
       <c r="D6" t="n">
         <v>4</v>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G6" t="inlineStr">
         <is>
           <t>Burlington Elementary</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>BURL_ES</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>1051 S Pratt Pkwy, Longmont, CO 80501</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>SVVSD</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>http://bes.svvsd.org/</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/QefhqxMskS5oyZY87</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>Burlington Elementary School</t>
         </is>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>40.1466539913149</v>
       </c>
-      <c r="M6" t="n">
+      <c r="O6" t="n">
         <v>-105.108633248163</v>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>POINT (-105.108633248163 40.1466539913149)</t>
         </is>
@@ -809,48 +849,54 @@
       <c r="D7" t="n">
         <v>5</v>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E7" t="n">
+        <v>5</v>
+      </c>
+      <c r="F7" t="n">
+        <v>5</v>
+      </c>
+      <c r="G7" t="inlineStr">
         <is>
           <t>Casey MS</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>CASE_MS</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>1301 High St, Boulder, CO 80304</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>BVSD</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>http://cam.bvsd.org/</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/kqj3JEma8TPCRKWU9</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>Casey Middle School</t>
         </is>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>40.0228711759357</v>
       </c>
-      <c r="M7" t="n">
+      <c r="O7" t="n">
         <v>-105.2791579470394</v>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>POINT (-105.2791579470394 40.0228711759357)</t>
         </is>
@@ -869,48 +915,54 @@
       <c r="D8" t="n">
         <v>6</v>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E8" t="n">
+        <v>6</v>
+      </c>
+      <c r="F8" t="n">
+        <v>6</v>
+      </c>
+      <c r="G8" t="inlineStr">
         <is>
           <t>Centaurus HS</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>CTAU_HS</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>10300 W South Boulder Rd, Lafayette, CO 80026</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>BVSD</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>http://ceh.bvsd.org/</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/qmDEC4W3XTN7acfs9</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>Centaurus High School</t>
         </is>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>39.98635981263706</v>
       </c>
-      <c r="M8" t="n">
+      <c r="O8" t="n">
         <v>-105.1125276640655</v>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>POINT (-105.1125276640655 39.98635981263706)</t>
         </is>
@@ -929,48 +981,54 @@
       <c r="D9" t="n">
         <v>7</v>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E9" t="n">
+        <v>7</v>
+      </c>
+      <c r="F9" t="n">
+        <v>7</v>
+      </c>
+      <c r="G9" t="inlineStr">
         <is>
           <t>Centennial MS</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>CNTL_MS</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>2205 Norwood Ave, Boulder, CO 80304</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>BVSD</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>http://cem.bvsd.org/</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/tKhhHtoniAvTfpPH9</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>Centennial Middle School</t>
         </is>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>40.04506796264024</v>
       </c>
-      <c r="M9" t="n">
+      <c r="O9" t="n">
         <v>-105.2671472290834</v>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>POINT (-105.2671472290834 40.04506796264024)</t>
         </is>
@@ -989,48 +1047,54 @@
       <c r="D10" t="n">
         <v>8</v>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E10" t="n">
+        <v>8</v>
+      </c>
+      <c r="F10" t="n">
+        <v>8</v>
+      </c>
+      <c r="G10" t="inlineStr">
         <is>
           <t>Eldorado K8</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>ELDO_K8</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>3351 S Indiana St, Superior, CO 80027</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>BVSD</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>http://el8.bvsd.org/</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/s2gJjfVYasWGLpMz7</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>Eldorado K-8 School</t>
         </is>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>39.921698179021</v>
       </c>
-      <c r="M10" t="n">
+      <c r="O10" t="n">
         <v>-105.161197194222</v>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>POINT (-105.161197194222 39.921698179021)</t>
         </is>
@@ -1049,40 +1113,46 @@
       <c r="D11" t="n">
         <v>9</v>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E11" t="n">
+        <v>9</v>
+      </c>
+      <c r="F11" t="n">
+        <v>9</v>
+      </c>
+      <c r="G11" t="inlineStr">
         <is>
           <t>Eldorado Sp. Fire House</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>ELSP_FS</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>4390 Eldorado Springs Dr, Boulder, CO 80303</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr">
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/TBWeoHAtGKUfwDy79</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>Rocky Mountain Fire District Station 6</t>
         </is>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>39.94266172014046</v>
       </c>
-      <c r="M11" t="n">
+      <c r="O11" t="n">
         <v>-105.2493101229037</v>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>POINT (-105.2493101229037 39.94266172014046)</t>
         </is>
@@ -1101,48 +1171,54 @@
       <c r="D12" t="n">
         <v>10</v>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E12" t="n">
+        <v>10</v>
+      </c>
+      <c r="F12" t="n">
+        <v>10</v>
+      </c>
+      <c r="G12" t="inlineStr">
         <is>
           <t>Erie MS</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>ERIE_MS</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>650 Main St, Erie, CO 80516</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>SVVSD</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>https://ems.svvsd.org/</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/A5evm4HRnAPM1aUp8</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>Erie Middle School</t>
         </is>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>40.05101707648438</v>
       </c>
-      <c r="M12" t="n">
+      <c r="O12" t="n">
         <v>-105.0529688258069</v>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>POINT (-105.0529688258069 40.05101707648438)</t>
         </is>
@@ -1161,44 +1237,50 @@
       <c r="D13" t="n">
         <v>11</v>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E13" t="n">
+        <v>11</v>
+      </c>
+      <c r="F13" t="n">
+        <v>11</v>
+      </c>
+      <c r="G13" t="inlineStr">
         <is>
           <t>Frasier Mead.</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>FRAMDW</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>350 Ponca Pl, Boulder, CO 80303</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr">
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
         <is>
           <t>http://www.frasiermeadows.org/</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/RCv4sKncUCjLLnzP7</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>Frasier Retirement Community</t>
         </is>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>39.99456396590154</v>
       </c>
-      <c r="M13" t="n">
+      <c r="O13" t="n">
         <v>-105.2338815741678</v>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="P13" t="inlineStr">
         <is>
           <t>POINT (-105.2338815741678 39.99456396590154)</t>
         </is>
@@ -1217,48 +1299,54 @@
       <c r="D14" t="n">
         <v>12</v>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E14" t="n">
+        <v>12</v>
+      </c>
+      <c r="F14" t="n">
+        <v>12</v>
+      </c>
+      <c r="G14" t="inlineStr">
         <is>
           <t>Gold Hill School</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>GOLD_ES</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>890 Main St, Boulder, CO 80302</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>BVSD</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>http://ghe.bvsd.org/</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/PZV28vuUvb8p7LJs6</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>Gold Hill Elementary School</t>
         </is>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>40.063366273762</v>
       </c>
-      <c r="M14" t="n">
+      <c r="O14" t="n">
         <v>-105.412472825461</v>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="P14" t="inlineStr">
         <is>
           <t>POINT (-105.412472825461 40.063366273762)</t>
         </is>
@@ -1277,48 +1365,54 @@
       <c r="D15" t="n">
         <v>13</v>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E15" t="n">
+        <v>13</v>
+      </c>
+      <c r="F15" t="n">
+        <v>13</v>
+      </c>
+      <c r="G15" t="inlineStr">
         <is>
           <t>Indian Peaks ES</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>INPK_ES</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>1335 S Judson St, Longmont, CO 80501</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>SVVSD</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>https://ipes.svvsd.org/</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/rFzqgoYXNnAMFNG27</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>Indian Peaks Elementary School</t>
         </is>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>40.14327187343834</v>
       </c>
-      <c r="M15" t="n">
+      <c r="O15" t="n">
         <v>-105.118010493892</v>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="P15" t="inlineStr">
         <is>
           <t>POINT (-105.118010493892 40.14327187343834)</t>
         </is>
@@ -1337,48 +1431,54 @@
       <c r="D16" t="n">
         <v>14</v>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E16" t="n">
+        <v>14</v>
+      </c>
+      <c r="F16" t="n">
+        <v>14</v>
+      </c>
+      <c r="G16" t="inlineStr">
         <is>
           <t>Jamestown School</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>JAME_ES</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>111 Mesa St, Jamestown, CO 80455</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>BVSD</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>http://jae.bvsd.org/</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/xaKW9Ljh7VtMuQPf6</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="M16" t="inlineStr">
         <is>
           <t>Jamestown Elementary School</t>
         </is>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>40.1164318137431</v>
       </c>
-      <c r="M16" t="n">
+      <c r="O16" t="n">
         <v>-105.387802261192</v>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="P16" t="inlineStr">
         <is>
           <t>POINT (-105.387802261192 40.1164318137431)</t>
         </is>
@@ -1397,48 +1497,54 @@
       <c r="D17" t="n">
         <v>15</v>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E17" t="n">
+        <v>15</v>
+      </c>
+      <c r="F17" t="n">
+        <v>15</v>
+      </c>
+      <c r="G17" t="inlineStr">
         <is>
           <t>Longs Peak MS</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>LNGP_MS</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>1500 14th Ave, Longmont, CO 80501</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>SVVSD</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>http://lpms.svvsd.org/</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="L17" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/44xqEDG33jkv1pN28</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="M17" t="inlineStr">
         <is>
           <t>Longs Peak Middle School</t>
         </is>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>40.18399195721774</v>
       </c>
-      <c r="M17" t="n">
+      <c r="O17" t="n">
         <v>-105.117518880356</v>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="P17" t="inlineStr">
         <is>
           <t>POINT (-105.117518880356 40.18399195721774)</t>
         </is>
@@ -1457,48 +1563,54 @@
       <c r="D18" t="n">
         <v>16</v>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E18" t="n">
+        <v>16</v>
+      </c>
+      <c r="F18" t="n">
+        <v>16</v>
+      </c>
+      <c r="G18" t="inlineStr">
         <is>
           <t>Louisville MS</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>LSVL_MS</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>1341 Main St, Louisville, CO 80027</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>BVSD</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>http://lom.bvsd.org/</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="L18" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/VT5YaQMB64667476A</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="M18" t="inlineStr">
         <is>
           <t>Louisville Middle School</t>
         </is>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>39.9841246724845</v>
       </c>
-      <c r="M18" t="n">
+      <c r="O18" t="n">
         <v>-105.1325745422844</v>
       </c>
-      <c r="N18" t="inlineStr">
+      <c r="P18" t="inlineStr">
         <is>
           <t>POINT (-105.1325745422844 39.9841246724845)</t>
         </is>
@@ -1517,48 +1629,54 @@
       <c r="D19" t="n">
         <v>17</v>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="E19" t="n">
+        <v>17</v>
+      </c>
+      <c r="F19" t="n">
+        <v>17</v>
+      </c>
+      <c r="G19" t="inlineStr">
         <is>
           <t>Lyons Middle Senior</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>LYON_MS</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>100 McConnell Dr, Lyons, CO 80540</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>SVVSD</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>https://lmshs.svvsd.org/</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="L19" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/ohTLL54wbPdkJNFA8</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
+      <c r="M19" t="inlineStr">
         <is>
           <t>Lyons Middle/Senior High School</t>
         </is>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>40.2147599852984</v>
       </c>
-      <c r="M19" t="n">
+      <c r="O19" t="n">
         <v>-105.264461148759</v>
       </c>
-      <c r="N19" t="inlineStr">
+      <c r="P19" t="inlineStr">
         <is>
           <t>POINT (-105.264461148759 40.2147599852984)</t>
         </is>
@@ -1577,48 +1695,54 @@
       <c r="D20" t="n">
         <v>18</v>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="E20" t="n">
+        <v>18</v>
+      </c>
+      <c r="F20" t="n">
+        <v>18</v>
+      </c>
+      <c r="G20" t="inlineStr">
         <is>
           <t>Manhattan MS</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>MANH_MS</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>290 Manhattan Dr, Boulder, CO 80303</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>BVSD</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>http://mam.bvsd.org/</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="L20" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/pkEKK86Dh3tGgHz46</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
+      <c r="M20" t="inlineStr">
         <is>
           <t>Manhattan Middle School of Arts and Academics</t>
         </is>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>39.99410342530379</v>
       </c>
-      <c r="M20" t="n">
+      <c r="O20" t="n">
         <v>-105.2273572175253</v>
       </c>
-      <c r="N20" t="inlineStr">
+      <c r="P20" t="inlineStr">
         <is>
           <t>POINT (-105.2273572175253 39.99410342530379)</t>
         </is>
@@ -1637,48 +1761,54 @@
       <c r="D21" t="n">
         <v>19</v>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E21" t="n">
+        <v>19</v>
+      </c>
+      <c r="F21" t="n">
+        <v>19</v>
+      </c>
+      <c r="G21" t="inlineStr">
         <is>
           <t>Monarch HS</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>MONA_HS</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>329 Campus Dr, Louisville, CO 80027</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>BVSD</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>http://moh.bvsd.org/</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="L21" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/GVkb3S8qP6y3d6Lc6</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
+      <c r="M21" t="inlineStr">
         <is>
           <t>Monarch High School</t>
         </is>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>39.9520220573069</v>
       </c>
-      <c r="M21" t="n">
+      <c r="O21" t="n">
         <v>-105.141776992356</v>
       </c>
-      <c r="N21" t="inlineStr">
+      <c r="P21" t="inlineStr">
         <is>
           <t>POINT (-105.141776992356 39.9520220573069)</t>
         </is>
@@ -1697,48 +1827,54 @@
       <c r="D22" t="n">
         <v>20</v>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="E22" t="n">
+        <v>20</v>
+      </c>
+      <c r="F22" t="n">
+        <v>20</v>
+      </c>
+      <c r="G22" t="inlineStr">
         <is>
           <t>Monarch K-8</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>MONA_K8</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>263 Campus Dr, Louisville, CO 80027</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>BVSD</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>http://mo8.bvsd.org/</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="L22" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/fM4A7oD6cKkm9gXJ9</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
+      <c r="M22" t="inlineStr">
         <is>
           <t>Monarch K-8</t>
         </is>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>39.95142599070905</v>
       </c>
-      <c r="M22" t="n">
+      <c r="O22" t="n">
         <v>-105.1435104051174</v>
       </c>
-      <c r="N22" t="inlineStr">
+      <c r="P22" t="inlineStr">
         <is>
           <t>POINT (-105.1435104051174 39.95142599070905)</t>
         </is>
@@ -1757,48 +1893,54 @@
       <c r="D23" t="n">
         <v>21</v>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="E23" t="n">
+        <v>21</v>
+      </c>
+      <c r="F23" t="n">
+        <v>21</v>
+      </c>
+      <c r="G23" t="inlineStr">
         <is>
           <t>Nederland HS</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>NEDE_HS</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>597 Co Hwy 130, Nederland, CO 80466</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>BVSD</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>https://neh.bvsd.org/</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="L23" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/mVMWPW4o458ETfhw5</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr">
+      <c r="M23" t="inlineStr">
         <is>
           <t>Nederland Middle/Senior High School</t>
         </is>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>39.95383849383303</v>
       </c>
-      <c r="M23" t="n">
+      <c r="O23" t="n">
         <v>-105.5233421126253</v>
       </c>
-      <c r="N23" t="inlineStr">
+      <c r="P23" t="inlineStr">
         <is>
           <t>POINT (-105.5233421126253 39.95383849383303)</t>
         </is>
@@ -1817,48 +1959,54 @@
       <c r="D24" t="n">
         <v>22</v>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="E24" t="n">
+        <v>22</v>
+      </c>
+      <c r="F24" t="n">
+        <v>22</v>
+      </c>
+      <c r="G24" t="inlineStr">
         <is>
           <t>New Vista</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>NVIST_HS</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>700 20th St, Boulder, CO 80302</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>BVSD</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>http://nvh.bvsd.org/</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
+      <c r="L24" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/mVZ7Cv3jx5iSPW3u9</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr">
+      <c r="M24" t="inlineStr">
         <is>
           <t>New Vista High School</t>
         </is>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>40.0011978462681</v>
       </c>
-      <c r="M24" t="n">
+      <c r="O24" t="n">
         <v>-105.266504379284</v>
       </c>
-      <c r="N24" t="inlineStr">
+      <c r="P24" t="inlineStr">
         <is>
           <t>POINT (-105.266504379284 40.0011978462681)</t>
         </is>
@@ -1877,48 +2025,54 @@
       <c r="D25" t="n">
         <v>23</v>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="E25" t="n">
+        <v>23</v>
+      </c>
+      <c r="F25" t="n">
+        <v>23</v>
+      </c>
+      <c r="G25" t="inlineStr">
         <is>
           <t>Niwot HS</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>NIWO_HS</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>8989 Niwot Rd, Niwot, CO 80503</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>SVVSD</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>https://nhs.svvsd.org/</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="L25" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/VmRuiC4cCzQrbJPR7</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr">
+      <c r="M25" t="inlineStr">
         <is>
           <t>Niwot High School</t>
         </is>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>40.10369506217272</v>
       </c>
-      <c r="M25" t="n">
+      <c r="O25" t="n">
         <v>-105.1442414652976</v>
       </c>
-      <c r="N25" t="inlineStr">
+      <c r="P25" t="inlineStr">
         <is>
           <t>POINT (-105.1442414652976 40.10369506217272)</t>
         </is>
@@ -1937,48 +2091,54 @@
       <c r="D26" t="n">
         <v>24</v>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="E26" t="n">
+        <v>24</v>
+      </c>
+      <c r="F26" t="n">
+        <v>24</v>
+      </c>
+      <c r="G26" t="inlineStr">
         <is>
           <t>Silver Creek HS</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>SILV_HS</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>4901 Nelson Rd, Longmont, CO 80503</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>SVVSD</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>http://schs.svvsd.org/</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
+      <c r="L26" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/6j7ZvjGuNgq38Uv1A</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr">
+      <c r="M26" t="inlineStr">
         <is>
           <t>Silver Creek High School</t>
         </is>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>40.15137160754995</v>
       </c>
-      <c r="M26" t="n">
+      <c r="O26" t="n">
         <v>-105.1665699930847</v>
       </c>
-      <c r="N26" t="inlineStr">
+      <c r="P26" t="inlineStr">
         <is>
           <t>POINT (-105.1665699930847 40.15137160754995)</t>
         </is>
@@ -1997,48 +2157,54 @@
       <c r="D27" t="n">
         <v>25</v>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="E27" t="n">
+        <v>25</v>
+      </c>
+      <c r="F27" t="n">
+        <v>25</v>
+      </c>
+      <c r="G27" t="inlineStr">
         <is>
           <t>Southern Hills MS</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>SHIL_MS</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>1500 Knox Dr, Boulder, CO 80305</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>BVSD</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>http://shm.bvsd.org/</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
+      <c r="L27" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/J5CQaiF7gt1pezXm8</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr">
+      <c r="M27" t="inlineStr">
         <is>
           <t>Southern Hills Middle School</t>
         </is>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>39.97413389369987</v>
       </c>
-      <c r="M27" t="n">
+      <c r="O27" t="n">
         <v>-105.2452260530946</v>
       </c>
-      <c r="N27" t="inlineStr">
+      <c r="P27" t="inlineStr">
         <is>
           <t>POINT (-105.2452260530946 39.97413389369987)</t>
         </is>
@@ -2057,48 +2223,54 @@
       <c r="D28" t="n">
         <v>26</v>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="E28" t="n">
+        <v>26</v>
+      </c>
+      <c r="F28" t="n">
+        <v>26</v>
+      </c>
+      <c r="G28" t="inlineStr">
         <is>
           <t>Sunset MS</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>SUNS_MS</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>1300 S Sunset St, Longmont, CO 80501</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>SVVSD</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>http://sms.svvsd.org/</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr">
+      <c r="L28" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/2iVHM51MYZg9XEZo9</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr">
+      <c r="M28" t="inlineStr">
         <is>
           <t>Sunset Middle School</t>
         </is>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>40.14458073069962</v>
       </c>
-      <c r="M28" t="n">
+      <c r="O28" t="n">
         <v>-105.1199067185428</v>
       </c>
-      <c r="N28" t="inlineStr">
+      <c r="P28" t="inlineStr">
         <is>
           <t>POINT (-105.1199067185428 40.14458073069962)</t>
         </is>
@@ -2117,48 +2289,54 @@
       <c r="D29" t="n">
         <v>27</v>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="E29" t="n">
+        <v>27</v>
+      </c>
+      <c r="F29" t="n">
+        <v>27</v>
+      </c>
+      <c r="G29" t="inlineStr">
         <is>
           <t>Timberline PK-8</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>TIMB_K8</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>233 E Mountain View Ave, Longmont, CO 80504</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>SVVSD</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>http://tpk8.svvsd.org/</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr">
+      <c r="L29" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/Dqyuok7JMiowX96x5</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr">
+      <c r="M29" t="inlineStr">
         <is>
           <t>Timberline PK-8 SVVSD</t>
         </is>
       </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
         <v>40.18091133152473</v>
       </c>
-      <c r="M29" t="n">
+      <c r="O29" t="n">
         <v>-105.0857347392096</v>
       </c>
-      <c r="N29" t="inlineStr">
+      <c r="P29" t="inlineStr">
         <is>
           <t>POINT (-105.0857347392096 40.18091133152473)</t>
         </is>
@@ -2177,48 +2355,54 @@
       <c r="D30" t="n">
         <v>28</v>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="E30" t="n">
+        <v>28</v>
+      </c>
+      <c r="F30" t="n">
+        <v>28</v>
+      </c>
+      <c r="G30" t="inlineStr">
         <is>
           <t>Trail Ridge MS</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>TRID_MS</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>1000 Button Rock Dr, Longmont, CO 80504</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>SVVSD</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>https://trms.svvsd.org/</t>
         </is>
       </c>
-      <c r="J30" t="inlineStr">
+      <c r="L30" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/jwrYoLXX3rzhtEFy7</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr">
+      <c r="M30" t="inlineStr">
         <is>
           <t>Trail Ridge Middle School</t>
         </is>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>40.17693117783666</v>
       </c>
-      <c r="M30" t="n">
+      <c r="O30" t="n">
         <v>-105.0576162268638</v>
       </c>
-      <c r="N30" t="inlineStr">
+      <c r="P30" t="inlineStr">
         <is>
           <t>POINT (-105.0576162268638 40.17693117783666)</t>
         </is>
@@ -2237,36 +2421,42 @@
       <c r="D31" t="n">
         <v>29</v>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="E31" t="n">
+        <v>29</v>
+      </c>
+      <c r="F31" t="n">
+        <v>29</v>
+      </c>
+      <c r="G31" t="inlineStr">
         <is>
           <t>Ward Town Hall</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>WARD</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>1 Columbia St, Ward, CO 80481</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="L31" t="n">
+      <c r="N31" t="n">
         <v>40.0733984409928</v>
       </c>
-      <c r="M31" t="n">
+      <c r="O31" t="n">
         <v>-105.506518983446</v>
       </c>
-      <c r="N31" t="inlineStr">
+      <c r="P31" t="inlineStr">
         <is>
           <t>POINT (-105.506518983446 40.0733984409928)</t>
         </is>
@@ -2285,48 +2475,54 @@
       <c r="D32" t="n">
         <v>30</v>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="E32" t="n">
+        <v>30</v>
+      </c>
+      <c r="F32" t="n">
+        <v>30</v>
+      </c>
+      <c r="G32" t="inlineStr">
         <is>
           <t>Horizons K8</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>HORI_K8</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>4545 Sioux Dr, Boulder, CO 80303</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>charter school</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr">
+      <c r="K32" t="inlineStr">
         <is>
           <t>http://www.horizonsk8school.org/</t>
         </is>
       </c>
-      <c r="J32" t="inlineStr">
+      <c r="L32" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/XHvYLyzK95buV9zK9</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr">
+      <c r="M32" t="inlineStr">
         <is>
           <t>Horizons K-8 School</t>
         </is>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>39.9936610442773</v>
       </c>
-      <c r="M32" t="n">
+      <c r="O32" t="n">
         <v>-105.237949287953</v>
       </c>
-      <c r="N32" t="inlineStr">
+      <c r="P32" t="inlineStr">
         <is>
           <t>POINT (-105.237949287953 39.9936610442773)</t>
         </is>
@@ -2345,48 +2541,54 @@
       <c r="D33" t="n">
         <v>31</v>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="E33" t="n">
+        <v>31</v>
+      </c>
+      <c r="F33" t="n">
+        <v>31</v>
+      </c>
+      <c r="G33" t="inlineStr">
         <is>
           <t>Platt MS</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>PLAT_MS</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>6096 Baseline Rd, Boulder, CO 80303</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="J33" t="inlineStr">
         <is>
           <t>BVSD</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr">
+      <c r="K33" t="inlineStr">
         <is>
           <t>http://npm.bvsd.org/</t>
         </is>
       </c>
-      <c r="J33" t="inlineStr">
+      <c r="L33" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/SRxrXgCL5287jJjE8</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr">
+      <c r="M33" t="inlineStr">
         <is>
           <t>Nevin Platt Middle School</t>
         </is>
       </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
         <v>40.0030354657493</v>
       </c>
-      <c r="M33" t="n">
+      <c r="O33" t="n">
         <v>-105.209456648465</v>
       </c>
-      <c r="N33" t="inlineStr">
+      <c r="P33" t="inlineStr">
         <is>
           <t>POINT (-105.209456648465 40.0030354657493)</t>
         </is>
@@ -2405,48 +2607,54 @@
       <c r="D34" t="n">
         <v>32</v>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="E34" t="n">
+        <v>32</v>
+      </c>
+      <c r="F34" t="n">
+        <v>32</v>
+      </c>
+      <c r="G34" t="inlineStr">
         <is>
           <t>Erie Elementary</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>ERIE_ES</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>4137 E County Line Rd, Erie, CO 80516</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
+      <c r="J34" t="inlineStr">
         <is>
           <t>SVVSD</t>
         </is>
       </c>
-      <c r="I34" t="inlineStr">
+      <c r="K34" t="inlineStr">
         <is>
           <t>https://ees.svvsd.org/</t>
         </is>
       </c>
-      <c r="J34" t="inlineStr">
+      <c r="L34" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/G29aD86nrnjvwdcr5</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr">
+      <c r="M34" t="inlineStr">
         <is>
           <t>Erie Elementary School</t>
         </is>
       </c>
-      <c r="L34" t="n">
+      <c r="N34" t="n">
         <v>40.0505686161916</v>
       </c>
-      <c r="M34" t="n">
+      <c r="O34" t="n">
         <v>-105.055990906269</v>
       </c>
-      <c r="N34" t="inlineStr">
+      <c r="P34" t="inlineStr">
         <is>
           <t>POINT (-105.055990906269 40.0505686161916)</t>
         </is>
@@ -2465,48 +2673,54 @@
       <c r="D35" t="n">
         <v>33</v>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="E35" t="n">
+        <v>33</v>
+      </c>
+      <c r="F35" t="n">
+        <v>33</v>
+      </c>
+      <c r="G35" t="inlineStr">
         <is>
           <t>Meadowlark</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>MWLK_P8</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>2300 Meadow Sweet Ln, Erie, CO 80516</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
+      <c r="J35" t="inlineStr">
         <is>
           <t>BVSD</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr">
+      <c r="K35" t="inlineStr">
         <is>
           <t>https://ml8.bvsd.org/</t>
         </is>
       </c>
-      <c r="J35" t="inlineStr">
+      <c r="L35" t="inlineStr">
         <is>
           <t>https://maps.app.goo.gl/EA1rf9bvvJL3sp8aA</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr">
+      <c r="M35" t="inlineStr">
         <is>
           <t>Meadowlark School</t>
         </is>
       </c>
-      <c r="L35" t="n">
+      <c r="N35" t="n">
         <v>40.034318124098</v>
       </c>
-      <c r="M35" t="n">
+      <c r="O35" t="n">
         <v>-105.083013187148</v>
       </c>
-      <c r="N35" t="inlineStr">
+      <c r="P35" t="inlineStr">
         <is>
           <t>POINT (-105.083013187148 40.034318124098)</t>
         </is>
@@ -2522,8 +2736,12 @@
       <c r="C36" t="n">
         <v>34</v>
       </c>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
+      <c r="D36" t="n">
+        <v>34</v>
+      </c>
+      <c r="E36" t="n">
+        <v>34</v>
+      </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
@@ -2532,7 +2750,9 @@
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr">
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr">
         <is>
           <t>POINT EMPTY</t>
         </is>
@@ -2548,8 +2768,12 @@
       <c r="C37" t="n">
         <v>35</v>
       </c>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
+      <c r="D37" t="n">
+        <v>35</v>
+      </c>
+      <c r="E37" t="n">
+        <v>35</v>
+      </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
@@ -2558,7 +2782,9 @@
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr">
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr">
         <is>
           <t>POINT EMPTY</t>
         </is>
@@ -2574,21 +2800,27 @@
       <c r="C38" t="n">
         <v>36</v>
       </c>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
+      <c r="D38" t="n">
+        <v>36</v>
+      </c>
+      <c r="E38" t="n">
+        <v>36</v>
+      </c>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
         <is>
           <t>40.03431812409801, -105.08301318714825</t>
         </is>
       </c>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr">
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr">
         <is>
           <t>POINT EMPTY</t>
         </is>
